--- a/LCOH modelling/output/longform_mi.xlsx
+++ b/LCOH modelling/output/longform_mi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,17 +484,22 @@
           <t>noelec_ghg_emissions</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>fuels</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1000409</v>
+        <v>1000248</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,19 +516,24 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>27583305.71687098</v>
+        <v>12518629.35769947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3699197.889182058</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J2" t="n">
-        <v>245349.3</v>
+        <v>111351.3</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -531,11 +541,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1001663</v>
+        <v>1000409</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -552,19 +562,24 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2204154.704904758</v>
+        <v>27583305.71687098</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>822104.7314312611</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J3" t="n">
-        <v>94768</v>
+        <v>245349.3</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -572,11 +587,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1001809</v>
+        <v>1001663</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -593,19 +608,24 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9436699.086823219</v>
+        <v>2204154.704904758</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1265555.974368639</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J4" t="n">
-        <v>83938</v>
+        <v>94768</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -613,11 +633,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1001892</v>
+        <v>1001809</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -634,19 +654,24 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2565481.662604301</v>
+        <v>9436699.086823219</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>343894.3330749999</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J5" t="n">
-        <v>22814.2</v>
+        <v>83938</v>
       </c>
       <c r="K5" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -654,11 +679,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1003135</v>
+        <v>1001892</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -675,19 +700,24 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9059750.525168074</v>
+        <v>2565481.662604301</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1215003.392385978</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J6" t="n">
-        <v>80585.10000000001</v>
+        <v>22814.2</v>
       </c>
       <c r="K6" t="n">
-        <v>198.3999999999942</v>
+        <v>677171.4747199999</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -695,11 +725,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1003320</v>
+        <v>1003135</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -716,19 +746,24 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>34765667.4450961</v>
+        <v>9059750.525168074</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4667144.234892589</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J7" t="n">
-        <v>309921</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>1626966.19008</v>
+        <v>198.3999999999942</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -736,11 +771,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1004477</v>
+        <v>1003320</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -757,19 +792,24 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6727939.909836411</v>
+        <v>34765667.4450961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>902284.206558613</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J8" t="n">
-        <v>59844</v>
+        <v>309921</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1626966.19008</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -777,11 +817,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1004553</v>
+        <v>1004477</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -798,19 +838,24 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1752216.647495778</v>
+        <v>6727939.909836411</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>234989.8228420656</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J9" t="n">
-        <v>15585.7</v>
+        <v>59844</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -818,11 +863,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1004584</v>
+        <v>1004553</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -839,19 +884,24 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>11894976.17506069</v>
+        <v>1752216.647495778</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1595235.582359593</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J10" t="n">
-        <v>105804</v>
+        <v>15585.7</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -859,11 +909,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1005073</v>
+        <v>1004584</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -880,19 +930,24 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5861269.634270976</v>
+        <v>11894976.17506069</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>786055.0320392009</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J11" t="n">
-        <v>52135.10000000001</v>
+        <v>105804</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -900,11 +955,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1005758</v>
+        <v>1005073</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -921,19 +976,24 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>13322590.65783248</v>
+        <v>5861269.634270976</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1750567.659253675</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J12" t="n">
-        <v>116106.4</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>14454.20000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -941,11 +1001,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1005838</v>
+        <v>1005758</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -962,19 +1022,24 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3603873.516309487</v>
+        <v>13322590.65783248</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>736735.5613471012</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J13" t="n">
-        <v>68233.39999999999</v>
+        <v>116106.4</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14454.20000000001</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -982,11 +1047,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1006063</v>
+        <v>1005838</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1003,19 +1068,24 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>11018974.65471689</v>
+        <v>3603873.516309487</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1477754.994346024</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J14" t="n">
-        <v>98012.10000000001</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1023,11 +1093,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1006312</v>
+        <v>1006063</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1044,19 +1114,24 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>5607295.274908995</v>
+        <v>11018974.65471689</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>778143.4822701593</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J15" t="n">
-        <v>54325.60000000001</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1064,11 +1139,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1006343</v>
+        <v>1006312</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1085,19 +1160,24 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>4911395.643983915</v>
+        <v>5607295.274908995</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1080986.896029099</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J16" t="n">
-        <v>104582.4</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1105,11 +1185,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1006367</v>
+        <v>1006343</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1126,19 +1206,24 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>16195709.69798012</v>
+        <v>4911395.643983915</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2363809.943917513</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J17" t="n">
-        <v>164732.9</v>
+        <v>104582.4</v>
       </c>
       <c r="K17" t="n">
-        <v>225930.30768</v>
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1146,11 +1231,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1007871</v>
+        <v>1006367</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1167,19 +1252,24 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>5656128.401173614</v>
+        <v>16195709.69798012</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>758543.5356200528</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J18" t="n">
-        <v>50310.4</v>
+        <v>164732.9</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>225930.30768</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1187,11 +1277,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1007933</v>
+        <v>1007603</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1208,19 +1298,24 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>23255980.29952718</v>
+        <v>1770867.894588918</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3118860.158311346</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J19" t="n">
-        <v>206858.4</v>
+        <v>15751.6</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1228,11 +1323,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1009702</v>
+        <v>1007871</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1249,19 +1344,24 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4513894.100593139</v>
+        <v>5656128.401173614</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>605358.4621183565</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J20" t="n">
-        <v>40150.4</v>
+        <v>50310.4</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1269,11 +1369,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1000409</v>
+        <v>1007933</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1283,26 +1383,31 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2303771.752489196</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>99739765.28423811</v>
+        <v>23255980.29952718</v>
       </c>
       <c r="H21" t="n">
-        <v>1084127883.524327</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3699197.889182058</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J21" t="n">
-        <v>245349.3</v>
+        <v>206858.4</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1310,11 +1415,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1001663</v>
+        <v>1009702</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1324,26 +1429,31 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>511987.1157468224</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>22166030.42292126</v>
+        <v>4513894.100593139</v>
       </c>
       <c r="H22" t="n">
-        <v>240935113.2926223</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>822104.7314312611</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J22" t="n">
-        <v>94768</v>
+        <v>40150.4</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1351,11 +1461,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1001809</v>
+        <v>1013961</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1365,26 +1475,31 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>788157.9175503581</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34122601.60688609</v>
+        <v>5287375.595474405</v>
       </c>
       <c r="H23" t="n">
-        <v>370897843.5531097</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1265555.974368639</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J23" t="n">
-        <v>83938</v>
+        <v>47030.4</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1392,11 +1507,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1001892</v>
+        <v>1000248</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1410,22 +1525,27 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>214169.1453426066</v>
+        <v>1045562.304612037</v>
       </c>
       <c r="G24" t="n">
-        <v>9272264.174832849</v>
+        <v>45266697.4232035</v>
       </c>
       <c r="H24" t="n">
-        <v>100785480.1612266</v>
+        <v>492029319.8174294</v>
       </c>
       <c r="I24" t="n">
-        <v>343894.3330749999</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J24" t="n">
-        <v>22814.2</v>
+        <v>111351.3</v>
       </c>
       <c r="K24" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1433,11 +1553,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1003135</v>
+        <v>1000409</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1451,22 +1571,27 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>756674.9815529005</v>
+        <v>2303771.752489196</v>
       </c>
       <c r="G25" t="n">
-        <v>32759575.67193734</v>
+        <v>99739765.28423811</v>
       </c>
       <c r="H25" t="n">
-        <v>356082344.2601885</v>
+        <v>1084127883.524327</v>
       </c>
       <c r="I25" t="n">
-        <v>1215003.392385978</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J25" t="n">
-        <v>80585.10000000001</v>
+        <v>245349.3</v>
       </c>
       <c r="K25" t="n">
-        <v>198.3999999999942</v>
+        <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1474,11 +1599,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1003320</v>
+        <v>1001663</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1492,22 +1617,27 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2906585.528874143</v>
+        <v>511987.1157468224</v>
       </c>
       <c r="G26" t="n">
-        <v>125838055.8383158</v>
+        <v>22166030.42292126</v>
       </c>
       <c r="H26" t="n">
-        <v>1367804954.764302</v>
+        <v>240935113.2926223</v>
       </c>
       <c r="I26" t="n">
-        <v>4667144.234892589</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J26" t="n">
-        <v>309921</v>
+        <v>94768</v>
       </c>
       <c r="K26" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1515,11 +1645,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1004477</v>
+        <v>1001809</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1533,22 +1663,27 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>561920.9704529967</v>
+        <v>788157.9175503581</v>
       </c>
       <c r="G27" t="n">
-        <v>24327872.60314151</v>
+        <v>34122601.60688609</v>
       </c>
       <c r="H27" t="n">
-        <v>264433397.8602338</v>
+        <v>370897843.5531097</v>
       </c>
       <c r="I27" t="n">
-        <v>902284.206558613</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J27" t="n">
-        <v>59844</v>
+        <v>83938</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1556,11 +1691,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1004553</v>
+        <v>1001892</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1574,22 +1709,27 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>146346.0274912985</v>
+        <v>214169.1453426066</v>
       </c>
       <c r="G28" t="n">
-        <v>6335922.131387984</v>
+        <v>9272264.174832849</v>
       </c>
       <c r="H28" t="n">
-        <v>68868718.81943461</v>
+        <v>100785480.1612266</v>
       </c>
       <c r="I28" t="n">
-        <v>234989.8228420656</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J28" t="n">
-        <v>15585.7</v>
+        <v>22814.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>677171.4747199999</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1597,11 +1737,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1004584</v>
+        <v>1003135</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1615,22 +1755,27 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>993474.4729264231</v>
+        <v>756674.9815529005</v>
       </c>
       <c r="G29" t="n">
-        <v>43011600.71022632</v>
+        <v>32759575.67193734</v>
       </c>
       <c r="H29" t="n">
-        <v>467517399.0241991</v>
+        <v>356082344.2601885</v>
       </c>
       <c r="I29" t="n">
-        <v>1595235.582359593</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J29" t="n">
-        <v>105804</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>198.3999999999942</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1638,11 +1783,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1005073</v>
+        <v>1003320</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1656,22 +1801,27 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>489536.2273020524</v>
+        <v>2906585.528874143</v>
       </c>
       <c r="G30" t="n">
-        <v>21194039.01731239</v>
+        <v>125838055.8383158</v>
       </c>
       <c r="H30" t="n">
-        <v>230369989.3186129</v>
+        <v>1367804954.764302</v>
       </c>
       <c r="I30" t="n">
-        <v>786055.0320392009</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J30" t="n">
-        <v>52135.10000000001</v>
+        <v>309921</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1626966.19008</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1679,11 +1829,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1005758</v>
+        <v>1004477</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1697,22 +1847,27 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1090211.566135349</v>
+        <v>561920.9704529967</v>
       </c>
       <c r="G31" t="n">
-        <v>47199747.80444805</v>
+        <v>24327872.60314151</v>
       </c>
       <c r="H31" t="n">
-        <v>513040737.0048701</v>
+        <v>264433397.8602338</v>
       </c>
       <c r="I31" t="n">
-        <v>1750567.659253675</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J31" t="n">
-        <v>116106.4</v>
+        <v>59844</v>
       </c>
       <c r="K31" t="n">
-        <v>14454.20000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1720,11 +1875,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1005838</v>
+        <v>1004553</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1738,22 +1893,27 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>458821.243450972</v>
+        <v>146346.0274912985</v>
       </c>
       <c r="G32" t="n">
-        <v>19864260.8929362</v>
+        <v>6335922.131387984</v>
       </c>
       <c r="H32" t="n">
-        <v>215915879.2710456</v>
+        <v>68868718.81943461</v>
       </c>
       <c r="I32" t="n">
-        <v>736735.5613471012</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J32" t="n">
-        <v>68233.39999999999</v>
+        <v>15585.7</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1761,11 +1921,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1006063</v>
+        <v>1004584</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1779,22 +1939,27 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>920310.3794555203</v>
+        <v>993474.4729264231</v>
       </c>
       <c r="G33" t="n">
-        <v>39844025.83995664</v>
+        <v>43011600.71022632</v>
       </c>
       <c r="H33" t="n">
-        <v>433087237.3908331</v>
+        <v>467517399.0241991</v>
       </c>
       <c r="I33" t="n">
-        <v>1477754.994346024</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J33" t="n">
-        <v>98012.10000000001</v>
+        <v>105804</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1802,11 +1967,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1006312</v>
+        <v>1005073</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1820,22 +1985,27 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>484609.1037951884</v>
+        <v>489536.2273020524</v>
       </c>
       <c r="G34" t="n">
-        <v>20980723.55254463</v>
+        <v>21194039.01731239</v>
       </c>
       <c r="H34" t="n">
-        <v>228051342.9624416</v>
+        <v>230369989.3186129</v>
       </c>
       <c r="I34" t="n">
-        <v>778143.4822701593</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J34" t="n">
-        <v>54325.60000000001</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1843,11 +2013,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1006343</v>
+        <v>1005758</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1861,22 +2031,27 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>673212.720834857</v>
+        <v>1090211.566135349</v>
       </c>
       <c r="G35" t="n">
-        <v>29146150.73732087</v>
+        <v>47199747.80444805</v>
       </c>
       <c r="H35" t="n">
-        <v>316805986.2752268</v>
+        <v>513040737.0048701</v>
       </c>
       <c r="I35" t="n">
-        <v>1080986.896029099</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J35" t="n">
-        <v>104582.4</v>
+        <v>116106.4</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>14454.20000000001</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1884,11 +2059,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1006367</v>
+        <v>1005838</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1902,22 +2077,27 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1472124.157773659</v>
+        <v>458821.243450972</v>
       </c>
       <c r="G36" t="n">
-        <v>63734316.47773019</v>
+        <v>19864260.8929362</v>
       </c>
       <c r="H36" t="n">
-        <v>692764309.5405456</v>
+        <v>215915879.2710456</v>
       </c>
       <c r="I36" t="n">
-        <v>2363809.943917513</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J36" t="n">
-        <v>164732.9</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>225930.30768</v>
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1925,11 +2105,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1007871</v>
+        <v>1006063</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1943,22 +2123,27 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>472402.726954723</v>
+        <v>920310.3794555203</v>
       </c>
       <c r="G37" t="n">
-        <v>20452259.23756918</v>
+        <v>39844025.83995664</v>
       </c>
       <c r="H37" t="n">
-        <v>222307165.625752</v>
+        <v>433087237.3908331</v>
       </c>
       <c r="I37" t="n">
-        <v>758543.5356200528</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J37" t="n">
-        <v>50310.4</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1966,11 +2151,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1007933</v>
+        <v>1006312</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1984,22 +2169,27 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1942351.328025435</v>
+        <v>484609.1037951884</v>
       </c>
       <c r="G38" t="n">
-        <v>84092386.90745415</v>
+        <v>20980723.55254463</v>
       </c>
       <c r="H38" t="n">
-        <v>914047683.7766755</v>
+        <v>228051342.9624416</v>
       </c>
       <c r="I38" t="n">
-        <v>3118860.158311346</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J38" t="n">
-        <v>206858.4</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2007,11 +2197,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1009702</v>
+        <v>1006343</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2025,22 +2215,27 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>377002.735981485</v>
+        <v>673212.720834857</v>
       </c>
       <c r="G39" t="n">
-        <v>16322000.80484547</v>
+        <v>29146150.73732087</v>
       </c>
       <c r="H39" t="n">
-        <v>177413052.2265812</v>
+        <v>316805986.2752268</v>
       </c>
       <c r="I39" t="n">
-        <v>605358.4621183565</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J39" t="n">
-        <v>40150.4</v>
+        <v>104582.4</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2048,11 +2243,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1000409</v>
+        <v>1006367</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2062,26 +2257,31 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>8130959.126432455</v>
+        <v>1472124.157773659</v>
       </c>
       <c r="G40" t="n">
-        <v>99739765.28423811</v>
+        <v>63734316.47773019</v>
       </c>
       <c r="H40" t="n">
-        <v>1084127883.524327</v>
+        <v>692764309.5405456</v>
       </c>
       <c r="I40" t="n">
-        <v>3699197.889182058</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J40" t="n">
-        <v>245349.3</v>
+        <v>164732.9</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>225930.30768</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2089,11 +2289,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1001663</v>
+        <v>1007603</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2103,26 +2303,31 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1807013.349694667</v>
+        <v>147903.7891549265</v>
       </c>
       <c r="G41" t="n">
-        <v>22166030.42292126</v>
+        <v>6403364.048119172</v>
       </c>
       <c r="H41" t="n">
-        <v>240935113.2926223</v>
+        <v>69601783.13173012</v>
       </c>
       <c r="I41" t="n">
-        <v>822104.7314312611</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J41" t="n">
-        <v>94768</v>
+        <v>15751.6</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2130,11 +2335,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1001809</v>
+        <v>1007871</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2144,26 +2349,31 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2781733.826648322</v>
+        <v>472402.726954723</v>
       </c>
       <c r="G42" t="n">
-        <v>34122601.60688609</v>
+        <v>20452259.23756918</v>
       </c>
       <c r="H42" t="n">
-        <v>370897843.5531097</v>
+        <v>222307165.625752</v>
       </c>
       <c r="I42" t="n">
-        <v>1265555.974368639</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J42" t="n">
-        <v>83938</v>
+        <v>50310.4</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2171,11 +2381,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1001892</v>
+        <v>1007933</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2185,26 +2395,31 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>755891.1012091996</v>
+        <v>1942351.328025435</v>
       </c>
       <c r="G43" t="n">
-        <v>9272264.174832849</v>
+        <v>84092386.90745415</v>
       </c>
       <c r="H43" t="n">
-        <v>100785480.1612266</v>
+        <v>914047683.7766755</v>
       </c>
       <c r="I43" t="n">
-        <v>343894.3330749999</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J43" t="n">
-        <v>22814.2</v>
+        <v>206858.4</v>
       </c>
       <c r="K43" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2212,11 +2427,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1003135</v>
+        <v>1009702</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2226,26 +2441,31 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2670617.581951413</v>
+        <v>377002.735981485</v>
       </c>
       <c r="G44" t="n">
-        <v>32759575.67193734</v>
+        <v>16322000.80484547</v>
       </c>
       <c r="H44" t="n">
-        <v>356082344.2601885</v>
+        <v>177413052.2265812</v>
       </c>
       <c r="I44" t="n">
-        <v>1215003.392385978</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J44" t="n">
-        <v>80585.10000000001</v>
+        <v>40150.4</v>
       </c>
       <c r="K44" t="n">
-        <v>198.3999999999942</v>
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2253,11 +2473,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1003320</v>
+        <v>1013961</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2267,26 +2487,31 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10258537.16073227</v>
+        <v>441604.3046720242</v>
       </c>
       <c r="G45" t="n">
-        <v>125838055.8383158</v>
+        <v>19118868.71991822</v>
       </c>
       <c r="H45" t="n">
-        <v>1367804954.764302</v>
+        <v>207813790.4338937</v>
       </c>
       <c r="I45" t="n">
-        <v>4667144.234892589</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J45" t="n">
-        <v>309921</v>
+        <v>47030.4</v>
       </c>
       <c r="K45" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2294,11 +2519,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1004477</v>
+        <v>1000248</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2312,22 +2537,27 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1983250.483951753</v>
+        <v>3690219.89863072</v>
       </c>
       <c r="G46" t="n">
-        <v>24327872.60314151</v>
+        <v>45266697.4232035</v>
       </c>
       <c r="H46" t="n">
-        <v>264433397.8602338</v>
+        <v>492029319.8174294</v>
       </c>
       <c r="I46" t="n">
-        <v>902284.206558613</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J46" t="n">
-        <v>59844</v>
+        <v>111351.3</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2335,11 +2565,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1004553</v>
+        <v>1000409</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2353,22 +2583,27 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>516515.3911457596</v>
+        <v>8130959.126432455</v>
       </c>
       <c r="G47" t="n">
-        <v>6335922.131387984</v>
+        <v>99739765.28423811</v>
       </c>
       <c r="H47" t="n">
-        <v>68868718.81943461</v>
+        <v>1084127883.524327</v>
       </c>
       <c r="I47" t="n">
-        <v>234989.8228420656</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J47" t="n">
-        <v>15585.7</v>
+        <v>245349.3</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2376,11 +2611,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1004584</v>
+        <v>1001663</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2394,22 +2629,27 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3506380.492681494</v>
+        <v>1807013.349694667</v>
       </c>
       <c r="G48" t="n">
-        <v>43011600.71022632</v>
+        <v>22166030.42292126</v>
       </c>
       <c r="H48" t="n">
-        <v>467517399.0241991</v>
+        <v>240935113.2926223</v>
       </c>
       <c r="I48" t="n">
-        <v>1595235.582359593</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J48" t="n">
-        <v>105804</v>
+        <v>94768</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2417,11 +2657,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1005073</v>
+        <v>1001809</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2435,22 +2675,27 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1727774.919889597</v>
+        <v>2781733.826648322</v>
       </c>
       <c r="G49" t="n">
-        <v>21194039.01731239</v>
+        <v>34122601.60688609</v>
       </c>
       <c r="H49" t="n">
-        <v>230369989.3186129</v>
+        <v>370897843.5531097</v>
       </c>
       <c r="I49" t="n">
-        <v>786055.0320392009</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J49" t="n">
-        <v>52135.10000000001</v>
+        <v>83938</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2458,11 +2703,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1005758</v>
+        <v>1001892</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2476,22 +2721,27 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3847805.527536525</v>
+        <v>755891.1012091996</v>
       </c>
       <c r="G50" t="n">
-        <v>47199747.80444805</v>
+        <v>9272264.174832849</v>
       </c>
       <c r="H50" t="n">
-        <v>513040737.0048701</v>
+        <v>100785480.1612266</v>
       </c>
       <c r="I50" t="n">
-        <v>1750567.659253675</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J50" t="n">
-        <v>116106.4</v>
+        <v>22814.2</v>
       </c>
       <c r="K50" t="n">
-        <v>14454.20000000001</v>
+        <v>677171.4747199999</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2499,11 +2749,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1005838</v>
+        <v>1003135</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2517,22 +2767,27 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1619369.094532842</v>
+        <v>2670617.581951413</v>
       </c>
       <c r="G51" t="n">
-        <v>19864260.8929362</v>
+        <v>32759575.67193734</v>
       </c>
       <c r="H51" t="n">
-        <v>215915879.2710456</v>
+        <v>356082344.2601885</v>
       </c>
       <c r="I51" t="n">
-        <v>736735.5613471012</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J51" t="n">
-        <v>68233.39999999999</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>198.3999999999942</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2540,11 +2795,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1006063</v>
+        <v>1003320</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2558,22 +2813,27 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3248154.280431248</v>
+        <v>10258537.16073227</v>
       </c>
       <c r="G52" t="n">
-        <v>39844025.83995664</v>
+        <v>125838055.8383158</v>
       </c>
       <c r="H52" t="n">
-        <v>433087237.3908331</v>
+        <v>1367804954.764302</v>
       </c>
       <c r="I52" t="n">
-        <v>1477754.994346024</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J52" t="n">
-        <v>98012.10000000001</v>
+        <v>309921</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1626966.19008</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2581,11 +2841,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1006312</v>
+        <v>1004477</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2599,22 +2859,27 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1710385.072218312</v>
+        <v>1983250.483951753</v>
       </c>
       <c r="G53" t="n">
-        <v>20980723.55254463</v>
+        <v>24327872.60314151</v>
       </c>
       <c r="H53" t="n">
-        <v>228051342.9624416</v>
+        <v>264433397.8602338</v>
       </c>
       <c r="I53" t="n">
-        <v>778143.4822701593</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J53" t="n">
-        <v>54325.60000000001</v>
+        <v>59844</v>
       </c>
       <c r="K53" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>0</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2622,11 +2887,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1006343</v>
+        <v>1004553</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2640,22 +2905,27 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2376044.897064201</v>
+        <v>516515.3911457596</v>
       </c>
       <c r="G54" t="n">
-        <v>29146150.73732087</v>
+        <v>6335922.131387984</v>
       </c>
       <c r="H54" t="n">
-        <v>316805986.2752268</v>
+        <v>68868718.81943461</v>
       </c>
       <c r="I54" t="n">
-        <v>1080986.896029099</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J54" t="n">
-        <v>104582.4</v>
+        <v>15585.7</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2663,11 +2933,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1006367</v>
+        <v>1004584</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2681,22 +2951,27 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5195732.321554092</v>
+        <v>3506380.492681494</v>
       </c>
       <c r="G55" t="n">
-        <v>63734316.47773019</v>
+        <v>43011600.71022632</v>
       </c>
       <c r="H55" t="n">
-        <v>692764309.5405456</v>
+        <v>467517399.0241991</v>
       </c>
       <c r="I55" t="n">
-        <v>2363809.943917513</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J55" t="n">
-        <v>164732.9</v>
+        <v>105804</v>
       </c>
       <c r="K55" t="n">
-        <v>225930.30768</v>
+        <v>0</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2704,11 +2979,11 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1007871</v>
+        <v>1005073</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2722,22 +2997,27 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1667303.74219314</v>
+        <v>1727774.919889597</v>
       </c>
       <c r="G56" t="n">
-        <v>20452259.23756918</v>
+        <v>21194039.01731239</v>
       </c>
       <c r="H56" t="n">
-        <v>222307165.625752</v>
+        <v>230369989.3186129</v>
       </c>
       <c r="I56" t="n">
-        <v>758543.5356200528</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J56" t="n">
-        <v>50310.4</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2745,11 +3025,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1007933</v>
+        <v>1005758</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2763,22 +3043,27 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6855357.628325067</v>
+        <v>3847805.527536525</v>
       </c>
       <c r="G57" t="n">
-        <v>84092386.90745415</v>
+        <v>47199747.80444805</v>
       </c>
       <c r="H57" t="n">
-        <v>914047683.7766755</v>
+        <v>513040737.0048701</v>
       </c>
       <c r="I57" t="n">
-        <v>3118860.158311346</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J57" t="n">
-        <v>206858.4</v>
+        <v>116106.4</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>14454.20000000001</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2786,11 +3071,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1009702</v>
+        <v>1005838</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2804,22 +3089,27 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1330597.891699359</v>
+        <v>1619369.094532842</v>
       </c>
       <c r="G58" t="n">
-        <v>16322000.80484547</v>
+        <v>19864260.8929362</v>
       </c>
       <c r="H58" t="n">
-        <v>177413052.2265812</v>
+        <v>215915879.2710456</v>
       </c>
       <c r="I58" t="n">
-        <v>605358.4621183565</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J58" t="n">
-        <v>40150.4</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2827,11 +3117,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1000409</v>
+        <v>1006063</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2841,26 +3131,31 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>40654795.63216227</v>
+        <v>3248154.280431248</v>
       </c>
       <c r="G59" t="n">
-        <v>47173150.8517601</v>
+        <v>39844025.83995664</v>
       </c>
       <c r="H59" t="n">
-        <v>512751639.6930446</v>
+        <v>433087237.3908331</v>
       </c>
       <c r="I59" t="n">
-        <v>3699197.889182058</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J59" t="n">
-        <v>245349.3</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2868,11 +3163,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1001663</v>
+        <v>1006312</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2882,26 +3177,31 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>9035066.748473337</v>
+        <v>1710385.072218312</v>
       </c>
       <c r="G60" t="n">
-        <v>14689623.91688831</v>
+        <v>20980723.55254463</v>
       </c>
       <c r="H60" t="n">
-        <v>159669825.1835686</v>
+        <v>228051342.9624416</v>
       </c>
       <c r="I60" t="n">
-        <v>822104.7314312611</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J60" t="n">
-        <v>94768</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2909,11 +3209,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1001809</v>
+        <v>1006343</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2923,26 +3223,31 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>13908669.13324161</v>
+        <v>2376044.897064201</v>
       </c>
       <c r="G61" t="n">
-        <v>20226676.53001529</v>
+        <v>29146150.73732087</v>
       </c>
       <c r="H61" t="n">
-        <v>219855179.6740793</v>
+        <v>316805986.2752268</v>
       </c>
       <c r="I61" t="n">
-        <v>1265555.974368639</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J61" t="n">
-        <v>83938</v>
+        <v>104582.4</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2950,11 +3255,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1001892</v>
+        <v>1006367</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2964,26 +3269,31 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3779455.506045998</v>
+        <v>5195732.321554092</v>
       </c>
       <c r="G62" t="n">
-        <v>7378153.763388069</v>
+        <v>63734316.47773019</v>
       </c>
       <c r="H62" t="n">
-        <v>80197323.51508771</v>
+        <v>692764309.5405456</v>
       </c>
       <c r="I62" t="n">
-        <v>343894.3330749999</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J62" t="n">
-        <v>22814.2</v>
+        <v>164732.9</v>
       </c>
       <c r="K62" t="n">
-        <v>677171.4747199999</v>
+        <v>225930.30768</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2991,11 +3301,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1003135</v>
+        <v>1007603</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3005,26 +3315,31 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>13353087.90975707</v>
+        <v>522013.373487976</v>
       </c>
       <c r="G63" t="n">
-        <v>19418722.75773709</v>
+        <v>6403364.048119172</v>
       </c>
       <c r="H63" t="n">
-        <v>211073073.453664</v>
+        <v>69601783.13173012</v>
       </c>
       <c r="I63" t="n">
-        <v>1215003.392385978</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J63" t="n">
-        <v>80585.10000000001</v>
+        <v>15751.6</v>
       </c>
       <c r="K63" t="n">
-        <v>198.3999999999942</v>
+        <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -3032,11 +3347,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1003320</v>
+        <v>1007871</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3046,26 +3361,31 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>51292685.80366135</v>
+        <v>1667303.74219314</v>
       </c>
       <c r="G64" t="n">
-        <v>100132233.9133683</v>
+        <v>20452259.23756918</v>
       </c>
       <c r="H64" t="n">
-        <v>1088393846.884438</v>
+        <v>222307165.625752</v>
       </c>
       <c r="I64" t="n">
-        <v>4667144.234892589</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J64" t="n">
-        <v>309921</v>
+        <v>50310.4</v>
       </c>
       <c r="K64" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -3073,11 +3393,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1004477</v>
+        <v>1007933</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3087,26 +3407,31 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>9916252.419758765</v>
+        <v>6855357.628325067</v>
       </c>
       <c r="G65" t="n">
-        <v>17232918.95824612</v>
+        <v>84092386.90745415</v>
       </c>
       <c r="H65" t="n">
-        <v>187314336.5026752</v>
+        <v>914047683.7766755</v>
       </c>
       <c r="I65" t="n">
-        <v>902284.206558613</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J65" t="n">
-        <v>59844</v>
+        <v>206858.4</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -3114,11 +3439,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1004553</v>
+        <v>1009702</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3128,26 +3453,31 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2582576.955728798</v>
+        <v>1330597.891699359</v>
       </c>
       <c r="G66" t="n">
-        <v>2996652.434835875</v>
+        <v>16322000.80484547</v>
       </c>
       <c r="H66" t="n">
-        <v>32572309.07430299</v>
+        <v>177413052.2265812</v>
       </c>
       <c r="I66" t="n">
-        <v>234989.8228420656</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J66" t="n">
-        <v>15585.7</v>
+        <v>40150.4</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3155,11 +3485,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1004584</v>
+        <v>1013961</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3169,26 +3499,31 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>17531902.46340747</v>
+        <v>1558603.428254203</v>
       </c>
       <c r="G67" t="n">
-        <v>25495762.15280014</v>
+        <v>19118868.71991822</v>
       </c>
       <c r="H67" t="n">
-        <v>277127849.4869581</v>
+        <v>207813790.4338937</v>
       </c>
       <c r="I67" t="n">
-        <v>1595235.582359593</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J67" t="n">
-        <v>105804</v>
+        <v>47030.4</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -3196,11 +3531,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1005073</v>
+        <v>1000248</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3214,22 +3549,27 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>8638874.599447984</v>
+        <v>18451099.4931536</v>
       </c>
       <c r="G68" t="n">
-        <v>10023981.87796582</v>
+        <v>19226970.44734681</v>
       </c>
       <c r="H68" t="n">
-        <v>108956324.760498</v>
+        <v>208988809.2102914</v>
       </c>
       <c r="I68" t="n">
-        <v>786055.0320392009</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J68" t="n">
-        <v>52135.10000000001</v>
+        <v>111351.3</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -3237,11 +3577,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1005758</v>
+        <v>1000409</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3255,22 +3595,27 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>19239027.63768263</v>
+        <v>40654795.63216227</v>
       </c>
       <c r="G69" t="n">
-        <v>33434465.97376024</v>
+        <v>42364334.68111487</v>
       </c>
       <c r="H69" t="n">
-        <v>363418108.4104373</v>
+        <v>460481898.7077703</v>
       </c>
       <c r="I69" t="n">
-        <v>1750567.659253675</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J69" t="n">
-        <v>116106.4</v>
+        <v>245349.3</v>
       </c>
       <c r="K69" t="n">
-        <v>14454.20000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -3278,11 +3623,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1005838</v>
+        <v>1001663</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3296,22 +3641,27 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>8096845.472664211</v>
+        <v>9035066.748473337</v>
       </c>
       <c r="G70" t="n">
-        <v>9395046.930286709</v>
+        <v>13361414.79718976</v>
       </c>
       <c r="H70" t="n">
-        <v>102120075.3292034</v>
+        <v>145232769.5346712</v>
       </c>
       <c r="I70" t="n">
-        <v>736735.5613471012</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J70" t="n">
-        <v>68233.39999999999</v>
+        <v>94768</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -3319,11 +3669,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1006063</v>
+        <v>1001809</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3337,22 +3687,27 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>16240771.40215624</v>
+        <v>13908669.13324161</v>
       </c>
       <c r="G71" t="n">
-        <v>26404987.44053457</v>
+        <v>18311221.17007698</v>
       </c>
       <c r="H71" t="n">
-        <v>287010733.0492888</v>
+        <v>199035012.718228</v>
       </c>
       <c r="I71" t="n">
-        <v>1477754.994346024</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J71" t="n">
-        <v>98012.10000000001</v>
+        <v>83938</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -3360,11 +3715,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1006312</v>
+        <v>1001892</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3378,22 +3733,27 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>8551925.36109156</v>
+        <v>3779455.506045998</v>
       </c>
       <c r="G72" t="n">
-        <v>14861928.72531232</v>
+        <v>6771937.774612603</v>
       </c>
       <c r="H72" t="n">
-        <v>161542703.5360034</v>
+        <v>73608019.28926742</v>
       </c>
       <c r="I72" t="n">
-        <v>778143.4822701593</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J72" t="n">
-        <v>54325.60000000001</v>
+        <v>22814.2</v>
       </c>
       <c r="K72" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>677171.4747199999</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3401,11 +3761,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1006343</v>
+        <v>1003135</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3419,22 +3779,27 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>11880224.48532101</v>
+        <v>13353087.90975707</v>
       </c>
       <c r="G73" t="n">
-        <v>20645999.82886364</v>
+        <v>17579780.1843357</v>
       </c>
       <c r="H73" t="n">
-        <v>224413041.6180831</v>
+        <v>191084567.2210402</v>
       </c>
       <c r="I73" t="n">
-        <v>1080986.896029099</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J73" t="n">
-        <v>104582.4</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>198.3999999999942</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3442,11 +3807,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1006367</v>
+        <v>1003320</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3460,22 +3825,27 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>25978661.60777046</v>
+        <v>51292685.80366135</v>
       </c>
       <c r="G74" t="n">
-        <v>50714860.80535538</v>
+        <v>91905004.8345568</v>
       </c>
       <c r="H74" t="n">
-        <v>551248487.0147324</v>
+        <v>998967443.8538784</v>
       </c>
       <c r="I74" t="n">
-        <v>2363809.943917513</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J74" t="n">
-        <v>164732.9</v>
+        <v>309921</v>
       </c>
       <c r="K74" t="n">
-        <v>225930.30768</v>
+        <v>1626966.19008</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3483,11 +3853,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1007871</v>
+        <v>1004477</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3501,22 +3871,27 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>8336518.7109657</v>
+        <v>9916252.419758765</v>
       </c>
       <c r="G75" t="n">
-        <v>9673147.991913535</v>
+        <v>15723282.54871489</v>
       </c>
       <c r="H75" t="n">
-        <v>105142912.9555819</v>
+        <v>170905245.0947271</v>
       </c>
       <c r="I75" t="n">
-        <v>758543.5356200528</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J75" t="n">
-        <v>50310.4</v>
+        <v>59844</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -3524,11 +3899,11 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1007933</v>
+        <v>1004553</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3542,22 +3917,27 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>34276788.14162533</v>
+        <v>2582576.955728798</v>
       </c>
       <c r="G76" t="n">
-        <v>49847005.46017914</v>
+        <v>2691174.627518611</v>
       </c>
       <c r="H76" t="n">
-        <v>541815276.7410775</v>
+        <v>29251898.1252023</v>
       </c>
       <c r="I76" t="n">
-        <v>3118860.158311346</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J76" t="n">
-        <v>206858.4</v>
+        <v>15585.7</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -3565,11 +3945,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1009702</v>
+        <v>1004584</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3583,22 +3963,27 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>6652989.458496795</v>
+        <v>17531902.46340747</v>
       </c>
       <c r="G77" t="n">
-        <v>10816733.93114155</v>
+        <v>23081327.22579553</v>
       </c>
       <c r="H77" t="n">
-        <v>117573194.9037125</v>
+        <v>250883991.584734</v>
       </c>
       <c r="I77" t="n">
-        <v>605358.4621183565</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J77" t="n">
-        <v>40150.4</v>
+        <v>105804</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3606,11 +3991,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1000409</v>
+        <v>1005073</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3620,26 +4005,31 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>135515985.4405409</v>
+        <v>8638874.599447984</v>
       </c>
       <c r="G78" t="n">
-        <v>50318027.57521078</v>
+        <v>9002140.316004129</v>
       </c>
       <c r="H78" t="n">
-        <v>546935082.3392476</v>
+        <v>97849351.26091444</v>
       </c>
       <c r="I78" t="n">
-        <v>3699197.889182058</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J78" t="n">
-        <v>245349.3</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3647,11 +4037,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1001663</v>
+        <v>1005758</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3661,26 +4051,31 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>30116889.16157779</v>
+        <v>19239027.63768263</v>
       </c>
       <c r="G79" t="n">
-        <v>15301691.58009199</v>
+        <v>30505543.29446746</v>
       </c>
       <c r="H79" t="n">
-        <v>166322734.5662173</v>
+        <v>331581992.3311681</v>
       </c>
       <c r="I79" t="n">
-        <v>822104.7314312611</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J79" t="n">
-        <v>94768</v>
+        <v>116106.4</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>14454.20000000001</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -3688,11 +4083,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1001809</v>
+        <v>1005838</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3702,26 +4097,31 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>46362230.44413871</v>
+        <v>8096845.472664211</v>
       </c>
       <c r="G80" t="n">
-        <v>21218180.28148663</v>
+        <v>8437318.799208352</v>
       </c>
       <c r="H80" t="n">
-        <v>230632394.3639852</v>
+        <v>91709986.94791687</v>
       </c>
       <c r="I80" t="n">
-        <v>1265555.974368639</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J80" t="n">
-        <v>83938</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -3729,11 +4129,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1001892</v>
+        <v>1006063</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3743,26 +4143,31 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>12598185.02015333</v>
+        <v>16240771.40215624</v>
       </c>
       <c r="G81" t="n">
-        <v>7608721.068493946</v>
+        <v>24017496.42493933</v>
       </c>
       <c r="H81" t="n">
-        <v>82703489.8749342</v>
+        <v>261059743.7493406</v>
       </c>
       <c r="I81" t="n">
-        <v>343894.3330749999</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J81" t="n">
-        <v>22814.2</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3770,11 +4175,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1003135</v>
+        <v>1006312</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3784,26 +4189,31 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>44510293.03252356</v>
+        <v>8551925.36109156</v>
       </c>
       <c r="G82" t="n">
-        <v>20370620.93213596</v>
+        <v>13559995.56042305</v>
       </c>
       <c r="H82" t="n">
-        <v>221419792.7406083</v>
+        <v>147391256.0915549</v>
       </c>
       <c r="I82" t="n">
-        <v>1215003.392385978</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J82" t="n">
-        <v>80585.10000000001</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K82" t="n">
-        <v>198.3999999999942</v>
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3811,11 +4221,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1003320</v>
+        <v>1006343</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3825,26 +4235,31 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>170975619.3455378</v>
+        <v>11880224.48532101</v>
       </c>
       <c r="G83" t="n">
-        <v>103261366.2231611</v>
+        <v>18837371.05689846</v>
       </c>
       <c r="H83" t="n">
-        <v>1122406154.599577</v>
+        <v>204754033.2271572</v>
       </c>
       <c r="I83" t="n">
-        <v>4667144.234892589</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J83" t="n">
-        <v>309921</v>
+        <v>104582.4</v>
       </c>
       <c r="K83" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -3852,11 +4267,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1004477</v>
+        <v>1006367</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3866,26 +4281,31 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>33054174.73252922</v>
+        <v>25978661.60777046</v>
       </c>
       <c r="G84" t="n">
-        <v>17881748.73830057</v>
+        <v>46547943.10823613</v>
       </c>
       <c r="H84" t="n">
-        <v>194366834.1119627</v>
+        <v>505955903.3503928</v>
       </c>
       <c r="I84" t="n">
-        <v>902284.206558613</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J84" t="n">
-        <v>59844</v>
+        <v>164732.9</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>225930.30768</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -3893,11 +4313,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1004553</v>
+        <v>1007603</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3907,26 +4327,31 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>8608589.852429327</v>
+        <v>2610066.86743988</v>
       </c>
       <c r="G85" t="n">
-        <v>3196429.263824933</v>
+        <v>2719820.49332543</v>
       </c>
       <c r="H85" t="n">
-        <v>34743796.34592319</v>
+        <v>29563266.23179815</v>
       </c>
       <c r="I85" t="n">
-        <v>234989.8228420656</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J85" t="n">
-        <v>15585.7</v>
+        <v>15751.6</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -3934,11 +4359,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1004584</v>
+        <v>1007871</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3948,26 +4373,31 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>58439674.87802489</v>
+        <v>8336518.7109657</v>
       </c>
       <c r="G86" t="n">
-        <v>26745554.41519231</v>
+        <v>8687070.326024005</v>
       </c>
       <c r="H86" t="n">
-        <v>290712547.9912208</v>
+        <v>94424677.45678267</v>
       </c>
       <c r="I86" t="n">
-        <v>1595235.582359593</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J86" t="n">
-        <v>105804</v>
+        <v>50310.4</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -3975,11 +4405,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1005073</v>
+        <v>1007933</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3989,26 +4419,31 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>28796248.66482661</v>
+        <v>34276788.14162533</v>
       </c>
       <c r="G87" t="n">
-        <v>10692247.33649687</v>
+        <v>45126520.92363711</v>
       </c>
       <c r="H87" t="n">
-        <v>116220079.7445312</v>
+        <v>490505662.2134469</v>
       </c>
       <c r="I87" t="n">
-        <v>786055.0320392009</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J87" t="n">
-        <v>52135.10000000001</v>
+        <v>206858.4</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -4016,11 +4451,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1005758</v>
+        <v>1009702</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4030,26 +4465,31 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>64130092.12560876</v>
+        <v>6652989.458496795</v>
       </c>
       <c r="G88" t="n">
-        <v>34693293.75891687</v>
+        <v>9838704.491178986</v>
       </c>
       <c r="H88" t="n">
-        <v>377101019.1186616</v>
+        <v>106942440.1215107</v>
       </c>
       <c r="I88" t="n">
-        <v>1750567.659253675</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J88" t="n">
-        <v>116106.4</v>
+        <v>40150.4</v>
       </c>
       <c r="K88" t="n">
-        <v>14454.20000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -4057,11 +4497,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1005838</v>
+        <v>1013961</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4071,26 +4511,31 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>26989484.9088807</v>
+        <v>7793017.141271014</v>
       </c>
       <c r="G89" t="n">
-        <v>10021383.39230582</v>
+        <v>9734919.085580764</v>
       </c>
       <c r="H89" t="n">
-        <v>108928080.3511503</v>
+        <v>105814337.8867474</v>
       </c>
       <c r="I89" t="n">
-        <v>736735.5613471012</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J89" t="n">
-        <v>68233.39999999999</v>
+        <v>47030.4</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -4098,11 +4543,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1006063</v>
+        <v>1000248</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4116,22 +4561,27 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>54135904.67385413</v>
+        <v>61503664.97717867</v>
       </c>
       <c r="G90" t="n">
-        <v>27505195.25055685</v>
+        <v>20508768.47716993</v>
       </c>
       <c r="H90" t="n">
-        <v>298969513.5930092</v>
+        <v>222921396.4909775</v>
       </c>
       <c r="I90" t="n">
-        <v>1477754.994346024</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J90" t="n">
-        <v>98012.10000000001</v>
+        <v>111351.3</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -4139,11 +4589,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1006312</v>
+        <v>1000409</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4157,22 +4607,27 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>28506417.8703052</v>
+        <v>135515985.4405409</v>
       </c>
       <c r="G91" t="n">
-        <v>15421489.29478944</v>
+        <v>45188623.65985586</v>
       </c>
       <c r="H91" t="n">
-        <v>167624883.6390156</v>
+        <v>491180691.954955</v>
       </c>
       <c r="I91" t="n">
-        <v>778143.4822701593</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J91" t="n">
-        <v>54325.60000000001</v>
+        <v>245349.3</v>
       </c>
       <c r="K91" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>0</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -4180,11 +4635,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1006343</v>
+        <v>1001663</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4198,22 +4653,27 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>39600748.28440335</v>
+        <v>30116889.16157779</v>
       </c>
       <c r="G92" t="n">
-        <v>21423334.15976965</v>
+        <v>13918140.41373933</v>
       </c>
       <c r="H92" t="n">
-        <v>232862327.8235832</v>
+        <v>151284134.9319492</v>
       </c>
       <c r="I92" t="n">
-        <v>1080986.896029099</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J92" t="n">
-        <v>104582.4</v>
+        <v>94768</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -4221,11 +4681,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1006367</v>
+        <v>1001809</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4239,22 +4699,27 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>86595538.6925682</v>
+        <v>46362230.44413871</v>
       </c>
       <c r="G93" t="n">
-        <v>52299700.20552273</v>
+        <v>19208830.05096311</v>
       </c>
       <c r="H93" t="n">
-        <v>568475002.2339427</v>
+        <v>208791630.9887294</v>
       </c>
       <c r="I93" t="n">
-        <v>2363809.943917513</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J93" t="n">
-        <v>164732.9</v>
+        <v>83938</v>
       </c>
       <c r="K93" t="n">
-        <v>225930.30768</v>
+        <v>0</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -4262,11 +4727,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1007871</v>
+        <v>1001892</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4280,22 +4745,27 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>27788395.703219</v>
+        <v>12598185.02015333</v>
       </c>
       <c r="G94" t="n">
-        <v>10318024.52470777</v>
+        <v>6983560.830069247</v>
       </c>
       <c r="H94" t="n">
-        <v>112152440.485954</v>
+        <v>75908269.89205703</v>
       </c>
       <c r="I94" t="n">
-        <v>758543.5356200528</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J94" t="n">
-        <v>50310.4</v>
+        <v>22814.2</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>677171.4747199999</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -4303,11 +4773,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1007933</v>
+        <v>1003135</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4321,22 +4791,27 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>114255960.4720844</v>
+        <v>44510293.03252356</v>
       </c>
       <c r="G95" t="n">
-        <v>52290486.11999182</v>
+        <v>18441534.11494039</v>
       </c>
       <c r="H95" t="n">
-        <v>568374849.1303459</v>
+        <v>200451457.7710913</v>
       </c>
       <c r="I95" t="n">
-        <v>3118860.158311346</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J95" t="n">
-        <v>206858.4</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>198.3999999999942</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -4344,11 +4819,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1009702</v>
+        <v>1003320</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4362,22 +4837,27 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>22176631.52832265</v>
+        <v>170975619.3455378</v>
       </c>
       <c r="G96" t="n">
-        <v>11267431.17827245</v>
+        <v>94777036.23563671</v>
       </c>
       <c r="H96" t="n">
-        <v>122472078.0247006</v>
+        <v>1030185176.474312</v>
       </c>
       <c r="I96" t="n">
-        <v>605358.4621183565</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J96" t="n">
-        <v>40150.4</v>
+        <v>309921</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1626966.19008</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -4385,11 +4865,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1000409</v>
+        <v>1004477</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4399,26 +4879,31 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2073394.577240276</v>
+        <v>33054174.73252922</v>
       </c>
       <c r="G97" t="n">
-        <v>89765788.7558143</v>
+        <v>16315273.60853096</v>
       </c>
       <c r="H97" t="n">
-        <v>975715095.1718946</v>
+        <v>177339930.5275105</v>
       </c>
       <c r="I97" t="n">
-        <v>3699197.889182058</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J97" t="n">
-        <v>245349.3</v>
+        <v>59844</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -4426,11 +4911,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1001663</v>
+        <v>1004553</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4440,26 +4925,31 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>460788.4041721402</v>
+        <v>8608589.852429327</v>
       </c>
       <c r="G98" t="n">
-        <v>19949427.38062913</v>
+        <v>2870586.269353186</v>
       </c>
       <c r="H98" t="n">
-        <v>216841601.9633601</v>
+        <v>31202024.66688246</v>
       </c>
       <c r="I98" t="n">
-        <v>822104.7314312611</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J98" t="n">
-        <v>94768</v>
+        <v>15585.7</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -4467,11 +4957,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1001809</v>
+        <v>1004584</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4481,26 +4971,31 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>709342.1257953222</v>
+        <v>58439674.87802489</v>
       </c>
       <c r="G99" t="n">
-        <v>30710341.44619748</v>
+        <v>24212764.83490315</v>
       </c>
       <c r="H99" t="n">
-        <v>333808059.1977987</v>
+        <v>263182226.4663386</v>
       </c>
       <c r="I99" t="n">
-        <v>1265555.974368639</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J99" t="n">
-        <v>83938</v>
+        <v>105804</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -4508,11 +5003,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1001892</v>
+        <v>1005073</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4522,26 +5017,31 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>192752.2308083459</v>
+        <v>28796248.66482661</v>
       </c>
       <c r="G100" t="n">
-        <v>8345037.757349565</v>
+        <v>9602283.003737738</v>
       </c>
       <c r="H100" t="n">
-        <v>90706932.14510396</v>
+        <v>104372641.3449754</v>
       </c>
       <c r="I100" t="n">
-        <v>343894.3330749999</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J100" t="n">
-        <v>22814.2</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -4549,11 +5049,11 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1003135</v>
+        <v>1005758</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4563,26 +5063,31 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>681007.4833976105</v>
+        <v>64130092.12560876</v>
       </c>
       <c r="G101" t="n">
-        <v>29483618.1047436</v>
+        <v>31654095.37633746</v>
       </c>
       <c r="H101" t="n">
-        <v>320474109.8341696</v>
+        <v>344066254.0906246</v>
       </c>
       <c r="I101" t="n">
-        <v>1215003.392385978</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J101" t="n">
-        <v>80585.10000000001</v>
+        <v>116106.4</v>
       </c>
       <c r="K101" t="n">
-        <v>198.3999999999942</v>
+        <v>14454.20000000001</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -4590,11 +5095,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1003320</v>
+        <v>1005838</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4604,26 +5109,31 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2615926.975986728</v>
+        <v>26989484.9088807</v>
       </c>
       <c r="G102" t="n">
-        <v>113254250.2544843</v>
+        <v>8999806.719155576</v>
       </c>
       <c r="H102" t="n">
-        <v>1231024459.287872</v>
+        <v>97823986.07777801</v>
       </c>
       <c r="I102" t="n">
-        <v>4667144.234892589</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J102" t="n">
-        <v>309921</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -4631,11 +5141,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1004477</v>
+        <v>1006063</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4645,26 +5155,31 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>505728.873407697</v>
+        <v>54135904.67385413</v>
       </c>
       <c r="G103" t="n">
-        <v>21895085.34282735</v>
+        <v>25018225.44264514</v>
       </c>
       <c r="H103" t="n">
-        <v>237990058.0742104</v>
+        <v>271937233.0722297</v>
       </c>
       <c r="I103" t="n">
-        <v>902284.206558613</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J103" t="n">
-        <v>59844</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -4672,11 +5187,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1004553</v>
+        <v>1006312</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4686,26 +5201,31 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>131711.4247421687</v>
+        <v>28506417.8703052</v>
       </c>
       <c r="G104" t="n">
-        <v>5702329.918249186</v>
+        <v>14070537.56194501</v>
       </c>
       <c r="H104" t="n">
-        <v>61981846.93749116</v>
+        <v>152940625.6733153</v>
       </c>
       <c r="I104" t="n">
-        <v>234989.8228420656</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J104" t="n">
-        <v>15585.7</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -4713,11 +5233,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1004584</v>
+        <v>1006343</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4727,26 +5247,31 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>894127.0256337808</v>
+        <v>39600748.28440335</v>
       </c>
       <c r="G105" t="n">
-        <v>38710440.63920368</v>
+        <v>19546609.42500458</v>
       </c>
       <c r="H105" t="n">
-        <v>420765659.1217792</v>
+        <v>212463145.9239628</v>
       </c>
       <c r="I105" t="n">
-        <v>1595235.582359593</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J105" t="n">
-        <v>105804</v>
+        <v>104582.4</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -4754,11 +5279,11 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1005073</v>
+        <v>1006367</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4768,26 +5293,31 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>440582.6045718472</v>
+        <v>86595538.6925682</v>
       </c>
       <c r="G106" t="n">
-        <v>19074635.11558115</v>
+        <v>48002566.33036851</v>
       </c>
       <c r="H106" t="n">
-        <v>207332990.3867516</v>
+        <v>521767025.3300925</v>
       </c>
       <c r="I106" t="n">
-        <v>786055.0320392009</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J106" t="n">
-        <v>52135.10000000001</v>
+        <v>164732.9</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>225930.30768</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4795,11 +5325,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1005758</v>
+        <v>1007603</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4809,26 +5339,31 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>981190.4095218141</v>
+        <v>8700222.891466266</v>
       </c>
       <c r="G107" t="n">
-        <v>42479773.02400324</v>
+        <v>2901141.859547126</v>
       </c>
       <c r="H107" t="n">
-        <v>461736663.304383</v>
+        <v>31534150.64725137</v>
       </c>
       <c r="I107" t="n">
-        <v>1750567.659253675</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J107" t="n">
-        <v>116106.4</v>
+        <v>15751.6</v>
       </c>
       <c r="K107" t="n">
-        <v>14454.20000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -4836,11 +5371,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1005838</v>
+        <v>1007871</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4850,26 +5385,31 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>412939.1191058747</v>
+        <v>27788395.703219</v>
       </c>
       <c r="G108" t="n">
-        <v>17877834.80364258</v>
+        <v>9266208.347758941</v>
       </c>
       <c r="H108" t="n">
-        <v>194324291.3439411</v>
+        <v>100719655.9539015</v>
       </c>
       <c r="I108" t="n">
-        <v>736735.5613471012</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J108" t="n">
-        <v>68233.39999999999</v>
+        <v>50310.4</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -4877,11 +5417,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1006063</v>
+        <v>1007933</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4891,26 +5431,31 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>828279.3415099684</v>
+        <v>114255960.4720844</v>
       </c>
       <c r="G109" t="n">
-        <v>35859623.25596098</v>
+        <v>47338605.28263892</v>
       </c>
       <c r="H109" t="n">
-        <v>389778513.6517498</v>
+        <v>514550057.4199883</v>
       </c>
       <c r="I109" t="n">
-        <v>1477754.994346024</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J109" t="n">
-        <v>98012.10000000001</v>
+        <v>206858.4</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -4918,11 +5463,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1006312</v>
+        <v>1009702</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4932,26 +5477,31 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>436148.1934156696</v>
+        <v>22176631.52832265</v>
       </c>
       <c r="G110" t="n">
-        <v>18882651.19729017</v>
+        <v>10248650.51164478</v>
       </c>
       <c r="H110" t="n">
-        <v>205246208.6661975</v>
+        <v>111398375.1265737</v>
       </c>
       <c r="I110" t="n">
-        <v>778143.4822701593</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J110" t="n">
-        <v>54325.60000000001</v>
+        <v>40150.4</v>
       </c>
       <c r="K110" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>0</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -4959,11 +5509,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1006343</v>
+        <v>1013961</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4973,26 +5523,31 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>605891.4487513714</v>
+        <v>25976723.80423671</v>
       </c>
       <c r="G111" t="n">
-        <v>26231535.66358878</v>
+        <v>10247283.24797975</v>
       </c>
       <c r="H111" t="n">
-        <v>285125387.6477042</v>
+        <v>111383513.5649973</v>
       </c>
       <c r="I111" t="n">
-        <v>1080986.896029099</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J111" t="n">
-        <v>104582.4</v>
+        <v>47030.4</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -5000,11 +5555,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1006367</v>
+        <v>1000248</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5018,22 +5573,27 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1324911.741996293</v>
+        <v>941006.0741508337</v>
       </c>
       <c r="G112" t="n">
-        <v>57360884.82995717</v>
+        <v>40740027.68088315</v>
       </c>
       <c r="H112" t="n">
-        <v>623487878.586491</v>
+        <v>442826387.8356864</v>
       </c>
       <c r="I112" t="n">
-        <v>2363809.943917513</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J112" t="n">
-        <v>164732.9</v>
+        <v>111351.3</v>
       </c>
       <c r="K112" t="n">
-        <v>225930.30768</v>
+        <v>0</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -5041,11 +5601,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1007871</v>
+        <v>1000409</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5059,22 +5619,27 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>425162.4542592507</v>
+        <v>2073394.577240276</v>
       </c>
       <c r="G113" t="n">
-        <v>18407033.31381227</v>
+        <v>89765788.7558143</v>
       </c>
       <c r="H113" t="n">
-        <v>200076449.0631768</v>
+        <v>975715095.1718946</v>
       </c>
       <c r="I113" t="n">
-        <v>758543.5356200528</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J113" t="n">
-        <v>50310.4</v>
+        <v>245349.3</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -5082,11 +5647,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1007933</v>
+        <v>1001663</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5100,22 +5665,27 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1748116.195222892</v>
+        <v>460788.4041721402</v>
       </c>
       <c r="G114" t="n">
-        <v>75683148.21670872</v>
+        <v>19949427.38062913</v>
       </c>
       <c r="H114" t="n">
-        <v>822642915.3990079</v>
+        <v>216841601.9633601</v>
       </c>
       <c r="I114" t="n">
-        <v>3118860.158311346</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J114" t="n">
-        <v>206858.4</v>
+        <v>94768</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -5123,11 +5693,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1009702</v>
+        <v>1001809</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5141,22 +5711,27 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>339302.4623833366</v>
+        <v>709342.1257953222</v>
       </c>
       <c r="G115" t="n">
-        <v>14689800.72436092</v>
+        <v>30710341.44619748</v>
       </c>
       <c r="H115" t="n">
-        <v>159671747.0039231</v>
+        <v>333808059.1977987</v>
       </c>
       <c r="I115" t="n">
-        <v>605358.4621183565</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J115" t="n">
-        <v>40150.4</v>
+        <v>83938</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -5164,11 +5739,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1000409</v>
+        <v>1001892</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5178,26 +5753,31 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>7317863.21378921</v>
+        <v>192752.2308083459</v>
       </c>
       <c r="G116" t="n">
-        <v>89765788.7558143</v>
+        <v>8345037.757349565</v>
       </c>
       <c r="H116" t="n">
-        <v>975715095.1718946</v>
+        <v>90706932.14510396</v>
       </c>
       <c r="I116" t="n">
-        <v>3699197.889182058</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J116" t="n">
-        <v>245349.3</v>
+        <v>22814.2</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>677171.4747199999</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -5205,11 +5785,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1001663</v>
+        <v>1003135</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5219,26 +5799,31 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1626312.014725201</v>
+        <v>681007.4833976105</v>
       </c>
       <c r="G117" t="n">
-        <v>19949427.38062913</v>
+        <v>29483618.1047436</v>
       </c>
       <c r="H117" t="n">
-        <v>216841601.9633601</v>
+        <v>320474109.8341696</v>
       </c>
       <c r="I117" t="n">
-        <v>822104.7314312611</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J117" t="n">
-        <v>94768</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>198.3999999999942</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -5246,11 +5831,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1001809</v>
+        <v>1003320</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5260,26 +5845,31 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2503560.443983491</v>
+        <v>2615926.975986728</v>
       </c>
       <c r="G118" t="n">
-        <v>30710341.44619748</v>
+        <v>113254250.2544843</v>
       </c>
       <c r="H118" t="n">
-        <v>333808059.1977987</v>
+        <v>1231024459.287872</v>
       </c>
       <c r="I118" t="n">
-        <v>1265555.974368639</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J118" t="n">
-        <v>83938</v>
+        <v>309921</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>1626966.19008</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -5287,11 +5877,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1001892</v>
+        <v>1004477</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5301,26 +5891,31 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>680301.9910882796</v>
+        <v>505728.873407697</v>
       </c>
       <c r="G119" t="n">
-        <v>8345037.757349565</v>
+        <v>21895085.34282735</v>
       </c>
       <c r="H119" t="n">
-        <v>90706932.14510396</v>
+        <v>237990058.0742104</v>
       </c>
       <c r="I119" t="n">
-        <v>343894.3330749999</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J119" t="n">
-        <v>22814.2</v>
+        <v>59844</v>
       </c>
       <c r="K119" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -5328,11 +5923,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1003135</v>
+        <v>1004553</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5342,26 +5937,31 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2403555.823756272</v>
+        <v>131711.4247421687</v>
       </c>
       <c r="G120" t="n">
-        <v>29483618.1047436</v>
+        <v>5702329.918249186</v>
       </c>
       <c r="H120" t="n">
-        <v>320474109.8341696</v>
+        <v>61981846.93749116</v>
       </c>
       <c r="I120" t="n">
-        <v>1215003.392385978</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J120" t="n">
-        <v>80585.10000000001</v>
+        <v>15585.7</v>
       </c>
       <c r="K120" t="n">
-        <v>198.3999999999942</v>
+        <v>0</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -5369,11 +5969,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1003320</v>
+        <v>1004584</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5383,26 +5983,31 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>9232683.444659043</v>
+        <v>894127.0256337808</v>
       </c>
       <c r="G121" t="n">
-        <v>113254250.2544843</v>
+        <v>38710440.63920368</v>
       </c>
       <c r="H121" t="n">
-        <v>1231024459.287872</v>
+        <v>420765659.1217792</v>
       </c>
       <c r="I121" t="n">
-        <v>4667144.234892589</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J121" t="n">
-        <v>309921</v>
+        <v>105804</v>
       </c>
       <c r="K121" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -5410,11 +6015,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1004477</v>
+        <v>1005073</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5424,26 +6029,31 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1784925.435556578</v>
+        <v>440582.6045718472</v>
       </c>
       <c r="G122" t="n">
-        <v>21895085.34282735</v>
+        <v>19074635.11558115</v>
       </c>
       <c r="H122" t="n">
-        <v>237990058.0742104</v>
+        <v>207332990.3867516</v>
       </c>
       <c r="I122" t="n">
-        <v>902284.206558613</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J122" t="n">
-        <v>59844</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -5451,11 +6061,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1004553</v>
+        <v>1005758</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5465,26 +6075,31 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>464863.8520311837</v>
+        <v>981190.4095218141</v>
       </c>
       <c r="G123" t="n">
-        <v>5702329.918249186</v>
+        <v>42479773.02400324</v>
       </c>
       <c r="H123" t="n">
-        <v>61981846.93749116</v>
+        <v>461736663.304383</v>
       </c>
       <c r="I123" t="n">
-        <v>234989.8228420656</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J123" t="n">
-        <v>15585.7</v>
+        <v>116106.4</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>14454.20000000001</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -5492,11 +6107,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1004584</v>
+        <v>1005838</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5506,26 +6121,31 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3155742.443413344</v>
+        <v>412939.1191058747</v>
       </c>
       <c r="G124" t="n">
-        <v>38710440.63920368</v>
+        <v>17877834.80364258</v>
       </c>
       <c r="H124" t="n">
-        <v>420765659.1217792</v>
+        <v>194324291.3439411</v>
       </c>
       <c r="I124" t="n">
-        <v>1595235.582359593</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J124" t="n">
-        <v>105804</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -5533,11 +6153,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1005073</v>
+        <v>1006063</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5547,26 +6167,31 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1554997.427900637</v>
+        <v>828279.3415099684</v>
       </c>
       <c r="G125" t="n">
-        <v>19074635.11558115</v>
+        <v>35859623.25596098</v>
       </c>
       <c r="H125" t="n">
-        <v>207332990.3867516</v>
+        <v>389778513.6517498</v>
       </c>
       <c r="I125" t="n">
-        <v>786055.0320392009</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J125" t="n">
-        <v>52135.10000000001</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -5574,11 +6199,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1005758</v>
+        <v>1006312</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5588,26 +6213,31 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>3463024.974782873</v>
+        <v>436148.1934156696</v>
       </c>
       <c r="G126" t="n">
-        <v>42479773.02400324</v>
+        <v>18882651.19729017</v>
       </c>
       <c r="H126" t="n">
-        <v>461736663.304383</v>
+        <v>205246208.6661975</v>
       </c>
       <c r="I126" t="n">
-        <v>1750567.659253675</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J126" t="n">
-        <v>116106.4</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>14454.20000000001</v>
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -5615,11 +6245,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1005838</v>
+        <v>1006343</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5629,26 +6259,31 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1457432.185079558</v>
+        <v>605891.4487513714</v>
       </c>
       <c r="G127" t="n">
-        <v>17877834.80364258</v>
+        <v>26231535.66358878</v>
       </c>
       <c r="H127" t="n">
-        <v>194324291.3439411</v>
+        <v>285125387.6477042</v>
       </c>
       <c r="I127" t="n">
-        <v>736735.5613471012</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J127" t="n">
-        <v>68233.39999999999</v>
+        <v>104582.4</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+        </is>
       </c>
     </row>
     <row r="128">
@@ -5656,11 +6291,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1006063</v>
+        <v>1006367</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5670,26 +6305,31 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2923338.852388124</v>
+        <v>1324911.741996293</v>
       </c>
       <c r="G128" t="n">
-        <v>35859623.25596098</v>
+        <v>57360884.82995717</v>
       </c>
       <c r="H128" t="n">
-        <v>389778513.6517498</v>
+        <v>623487878.586491</v>
       </c>
       <c r="I128" t="n">
-        <v>1477754.994346024</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J128" t="n">
-        <v>98012.10000000001</v>
+        <v>164732.9</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>225930.30768</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -5697,11 +6337,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1006312</v>
+        <v>1007603</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5711,26 +6351,31 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1539346.564996481</v>
+        <v>133113.4102394339</v>
       </c>
       <c r="G129" t="n">
-        <v>18882651.19729017</v>
+        <v>5763027.643307255</v>
       </c>
       <c r="H129" t="n">
-        <v>205246208.6661975</v>
+        <v>62641604.81855711</v>
       </c>
       <c r="I129" t="n">
-        <v>778143.4822701593</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J129" t="n">
-        <v>54325.60000000001</v>
+        <v>15751.6</v>
       </c>
       <c r="K129" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>0</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="130">
@@ -5738,11 +6383,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1006343</v>
+        <v>1007871</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5752,26 +6397,31 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2138440.407357781</v>
+        <v>425162.4542592507</v>
       </c>
       <c r="G130" t="n">
-        <v>26231535.66358878</v>
+        <v>18407033.31381227</v>
       </c>
       <c r="H130" t="n">
-        <v>285125387.6477042</v>
+        <v>200076449.0631768</v>
       </c>
       <c r="I130" t="n">
-        <v>1080986.896029099</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J130" t="n">
-        <v>104582.4</v>
+        <v>50310.4</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -5779,11 +6429,11 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1006367</v>
+        <v>1007933</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5793,26 +6443,31 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4676159.089398682</v>
+        <v>1748116.195222892</v>
       </c>
       <c r="G131" t="n">
-        <v>57360884.82995717</v>
+        <v>75683148.21670872</v>
       </c>
       <c r="H131" t="n">
-        <v>623487878.586491</v>
+        <v>822642915.3990079</v>
       </c>
       <c r="I131" t="n">
-        <v>2363809.943917513</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J131" t="n">
-        <v>164732.9</v>
+        <v>206858.4</v>
       </c>
       <c r="K131" t="n">
-        <v>225930.30768</v>
+        <v>0</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -5820,11 +6475,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1007871</v>
+        <v>1009702</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5834,26 +6489,31 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1500573.367973826</v>
+        <v>339302.4623833366</v>
       </c>
       <c r="G132" t="n">
-        <v>18407033.31381227</v>
+        <v>14689800.72436092</v>
       </c>
       <c r="H132" t="n">
-        <v>200076449.0631768</v>
+        <v>159671747.0039231</v>
       </c>
       <c r="I132" t="n">
-        <v>758543.5356200528</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J132" t="n">
-        <v>50310.4</v>
+        <v>40150.4</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="133">
@@ -5861,11 +6521,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1007933</v>
+        <v>1013961</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5875,26 +6535,31 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>6169821.86549256</v>
+        <v>397443.8742048217</v>
       </c>
       <c r="G133" t="n">
-        <v>75683148.21670872</v>
+        <v>17206981.8479264</v>
       </c>
       <c r="H133" t="n">
-        <v>822642915.3990079</v>
+        <v>187032411.3905043</v>
       </c>
       <c r="I133" t="n">
-        <v>3118860.158311346</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J133" t="n">
-        <v>206858.4</v>
+        <v>47030.4</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -5902,11 +6567,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1009702</v>
+        <v>1000248</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5920,22 +6585,27 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1197538.102529423</v>
+        <v>3321197.908767649</v>
       </c>
       <c r="G134" t="n">
-        <v>14689800.72436092</v>
+        <v>40740027.68088315</v>
       </c>
       <c r="H134" t="n">
-        <v>159671747.0039231</v>
+        <v>442826387.8356864</v>
       </c>
       <c r="I134" t="n">
-        <v>605358.4621183565</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J134" t="n">
-        <v>40150.4</v>
+        <v>111351.3</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="135">
@@ -5957,17 +6627,17 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>36589316.06894605</v>
+        <v>7317863.21378921</v>
       </c>
       <c r="G135" t="n">
-        <v>42455835.76658409</v>
+        <v>89765788.7558143</v>
       </c>
       <c r="H135" t="n">
-        <v>461476475.7237402</v>
+        <v>975715095.1718946</v>
       </c>
       <c r="I135" t="n">
         <v>3699197.889182058</v>
@@ -5977,6 +6647,11 @@
       </c>
       <c r="K135" t="n">
         <v>0</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -5998,17 +6673,17 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>8131560.073626003</v>
+        <v>1626312.014725201</v>
       </c>
       <c r="G136" t="n">
-        <v>13220661.52519948</v>
+        <v>19949427.38062913</v>
       </c>
       <c r="H136" t="n">
-        <v>143702842.6652117</v>
+        <v>216841601.9633601</v>
       </c>
       <c r="I136" t="n">
         <v>822104.7314312611</v>
@@ -6018,6 +6693,11 @@
       </c>
       <c r="K136" t="n">
         <v>0</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+        </is>
       </c>
     </row>
     <row r="137">
@@ -6039,17 +6719,17 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>12517802.21991745</v>
+        <v>2503560.443983491</v>
       </c>
       <c r="G137" t="n">
-        <v>18204008.87701377</v>
+        <v>30710341.44619748</v>
       </c>
       <c r="H137" t="n">
-        <v>197869661.7066714</v>
+        <v>333808059.1977987</v>
       </c>
       <c r="I137" t="n">
         <v>1265555.974368639</v>
@@ -6059,6 +6739,11 @@
       </c>
       <c r="K137" t="n">
         <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -6080,17 +6765,17 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3401509.955441399</v>
+        <v>680301.9910882796</v>
       </c>
       <c r="G138" t="n">
-        <v>6640338.387049262</v>
+        <v>8345037.757349565</v>
       </c>
       <c r="H138" t="n">
-        <v>72177591.16357894</v>
+        <v>90706932.14510396</v>
       </c>
       <c r="I138" t="n">
         <v>343894.3330749999</v>
@@ -6100,6 +6785,11 @@
       </c>
       <c r="K138" t="n">
         <v>677171.4747199999</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -6121,17 +6811,17 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>12017779.11878136</v>
+        <v>2403555.823756272</v>
       </c>
       <c r="G139" t="n">
-        <v>17476850.48196338</v>
+        <v>29483618.1047436</v>
       </c>
       <c r="H139" t="n">
-        <v>189965766.1082976</v>
+        <v>320474109.8341696</v>
       </c>
       <c r="I139" t="n">
         <v>1215003.392385978</v>
@@ -6141,6 +6831,11 @@
       </c>
       <c r="K139" t="n">
         <v>198.3999999999942</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="140">
@@ -6162,17 +6857,17 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>46163417.22329521</v>
+        <v>9232683.444659043</v>
       </c>
       <c r="G140" t="n">
-        <v>90119010.52203149</v>
+        <v>113254250.2544843</v>
       </c>
       <c r="H140" t="n">
-        <v>979554462.1959945</v>
+        <v>1231024459.287872</v>
       </c>
       <c r="I140" t="n">
         <v>4667144.234892589</v>
@@ -6182,6 +6877,11 @@
       </c>
       <c r="K140" t="n">
         <v>1626966.19008</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -6203,17 +6903,17 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>8924627.177782889</v>
+        <v>1784925.435556578</v>
       </c>
       <c r="G141" t="n">
-        <v>15509627.06242151</v>
+        <v>21895085.34282735</v>
       </c>
       <c r="H141" t="n">
-        <v>168582902.8524077</v>
+        <v>237990058.0742104</v>
       </c>
       <c r="I141" t="n">
         <v>902284.206558613</v>
@@ -6223,6 +6923,11 @@
       </c>
       <c r="K141" t="n">
         <v>0</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -6244,17 +6949,17 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2324319.260155918</v>
+        <v>464863.8520311837</v>
       </c>
       <c r="G142" t="n">
-        <v>2696987.191352288</v>
+        <v>5702329.918249186</v>
       </c>
       <c r="H142" t="n">
-        <v>29315078.16687269</v>
+        <v>61981846.93749116</v>
       </c>
       <c r="I142" t="n">
         <v>234989.8228420656</v>
@@ -6264,6 +6969,11 @@
       </c>
       <c r="K142" t="n">
         <v>0</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -6285,17 +6995,17 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>15778712.21706672</v>
+        <v>3155742.443413344</v>
       </c>
       <c r="G143" t="n">
-        <v>22946185.93752013</v>
+        <v>38710440.63920368</v>
       </c>
       <c r="H143" t="n">
-        <v>249415064.5382623</v>
+        <v>420765659.1217792</v>
       </c>
       <c r="I143" t="n">
         <v>1595235.582359593</v>
@@ -6305,6 +7015,11 @@
       </c>
       <c r="K143" t="n">
         <v>0</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -6326,17 +7041,17 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>7774987.139503186</v>
+        <v>1554997.427900637</v>
       </c>
       <c r="G144" t="n">
-        <v>9021583.690169234</v>
+        <v>19074635.11558115</v>
       </c>
       <c r="H144" t="n">
-        <v>98060692.28444819</v>
+        <v>207332990.3867516</v>
       </c>
       <c r="I144" t="n">
         <v>786055.0320392009</v>
@@ -6346,6 +7061,11 @@
       </c>
       <c r="K144" t="n">
         <v>0</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -6367,17 +7087,17 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>17315124.87391437</v>
+        <v>3463024.974782873</v>
       </c>
       <c r="G145" t="n">
-        <v>30091019.37638421</v>
+        <v>42479773.02400324</v>
       </c>
       <c r="H145" t="n">
-        <v>327076297.5693936</v>
+        <v>461736663.304383</v>
       </c>
       <c r="I145" t="n">
         <v>1750567.659253675</v>
@@ -6387,6 +7107,11 @@
       </c>
       <c r="K145" t="n">
         <v>14454.20000000001</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -6408,17 +7133,17 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>7287160.92539779</v>
+        <v>1457432.185079558</v>
       </c>
       <c r="G146" t="n">
-        <v>8455542.237258038</v>
+        <v>17877834.80364258</v>
       </c>
       <c r="H146" t="n">
-        <v>91908067.79628302</v>
+        <v>194324291.3439411</v>
       </c>
       <c r="I146" t="n">
         <v>736735.5613471012</v>
@@ -6428,6 +7153,11 @@
       </c>
       <c r="K146" t="n">
         <v>0</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -6449,17 +7179,17 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>14616694.26194062</v>
+        <v>2923338.852388124</v>
       </c>
       <c r="G147" t="n">
-        <v>23764488.69648112</v>
+        <v>35859623.25596098</v>
       </c>
       <c r="H147" t="n">
-        <v>258309659.74436</v>
+        <v>389778513.6517498</v>
       </c>
       <c r="I147" t="n">
         <v>1477754.994346024</v>
@@ -6469,6 +7199,11 @@
       </c>
       <c r="K147" t="n">
         <v>0</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -6490,17 +7225,17 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>7696732.824982405</v>
+        <v>1539346.564996481</v>
       </c>
       <c r="G148" t="n">
-        <v>13375735.85278109</v>
+        <v>18882651.19729017</v>
       </c>
       <c r="H148" t="n">
-        <v>145388433.1824031</v>
+        <v>205246208.6661975</v>
       </c>
       <c r="I148" t="n">
         <v>778143.4822701593</v>
@@ -6510,6 +7245,11 @@
       </c>
       <c r="K148" t="n">
         <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -6531,17 +7271,17 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>10692202.03678891</v>
+        <v>2138440.407357781</v>
       </c>
       <c r="G149" t="n">
-        <v>18581399.84597728</v>
+        <v>26231535.66358878</v>
       </c>
       <c r="H149" t="n">
-        <v>201971737.4562748</v>
+        <v>285125387.6477042</v>
       </c>
       <c r="I149" t="n">
         <v>1080986.896029099</v>
@@ -6551,6 +7291,11 @@
       </c>
       <c r="K149" t="n">
         <v>0</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+        </is>
       </c>
     </row>
     <row r="150">
@@ -6572,17 +7317,17 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>23380795.44699341</v>
+        <v>4676159.089398682</v>
       </c>
       <c r="G150" t="n">
-        <v>45643374.72481983</v>
+        <v>57360884.82995717</v>
       </c>
       <c r="H150" t="n">
-        <v>496123638.3132591</v>
+        <v>623487878.586491</v>
       </c>
       <c r="I150" t="n">
         <v>2363809.943917513</v>
@@ -6592,6 +7337,11 @@
       </c>
       <c r="K150" t="n">
         <v>225930.30768</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -6599,11 +7349,11 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1007871</v>
+        <v>1007603</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6613,26 +7363,31 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>7502866.83986913</v>
+        <v>469812.0361391784</v>
       </c>
       <c r="G151" t="n">
-        <v>8705833.192722183</v>
+        <v>5763027.643307255</v>
       </c>
       <c r="H151" t="n">
-        <v>94628621.66002372</v>
+        <v>62641604.81855711</v>
       </c>
       <c r="I151" t="n">
-        <v>758543.5356200528</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J151" t="n">
-        <v>50310.4</v>
+        <v>15751.6</v>
       </c>
       <c r="K151" t="n">
         <v>0</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="152">
@@ -6640,11 +7395,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1007933</v>
+        <v>1007871</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6654,26 +7409,31 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>30849109.3274628</v>
+        <v>1500573.367973826</v>
       </c>
       <c r="G152" t="n">
-        <v>44862304.91416121</v>
+        <v>18407033.31381227</v>
       </c>
       <c r="H152" t="n">
-        <v>487633749.0669698</v>
+        <v>200076449.0631768</v>
       </c>
       <c r="I152" t="n">
-        <v>3118860.158311346</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J152" t="n">
-        <v>206858.4</v>
+        <v>50310.4</v>
       </c>
       <c r="K152" t="n">
         <v>0</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -6681,11 +7441,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1009702</v>
+        <v>1007933</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6695,26 +7455,31 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5987690.512647116</v>
+        <v>6169821.86549256</v>
       </c>
       <c r="G153" t="n">
-        <v>9735060.538027398</v>
+        <v>75683148.21670872</v>
       </c>
       <c r="H153" t="n">
-        <v>105815875.4133413</v>
+        <v>822642915.3990079</v>
       </c>
       <c r="I153" t="n">
-        <v>605358.4621183565</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J153" t="n">
-        <v>40150.4</v>
+        <v>206858.4</v>
       </c>
       <c r="K153" t="n">
         <v>0</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="154">
@@ -6722,11 +7487,11 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1000409</v>
+        <v>1009702</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6736,26 +7501,31 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>121964386.8964868</v>
+        <v>1197538.102529423</v>
       </c>
       <c r="G154" t="n">
-        <v>45286224.8176897</v>
+        <v>14689800.72436092</v>
       </c>
       <c r="H154" t="n">
-        <v>492241574.1053228</v>
+        <v>159671747.0039231</v>
       </c>
       <c r="I154" t="n">
-        <v>3699197.889182058</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J154" t="n">
-        <v>245349.3</v>
+        <v>40150.4</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="155">
@@ -6763,11 +7533,11 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1001663</v>
+        <v>1013961</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6777,26 +7547,31 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>27105200.24542001</v>
+        <v>1402743.085428783</v>
       </c>
       <c r="G155" t="n">
-        <v>13771522.42208279</v>
+        <v>17206981.8479264</v>
       </c>
       <c r="H155" t="n">
-        <v>149690461.1095956</v>
+        <v>187032411.3905043</v>
       </c>
       <c r="I155" t="n">
-        <v>822104.7314312611</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J155" t="n">
-        <v>94768</v>
+        <v>47030.4</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="156">
@@ -6804,11 +7579,11 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1001809</v>
+        <v>1000248</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6818,26 +7593,31 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>41726007.39972484</v>
+        <v>16605989.54383824</v>
       </c>
       <c r="G156" t="n">
-        <v>19096362.25333797</v>
+        <v>17304273.40261213</v>
       </c>
       <c r="H156" t="n">
-        <v>207569154.9275866</v>
+        <v>188089928.2892623</v>
       </c>
       <c r="I156" t="n">
-        <v>1265555.974368639</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J156" t="n">
-        <v>83938</v>
+        <v>111351.3</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -6845,11 +7625,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1001892</v>
+        <v>1000409</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6859,26 +7639,31 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>11338366.518138</v>
+        <v>36589316.06894605</v>
       </c>
       <c r="G157" t="n">
-        <v>6847848.961644552</v>
+        <v>38127901.21300338</v>
       </c>
       <c r="H157" t="n">
-        <v>74433140.88744079</v>
+        <v>414433708.8369933</v>
       </c>
       <c r="I157" t="n">
-        <v>343894.3330749999</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J157" t="n">
-        <v>22814.2</v>
+        <v>245349.3</v>
       </c>
       <c r="K157" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="158">
@@ -6886,11 +7671,11 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1003135</v>
+        <v>1001663</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6900,26 +7685,31 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>40059263.7292712</v>
+        <v>8131560.073626003</v>
       </c>
       <c r="G158" t="n">
-        <v>18333558.83892237</v>
+        <v>12025273.31747078</v>
       </c>
       <c r="H158" t="n">
-        <v>199277813.4665475</v>
+        <v>130709492.5812041</v>
       </c>
       <c r="I158" t="n">
-        <v>1215003.392385978</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J158" t="n">
-        <v>80585.10000000001</v>
+        <v>94768</v>
       </c>
       <c r="K158" t="n">
-        <v>198.3999999999942</v>
+        <v>0</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -6927,11 +7717,11 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1003320</v>
+        <v>1001809</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6941,26 +7731,31 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>153878057.410984</v>
+        <v>12517802.21991745</v>
       </c>
       <c r="G159" t="n">
-        <v>92935229.60084498</v>
+        <v>16480099.05306928</v>
       </c>
       <c r="H159" t="n">
-        <v>1010165539.139619</v>
+        <v>179131511.4464052</v>
       </c>
       <c r="I159" t="n">
-        <v>4667144.234892589</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J159" t="n">
-        <v>309921</v>
+        <v>83938</v>
       </c>
       <c r="K159" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -6968,11 +7763,11 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1004477</v>
+        <v>1001892</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6982,26 +7777,31 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>29748757.2592763</v>
+        <v>3401509.955441399</v>
       </c>
       <c r="G160" t="n">
-        <v>16093573.86447051</v>
+        <v>6094743.997151342</v>
       </c>
       <c r="H160" t="n">
-        <v>174930150.7007664</v>
+        <v>66247217.36034068</v>
       </c>
       <c r="I160" t="n">
-        <v>902284.206558613</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J160" t="n">
-        <v>59844</v>
+        <v>22814.2</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>677171.4747199999</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+        </is>
       </c>
     </row>
     <row r="161">
@@ -7009,11 +7809,11 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1004553</v>
+        <v>1003135</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -7023,26 +7823,31 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>7747730.867186394</v>
+        <v>12017779.11878136</v>
       </c>
       <c r="G161" t="n">
-        <v>2876786.33744244</v>
+        <v>15821802.16590213</v>
       </c>
       <c r="H161" t="n">
-        <v>31269416.71133087</v>
+        <v>171976110.4989362</v>
       </c>
       <c r="I161" t="n">
-        <v>234989.8228420656</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J161" t="n">
-        <v>15585.7</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>198.3999999999942</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -7050,11 +7855,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1004584</v>
+        <v>1003320</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7064,26 +7869,31 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>52595707.3902224</v>
+        <v>46163417.22329521</v>
       </c>
       <c r="G162" t="n">
-        <v>24070998.97367308</v>
+        <v>82714504.35110113</v>
       </c>
       <c r="H162" t="n">
-        <v>261641293.1920987</v>
+        <v>899070699.4684906</v>
       </c>
       <c r="I162" t="n">
-        <v>1595235.582359593</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J162" t="n">
-        <v>105804</v>
+        <v>309921</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>1626966.19008</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+        </is>
       </c>
     </row>
     <row r="163">
@@ -7091,11 +7901,11 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1005073</v>
+        <v>1004477</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -7105,26 +7915,31 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>25916623.79834395</v>
+        <v>8924627.177782889</v>
       </c>
       <c r="G163" t="n">
-        <v>9623022.602847183</v>
+        <v>14150954.2938434</v>
       </c>
       <c r="H163" t="n">
-        <v>104598071.7700781</v>
+        <v>153814720.5852544</v>
       </c>
       <c r="I163" t="n">
-        <v>786055.0320392009</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J163" t="n">
-        <v>52135.10000000001</v>
+        <v>59844</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -7132,11 +7947,11 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1005758</v>
+        <v>1004553</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7146,26 +7961,31 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>57717082.91304789</v>
+        <v>2324319.260155918</v>
       </c>
       <c r="G164" t="n">
-        <v>31223964.38302518</v>
+        <v>2422057.16476675</v>
       </c>
       <c r="H164" t="n">
-        <v>339390917.2067955</v>
+        <v>26326708.31268207</v>
       </c>
       <c r="I164" t="n">
-        <v>1750567.659253675</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J164" t="n">
-        <v>116106.4</v>
+        <v>15585.7</v>
       </c>
       <c r="K164" t="n">
-        <v>14454.20000000001</v>
+        <v>0</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -7173,11 +7993,11 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1005838</v>
+        <v>1004584</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -7187,26 +8007,31 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>24290536.41799263</v>
+        <v>15778712.21706672</v>
       </c>
       <c r="G165" t="n">
-        <v>9019245.053075241</v>
+        <v>20773194.50321597</v>
       </c>
       <c r="H165" t="n">
-        <v>98035272.31603523</v>
+        <v>225795592.4262606</v>
       </c>
       <c r="I165" t="n">
-        <v>736735.5613471012</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J165" t="n">
-        <v>68233.39999999999</v>
+        <v>105804</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -7214,11 +8039,11 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1006063</v>
+        <v>1005073</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -7228,26 +8053,31 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>48722314.20646872</v>
+        <v>7774987.139503186</v>
       </c>
       <c r="G166" t="n">
-        <v>24754675.72550116</v>
+        <v>8101926.284403715</v>
       </c>
       <c r="H166" t="n">
-        <v>269072562.2337083</v>
+        <v>88064416.13482299</v>
       </c>
       <c r="I166" t="n">
-        <v>1477754.994346024</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J166" t="n">
-        <v>98012.10000000001</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+        </is>
       </c>
     </row>
     <row r="167">
@@ -7255,11 +8085,11 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1006312</v>
+        <v>1005758</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -7269,26 +8099,31 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>25655776.08327468</v>
+        <v>17315124.87391437</v>
       </c>
       <c r="G167" t="n">
-        <v>13879340.36531049</v>
+        <v>27454988.96502072</v>
       </c>
       <c r="H167" t="n">
-        <v>150862395.2751141</v>
+        <v>298423793.0980512</v>
       </c>
       <c r="I167" t="n">
-        <v>778143.4822701593</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J167" t="n">
-        <v>54325.60000000001</v>
+        <v>116106.4</v>
       </c>
       <c r="K167" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>14454.20000000001</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="168">
@@ -7296,11 +8131,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1006343</v>
+        <v>1005838</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -7310,26 +8145,31 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>35640673.45596302</v>
+        <v>7287160.92539779</v>
       </c>
       <c r="G168" t="n">
-        <v>19281000.74379269</v>
+        <v>7593586.919287518</v>
       </c>
       <c r="H168" t="n">
-        <v>209576095.0412249</v>
+        <v>82538988.25312519</v>
       </c>
       <c r="I168" t="n">
-        <v>1080986.896029099</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J168" t="n">
-        <v>104582.4</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+        </is>
       </c>
     </row>
     <row r="169">
@@ -7337,11 +8177,11 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1006367</v>
+        <v>1006063</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -7351,26 +8191,31 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>77935984.82331137</v>
+        <v>14616694.26194062</v>
       </c>
       <c r="G169" t="n">
-        <v>47069730.18497045</v>
+        <v>21615746.7824454</v>
       </c>
       <c r="H169" t="n">
-        <v>511627502.0105484</v>
+        <v>234953769.3744065</v>
       </c>
       <c r="I169" t="n">
-        <v>2363809.943917513</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J169" t="n">
-        <v>164732.9</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K169" t="n">
-        <v>225930.30768</v>
+        <v>0</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -7378,11 +8223,11 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1007871</v>
+        <v>1006312</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -7392,26 +8237,31 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>25009556.1328971</v>
+        <v>7696732.824982405</v>
       </c>
       <c r="G170" t="n">
-        <v>9286222.072236996</v>
+        <v>12203996.00438075</v>
       </c>
       <c r="H170" t="n">
-        <v>100937196.4373586</v>
+        <v>132652130.4823995</v>
       </c>
       <c r="I170" t="n">
-        <v>758543.5356200528</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J170" t="n">
-        <v>50310.4</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -7419,11 +8269,11 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1007933</v>
+        <v>1006343</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -7433,26 +8283,31 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>102830364.424876</v>
+        <v>10692202.03678891</v>
       </c>
       <c r="G171" t="n">
-        <v>47061437.50799265</v>
+        <v>16953633.95120862</v>
       </c>
       <c r="H171" t="n">
-        <v>511537364.2173114</v>
+        <v>184278629.9044415</v>
       </c>
       <c r="I171" t="n">
-        <v>3118860.158311346</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J171" t="n">
-        <v>206858.4</v>
+        <v>104582.4</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -7460,40 +8315,1287 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>1006367</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>23380795.44699341</v>
+      </c>
+      <c r="G172" t="n">
+        <v>41893148.79741252</v>
+      </c>
+      <c r="H172" t="n">
+        <v>455360313.0153535</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2363809.943917513</v>
+      </c>
+      <c r="J172" t="n">
+        <v>164732.9</v>
+      </c>
+      <c r="K172" t="n">
+        <v>225930.30768</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1007603</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>FIBREK</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>2349060.180695892</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2447838.443992887</v>
+      </c>
+      <c r="H173" t="n">
+        <v>26606939.60861834</v>
+      </c>
+      <c r="I173" t="n">
+        <v>237491.1421032793</v>
+      </c>
+      <c r="J173" t="n">
+        <v>15751.6</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1007871</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>WESTROCK CALIFORNIA, LLC</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>7502866.83986913</v>
+      </c>
+      <c r="G174" t="n">
+        <v>7818363.293421606</v>
+      </c>
+      <c r="H174" t="n">
+        <v>84982209.71110441</v>
+      </c>
+      <c r="I174" t="n">
+        <v>758543.5356200528</v>
+      </c>
+      <c r="J174" t="n">
+        <v>50310.4</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1007933</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>30849109.3274628</v>
+      </c>
+      <c r="G175" t="n">
+        <v>40613868.8312734</v>
+      </c>
+      <c r="H175" t="n">
+        <v>441455095.9921021</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3118860.158311346</v>
+      </c>
+      <c r="J175" t="n">
+        <v>206858.4</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
         <v>1009702</v>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Cargill Salt</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>MI</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>5987690.512647116</v>
+      </c>
+      <c r="G176" t="n">
+        <v>8854834.042061087</v>
+      </c>
+      <c r="H176" t="n">
+        <v>96248196.10935964</v>
+      </c>
+      <c r="I176" t="n">
+        <v>605358.4621183565</v>
+      </c>
+      <c r="J176" t="n">
+        <v>40150.4</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1013961</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>ZFS Ithaca LLC</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Scenario4Best</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>7013715.427143913</v>
+      </c>
+      <c r="G177" t="n">
+        <v>8761427.177022688</v>
+      </c>
+      <c r="H177" t="n">
+        <v>95232904.09807269</v>
+      </c>
+      <c r="I177" t="n">
+        <v>709090.0866943083</v>
+      </c>
+      <c r="J177" t="n">
+        <v>47030.4</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1000248</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Otsego Paper, Inc.</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
         <is>
           <t>Scenario4Worst</t>
         </is>
       </c>
-      <c r="F172" t="n">
+      <c r="F178" t="n">
+        <v>55353298.47946081</v>
+      </c>
+      <c r="G178" t="n">
+        <v>18457891.62945294</v>
+      </c>
+      <c r="H178" t="n">
+        <v>200629256.8418798</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1678873.727855258</v>
+      </c>
+      <c r="J178" t="n">
+        <v>111351.3</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1000409</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Graphic Packaging International, Inc.</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>121964386.8964868</v>
+      </c>
+      <c r="G179" t="n">
+        <v>40669761.29387028</v>
+      </c>
+      <c r="H179" t="n">
+        <v>442062622.7594596</v>
+      </c>
+      <c r="I179" t="n">
+        <v>3699197.889182058</v>
+      </c>
+      <c r="J179" t="n">
+        <v>245349.3</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1001663</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>MORTON SALT</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>27105200.24542001</v>
+      </c>
+      <c r="G180" t="n">
+        <v>12526326.37236539</v>
+      </c>
+      <c r="H180" t="n">
+        <v>136155721.4387543</v>
+      </c>
+      <c r="I180" t="n">
+        <v>822104.7314312611</v>
+      </c>
+      <c r="J180" t="n">
+        <v>94768</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1001809</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>MARYSVILLE ETHANOL LLC</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>41726007.39972484</v>
+      </c>
+      <c r="G181" t="n">
+        <v>17287947.04586679</v>
+      </c>
+      <c r="H181" t="n">
+        <v>187912467.8898565</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1265555.974368639</v>
+      </c>
+      <c r="J181" t="n">
+        <v>83938</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1001892</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Billerud Quinnesec LLC</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>11338366.518138</v>
+      </c>
+      <c r="G182" t="n">
+        <v>6285204.747062322</v>
+      </c>
+      <c r="H182" t="n">
+        <v>68317442.90285133</v>
+      </c>
+      <c r="I182" t="n">
+        <v>343894.3330749999</v>
+      </c>
+      <c r="J182" t="n">
+        <v>22814.2</v>
+      </c>
+      <c r="K182" t="n">
+        <v>677171.4747199999</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1003135</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>CARBON GREEN BIOENERGY</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>40059263.7292712</v>
+      </c>
+      <c r="G183" t="n">
+        <v>16597380.70344636</v>
+      </c>
+      <c r="H183" t="n">
+        <v>180406311.9939821</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1215003.392385978</v>
+      </c>
+      <c r="J183" t="n">
+        <v>80585.10000000001</v>
+      </c>
+      <c r="K183" t="n">
+        <v>198.3999999999942</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1003320</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Billerud Escanaba LLC</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>153878057.410984</v>
+      </c>
+      <c r="G184" t="n">
+        <v>85299332.61207305</v>
+      </c>
+      <c r="H184" t="n">
+        <v>927166658.8268809</v>
+      </c>
+      <c r="I184" t="n">
+        <v>4667144.234892589</v>
+      </c>
+      <c r="J184" t="n">
+        <v>309921</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1626966.19008</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1004477</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>29748757.2592763</v>
+      </c>
+      <c r="G185" t="n">
+        <v>14683746.24767787</v>
+      </c>
+      <c r="H185" t="n">
+        <v>159605937.4747594</v>
+      </c>
+      <c r="I185" t="n">
+        <v>902284.206558613</v>
+      </c>
+      <c r="J185" t="n">
+        <v>59844</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1004553</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Ox Paperboard WP Mill, LLC</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>7747730.867186394</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2583527.642417867</v>
+      </c>
+      <c r="H186" t="n">
+        <v>28081822.20019421</v>
+      </c>
+      <c r="I186" t="n">
+        <v>234989.8228420656</v>
+      </c>
+      <c r="J186" t="n">
+        <v>15585.7</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1004584</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>POET Biorefining - Caro, LLC</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>52595707.3902224</v>
+      </c>
+      <c r="G187" t="n">
+        <v>21791488.35141284</v>
+      </c>
+      <c r="H187" t="n">
+        <v>236864003.8197047</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1595235.582359593</v>
+      </c>
+      <c r="J187" t="n">
+        <v>105804</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1005073</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>UP Paper LLC</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>25916623.79834395</v>
+      </c>
+      <c r="G188" t="n">
+        <v>8642054.703363964</v>
+      </c>
+      <c r="H188" t="n">
+        <v>93935377.21047787</v>
+      </c>
+      <c r="I188" t="n">
+        <v>786055.0320392009</v>
+      </c>
+      <c r="J188" t="n">
+        <v>52135.10000000001</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1005758</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>57717082.91304789</v>
+      </c>
+      <c r="G189" t="n">
+        <v>28488685.83870372</v>
+      </c>
+      <c r="H189" t="n">
+        <v>309659628.6815622</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1750567.659253675</v>
+      </c>
+      <c r="J189" t="n">
+        <v>116106.4</v>
+      </c>
+      <c r="K189" t="n">
+        <v>14454.20000000001</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1005838</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>NEENAH PAPER MICHIGAN INC</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>24290536.41799263</v>
+      </c>
+      <c r="G190" t="n">
+        <v>8099826.047240019</v>
+      </c>
+      <c r="H190" t="n">
+        <v>88041587.47000021</v>
+      </c>
+      <c r="I190" t="n">
+        <v>736735.5613471012</v>
+      </c>
+      <c r="J190" t="n">
+        <v>68233.39999999999</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1006063</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>CARGILL SALT SAINT CLAIR</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>48722314.20646872</v>
+      </c>
+      <c r="G191" t="n">
+        <v>22516402.89838062</v>
+      </c>
+      <c r="H191" t="n">
+        <v>244743509.7650068</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1477754.994346024</v>
+      </c>
+      <c r="J191" t="n">
+        <v>98012.10000000001</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1006312</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>25655776.08327468</v>
+      </c>
+      <c r="G192" t="n">
+        <v>12663483.80575051</v>
+      </c>
+      <c r="H192" t="n">
+        <v>137646563.1059838</v>
+      </c>
+      <c r="I192" t="n">
+        <v>778143.4822701593</v>
+      </c>
+      <c r="J192" t="n">
+        <v>54325.60000000001</v>
+      </c>
+      <c r="K192" t="n">
+        <v>-7.275957614183426e-12</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1006343</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>35640673.45596302</v>
+      </c>
+      <c r="G193" t="n">
+        <v>17591948.48250413</v>
+      </c>
+      <c r="H193" t="n">
+        <v>191216831.3315666</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1080986.896029099</v>
+      </c>
+      <c r="J193" t="n">
+        <v>104582.4</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1006367</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>77935984.82331137</v>
+      </c>
+      <c r="G194" t="n">
+        <v>43202309.69733166</v>
+      </c>
+      <c r="H194" t="n">
+        <v>469590322.7970833</v>
+      </c>
+      <c r="I194" t="n">
+        <v>2363809.943917513</v>
+      </c>
+      <c r="J194" t="n">
+        <v>164732.9</v>
+      </c>
+      <c r="K194" t="n">
+        <v>225930.30768</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1007603</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>FIBREK</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>7830200.60231964</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2611027.673592413</v>
+      </c>
+      <c r="H195" t="n">
+        <v>28380735.58252623</v>
+      </c>
+      <c r="I195" t="n">
+        <v>237491.1421032793</v>
+      </c>
+      <c r="J195" t="n">
+        <v>15751.6</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1007871</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>WESTROCK CALIFORNIA, LLC</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>25009556.1328971</v>
+      </c>
+      <c r="G196" t="n">
+        <v>8339587.512983046</v>
+      </c>
+      <c r="H196" t="n">
+        <v>90647690.35851137</v>
+      </c>
+      <c r="I196" t="n">
+        <v>758543.5356200528</v>
+      </c>
+      <c r="J196" t="n">
+        <v>50310.4</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1007933</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>102830364.424876</v>
+      </c>
+      <c r="G197" t="n">
+        <v>42604744.75437503</v>
+      </c>
+      <c r="H197" t="n">
+        <v>463095051.6779895</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3118860.158311346</v>
+      </c>
+      <c r="J197" t="n">
+        <v>206858.4</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1009702</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Cargill Salt</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
         <v>19958968.37549039</v>
       </c>
-      <c r="G172" t="n">
-        <v>10140688.0604452</v>
-      </c>
-      <c r="H172" t="n">
-        <v>110224870.2222305</v>
-      </c>
-      <c r="I172" t="n">
+      <c r="G198" t="n">
+        <v>9223785.460480299</v>
+      </c>
+      <c r="H198" t="n">
+        <v>100258537.6139163</v>
+      </c>
+      <c r="I198" t="n">
         <v>605358.4621183565</v>
       </c>
-      <c r="J172" t="n">
+      <c r="J198" t="n">
         <v>40150.4</v>
       </c>
-      <c r="K172" t="n">
-        <v>0</v>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1013961</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>ZFS Ithaca LLC</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Scenario4Worst</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>23379051.42381304</v>
+      </c>
+      <c r="G199" t="n">
+        <v>9222554.923181776</v>
+      </c>
+      <c r="H199" t="n">
+        <v>100245162.2084976</v>
+      </c>
+      <c r="I199" t="n">
+        <v>709090.0866943083</v>
+      </c>
+      <c r="J199" t="n">
+        <v>47030.4</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/LCOH modelling/output/longform_mi.xlsx
+++ b/LCOH modelling/output/longform_mi.xlsx
@@ -541,11 +541,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1000409</v>
+        <v>1000248</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -555,23 +555,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1045562.304612037</v>
       </c>
       <c r="G3" t="n">
-        <v>27583305.71687098</v>
+        <v>45266697.4232035</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>492029319.8174294</v>
       </c>
       <c r="I3" t="n">
-        <v>3699197.889182058</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J3" t="n">
-        <v>245349.3</v>
+        <v>111351.3</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -587,11 +587,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1001663</v>
+        <v>1000248</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -601,30 +601,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3690219.89863072</v>
       </c>
       <c r="G4" t="n">
-        <v>2204154.704904758</v>
+        <v>45266697.4232035</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>492029319.8174294</v>
       </c>
       <c r="I4" t="n">
-        <v>822104.7314312611</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J4" t="n">
-        <v>94768</v>
+        <v>111351.3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -633,11 +633,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1001809</v>
+        <v>1000248</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -647,23 +647,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>18451099.4931536</v>
       </c>
       <c r="G5" t="n">
-        <v>9436699.086823219</v>
+        <v>19226970.44734681</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>208988809.2102914</v>
       </c>
       <c r="I5" t="n">
-        <v>1265555.974368639</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J5" t="n">
-        <v>83938</v>
+        <v>111351.3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -679,11 +679,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1001892</v>
+        <v>1000248</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -693,30 +693,30 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>61503664.97717867</v>
       </c>
       <c r="G6" t="n">
-        <v>2565481.662604301</v>
+        <v>20508768.47716993</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>222921396.4909775</v>
       </c>
       <c r="I6" t="n">
-        <v>343894.3330749999</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J6" t="n">
-        <v>22814.2</v>
+        <v>111351.3</v>
       </c>
       <c r="K6" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -725,11 +725,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1003135</v>
+        <v>1000248</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -739,30 +739,30 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>941006.0741508337</v>
       </c>
       <c r="G7" t="n">
-        <v>9059750.525168074</v>
+        <v>40740027.68088315</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>442826387.8356864</v>
       </c>
       <c r="I7" t="n">
-        <v>1215003.392385978</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J7" t="n">
-        <v>80585.10000000001</v>
+        <v>111351.3</v>
       </c>
       <c r="K7" t="n">
-        <v>198.3999999999942</v>
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -771,11 +771,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1003320</v>
+        <v>1000248</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -785,30 +785,30 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3321197.908767649</v>
       </c>
       <c r="G8" t="n">
-        <v>34765667.4450961</v>
+        <v>40740027.68088315</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>442826387.8356864</v>
       </c>
       <c r="I8" t="n">
-        <v>4667144.234892589</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J8" t="n">
-        <v>309921</v>
+        <v>111351.3</v>
       </c>
       <c r="K8" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -817,11 +817,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1004477</v>
+        <v>1000248</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -831,23 +831,23 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>16605989.54383824</v>
       </c>
       <c r="G9" t="n">
-        <v>6727939.909836411</v>
+        <v>17304273.40261213</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>188089928.2892623</v>
       </c>
       <c r="I9" t="n">
-        <v>902284.206558613</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J9" t="n">
-        <v>59844</v>
+        <v>111351.3</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -863,11 +863,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1004553</v>
+        <v>1000248</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>Otsego Paper, Inc.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -877,23 +877,23 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>55353298.47946081</v>
       </c>
       <c r="G10" t="n">
-        <v>1752216.647495778</v>
+        <v>18457891.62945294</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>200629256.8418798</v>
       </c>
       <c r="I10" t="n">
-        <v>234989.8228420656</v>
+        <v>1678873.727855258</v>
       </c>
       <c r="J10" t="n">
-        <v>15585.7</v>
+        <v>111351.3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -909,11 +909,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1004584</v>
+        <v>1000409</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -930,16 +930,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>11894976.17506069</v>
+        <v>27583305.71687098</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1595235.582359593</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J11" t="n">
-        <v>105804</v>
+        <v>245349.3</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -955,11 +955,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1005073</v>
+        <v>1000409</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -969,30 +969,30 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2303771.752489196</v>
       </c>
       <c r="G12" t="n">
-        <v>5861269.634270976</v>
+        <v>99739765.28423811</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1084127883.524327</v>
       </c>
       <c r="I12" t="n">
-        <v>786055.0320392009</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J12" t="n">
-        <v>52135.10000000001</v>
+        <v>245349.3</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1001,11 +1001,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1005758</v>
+        <v>1000409</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1015,30 +1015,30 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>8130959.126432455</v>
       </c>
       <c r="G13" t="n">
-        <v>13322590.65783248</v>
+        <v>99739765.28423811</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1084127883.524327</v>
       </c>
       <c r="I13" t="n">
-        <v>1750567.659253675</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J13" t="n">
-        <v>116106.4</v>
+        <v>245349.3</v>
       </c>
       <c r="K13" t="n">
-        <v>14454.20000000001</v>
+        <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1047,11 +1047,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1005838</v>
+        <v>1000409</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1061,30 +1061,30 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>40654795.63216227</v>
       </c>
       <c r="G14" t="n">
-        <v>3603873.516309487</v>
+        <v>42364334.68111487</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>460481898.7077703</v>
       </c>
       <c r="I14" t="n">
-        <v>736735.5613471012</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J14" t="n">
-        <v>68233.39999999999</v>
+        <v>245349.3</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1093,11 +1093,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1006063</v>
+        <v>1000409</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1107,23 +1107,23 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>135515985.4405409</v>
       </c>
       <c r="G15" t="n">
-        <v>11018974.65471689</v>
+        <v>45188623.65985586</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>491180691.954955</v>
       </c>
       <c r="I15" t="n">
-        <v>1477754.994346024</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J15" t="n">
-        <v>98012.10000000001</v>
+        <v>245349.3</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1139,11 +1139,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1006312</v>
+        <v>1000409</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1153,30 +1153,30 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2073394.577240276</v>
       </c>
       <c r="G16" t="n">
-        <v>5607295.274908995</v>
+        <v>89765788.7558143</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>975715095.1718946</v>
       </c>
       <c r="I16" t="n">
-        <v>778143.4822701593</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J16" t="n">
-        <v>54325.60000000001</v>
+        <v>245349.3</v>
       </c>
       <c r="K16" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1185,11 +1185,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1006343</v>
+        <v>1000409</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1199,30 +1199,30 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7317863.21378921</v>
       </c>
       <c r="G17" t="n">
-        <v>4911395.643983915</v>
+        <v>89765788.7558143</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>975715095.1718946</v>
       </c>
       <c r="I17" t="n">
-        <v>1080986.896029099</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J17" t="n">
-        <v>104582.4</v>
+        <v>245349.3</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1231,11 +1231,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1006367</v>
+        <v>1000409</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1245,30 +1245,30 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>36589316.06894605</v>
       </c>
       <c r="G18" t="n">
-        <v>16195709.69798012</v>
+        <v>38127901.21300338</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>414433708.8369933</v>
       </c>
       <c r="I18" t="n">
-        <v>2363809.943917513</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J18" t="n">
-        <v>164732.9</v>
+        <v>245349.3</v>
       </c>
       <c r="K18" t="n">
-        <v>225930.30768</v>
+        <v>0</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1277,11 +1277,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1007603</v>
+        <v>1000409</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FIBREK</t>
+          <t>Graphic Packaging International, Inc.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1291,23 +1291,23 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>121964386.8964868</v>
       </c>
       <c r="G19" t="n">
-        <v>1770867.894588918</v>
+        <v>40669761.29387028</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>442062622.7594596</v>
       </c>
       <c r="I19" t="n">
-        <v>237491.1421032793</v>
+        <v>3699197.889182058</v>
       </c>
       <c r="J19" t="n">
-        <v>15751.6</v>
+        <v>245349.3</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1323,11 +1323,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1007871</v>
+        <v>1001663</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1344,23 +1344,23 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5656128.401173614</v>
+        <v>2204154.704904758</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>758543.5356200528</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J20" t="n">
-        <v>50310.4</v>
+        <v>94768</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
         </is>
       </c>
     </row>
@@ -1369,11 +1369,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1007933</v>
+        <v>1001663</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1383,30 +1383,30 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>511987.1157468224</v>
       </c>
       <c r="G21" t="n">
-        <v>23255980.29952718</v>
+        <v>22166030.42292126</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>240935113.2926223</v>
       </c>
       <c r="I21" t="n">
-        <v>3118860.158311346</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J21" t="n">
-        <v>206858.4</v>
+        <v>94768</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
         </is>
       </c>
     </row>
@@ -1415,11 +1415,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1009702</v>
+        <v>1001663</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1429,30 +1429,30 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1807013.349694667</v>
       </c>
       <c r="G22" t="n">
-        <v>4513894.100593139</v>
+        <v>22166030.42292126</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>240935113.2926223</v>
       </c>
       <c r="I22" t="n">
-        <v>605358.4621183565</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J22" t="n">
-        <v>40150.4</v>
+        <v>94768</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
         </is>
       </c>
     </row>
@@ -1461,11 +1461,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1013961</v>
+        <v>1001663</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ZFS Ithaca LLC</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1475,30 +1475,30 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>9035066.748473337</v>
       </c>
       <c r="G23" t="n">
-        <v>5287375.595474405</v>
+        <v>13361414.79718976</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>145232769.5346712</v>
       </c>
       <c r="I23" t="n">
-        <v>709090.0866943083</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J23" t="n">
-        <v>47030.4</v>
+        <v>94768</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
         </is>
       </c>
     </row>
@@ -1507,11 +1507,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1000248</v>
+        <v>1001663</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Otsego Paper, Inc.</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1521,30 +1521,30 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1045562.304612037</v>
+        <v>30116889.16157779</v>
       </c>
       <c r="G24" t="n">
-        <v>45266697.4232035</v>
+        <v>13918140.41373933</v>
       </c>
       <c r="H24" t="n">
-        <v>492029319.8174294</v>
+        <v>151284134.9319492</v>
       </c>
       <c r="I24" t="n">
-        <v>1678873.727855258</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J24" t="n">
-        <v>111351.3</v>
+        <v>94768</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
         </is>
       </c>
     </row>
@@ -1553,11 +1553,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1000409</v>
+        <v>1001663</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1567,30 +1567,30 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2303771.752489196</v>
+        <v>460788.4041721402</v>
       </c>
       <c r="G25" t="n">
-        <v>99739765.28423811</v>
+        <v>19949427.38062913</v>
       </c>
       <c r="H25" t="n">
-        <v>1084127883.524327</v>
+        <v>216841601.9633601</v>
       </c>
       <c r="I25" t="n">
-        <v>3699197.889182058</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J25" t="n">
-        <v>245349.3</v>
+        <v>94768</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
         </is>
       </c>
     </row>
@@ -1613,17 +1613,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>511987.1157468224</v>
+        <v>1626312.014725201</v>
       </c>
       <c r="G26" t="n">
-        <v>22166030.42292126</v>
+        <v>19949427.38062913</v>
       </c>
       <c r="H26" t="n">
-        <v>240935113.2926223</v>
+        <v>216841601.9633601</v>
       </c>
       <c r="I26" t="n">
         <v>822104.7314312611</v>
@@ -1645,11 +1645,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1001809</v>
+        <v>1001663</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1659,30 +1659,30 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>788157.9175503581</v>
+        <v>8131560.073626003</v>
       </c>
       <c r="G27" t="n">
-        <v>34122601.60688609</v>
+        <v>12025273.31747078</v>
       </c>
       <c r="H27" t="n">
-        <v>370897843.5531097</v>
+        <v>130709492.5812041</v>
       </c>
       <c r="I27" t="n">
-        <v>1265555.974368639</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J27" t="n">
-        <v>83938</v>
+        <v>94768</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
         </is>
       </c>
     </row>
@@ -1691,11 +1691,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1001892</v>
+        <v>1001663</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>MORTON SALT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1705,30 +1705,30 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>214169.1453426066</v>
+        <v>27105200.24542001</v>
       </c>
       <c r="G28" t="n">
-        <v>9272264.174832849</v>
+        <v>12526326.37236539</v>
       </c>
       <c r="H28" t="n">
-        <v>100785480.1612266</v>
+        <v>136155721.4387543</v>
       </c>
       <c r="I28" t="n">
-        <v>343894.3330749999</v>
+        <v>822104.7314312611</v>
       </c>
       <c r="J28" t="n">
-        <v>22814.2</v>
+        <v>94768</v>
       </c>
       <c r="K28" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1003135</v>
+        <v>1001809</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1751,30 +1751,30 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>756674.9815529005</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>32759575.67193734</v>
+        <v>9436699.086823219</v>
       </c>
       <c r="H29" t="n">
-        <v>356082344.2601885</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1215003.392385978</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J29" t="n">
-        <v>80585.10000000001</v>
+        <v>83938</v>
       </c>
       <c r="K29" t="n">
-        <v>198.3999999999942</v>
+        <v>0</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1783,11 +1783,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1003320</v>
+        <v>1001809</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1801,26 +1801,26 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2906585.528874143</v>
+        <v>788157.9175503581</v>
       </c>
       <c r="G30" t="n">
-        <v>125838055.8383158</v>
+        <v>34122601.60688609</v>
       </c>
       <c r="H30" t="n">
-        <v>1367804954.764302</v>
+        <v>370897843.5531097</v>
       </c>
       <c r="I30" t="n">
-        <v>4667144.234892589</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J30" t="n">
-        <v>309921</v>
+        <v>83938</v>
       </c>
       <c r="K30" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -1829,11 +1829,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1004477</v>
+        <v>1001809</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1843,23 +1843,23 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>561920.9704529967</v>
+        <v>2781733.826648322</v>
       </c>
       <c r="G31" t="n">
-        <v>24327872.60314151</v>
+        <v>34122601.60688609</v>
       </c>
       <c r="H31" t="n">
-        <v>264433397.8602338</v>
+        <v>370897843.5531097</v>
       </c>
       <c r="I31" t="n">
-        <v>902284.206558613</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J31" t="n">
-        <v>59844</v>
+        <v>83938</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -1875,11 +1875,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1004553</v>
+        <v>1001809</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1889,23 +1889,23 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>146346.0274912985</v>
+        <v>13908669.13324161</v>
       </c>
       <c r="G32" t="n">
-        <v>6335922.131387984</v>
+        <v>18311221.17007698</v>
       </c>
       <c r="H32" t="n">
-        <v>68868718.81943461</v>
+        <v>199035012.718228</v>
       </c>
       <c r="I32" t="n">
-        <v>234989.8228420656</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J32" t="n">
-        <v>15585.7</v>
+        <v>83938</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1921,11 +1921,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1004584</v>
+        <v>1001809</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1935,23 +1935,23 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>993474.4729264231</v>
+        <v>46362230.44413871</v>
       </c>
       <c r="G33" t="n">
-        <v>43011600.71022632</v>
+        <v>19208830.05096311</v>
       </c>
       <c r="H33" t="n">
-        <v>467517399.0241991</v>
+        <v>208791630.9887294</v>
       </c>
       <c r="I33" t="n">
-        <v>1595235.582359593</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J33" t="n">
-        <v>105804</v>
+        <v>83938</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1967,11 +1967,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1005073</v>
+        <v>1001809</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1981,30 +1981,30 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>489536.2273020524</v>
+        <v>709342.1257953222</v>
       </c>
       <c r="G34" t="n">
-        <v>21194039.01731239</v>
+        <v>30710341.44619748</v>
       </c>
       <c r="H34" t="n">
-        <v>230369989.3186129</v>
+        <v>333808059.1977987</v>
       </c>
       <c r="I34" t="n">
-        <v>786055.0320392009</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J34" t="n">
-        <v>52135.10000000001</v>
+        <v>83938</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -2013,11 +2013,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1005758</v>
+        <v>1001809</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2027,30 +2027,30 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1090211.566135349</v>
+        <v>2503560.443983491</v>
       </c>
       <c r="G35" t="n">
-        <v>47199747.80444805</v>
+        <v>30710341.44619748</v>
       </c>
       <c r="H35" t="n">
-        <v>513040737.0048701</v>
+        <v>333808059.1977987</v>
       </c>
       <c r="I35" t="n">
-        <v>1750567.659253675</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J35" t="n">
-        <v>116106.4</v>
+        <v>83938</v>
       </c>
       <c r="K35" t="n">
-        <v>14454.20000000001</v>
+        <v>0</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -2059,11 +2059,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1005838</v>
+        <v>1001809</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2073,30 +2073,30 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>458821.243450972</v>
+        <v>12517802.21991745</v>
       </c>
       <c r="G36" t="n">
-        <v>19864260.8929362</v>
+        <v>16480099.05306928</v>
       </c>
       <c r="H36" t="n">
-        <v>215915879.2710456</v>
+        <v>179131511.4464052</v>
       </c>
       <c r="I36" t="n">
-        <v>736735.5613471012</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J36" t="n">
-        <v>68233.39999999999</v>
+        <v>83938</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -2105,11 +2105,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1006063</v>
+        <v>1001809</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>MARYSVILLE ETHANOL LLC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2119,23 +2119,23 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>920310.3794555203</v>
+        <v>41726007.39972484</v>
       </c>
       <c r="G37" t="n">
-        <v>39844025.83995664</v>
+        <v>17287947.04586679</v>
       </c>
       <c r="H37" t="n">
-        <v>433087237.3908331</v>
+        <v>187912467.8898565</v>
       </c>
       <c r="I37" t="n">
-        <v>1477754.994346024</v>
+        <v>1265555.974368639</v>
       </c>
       <c r="J37" t="n">
-        <v>98012.10000000001</v>
+        <v>83938</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2151,11 +2151,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1006312</v>
+        <v>1001892</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2165,30 +2165,30 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>484609.1037951884</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>20980723.55254463</v>
+        <v>2565481.662604301</v>
       </c>
       <c r="H38" t="n">
-        <v>228051342.9624416</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>778143.4822701593</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J38" t="n">
-        <v>54325.60000000001</v>
+        <v>22814.2</v>
       </c>
       <c r="K38" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>677171.4747199999</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
         </is>
       </c>
     </row>
@@ -2197,11 +2197,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1006343</v>
+        <v>1001892</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2215,26 +2215,26 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>673212.720834857</v>
+        <v>214169.1453426066</v>
       </c>
       <c r="G39" t="n">
-        <v>29146150.73732087</v>
+        <v>9272264.174832849</v>
       </c>
       <c r="H39" t="n">
-        <v>316805986.2752268</v>
+        <v>100785480.1612266</v>
       </c>
       <c r="I39" t="n">
-        <v>1080986.896029099</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J39" t="n">
-        <v>104582.4</v>
+        <v>22814.2</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>677171.4747199999</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
         </is>
       </c>
     </row>
@@ -2243,11 +2243,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1006367</v>
+        <v>1001892</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2257,30 +2257,30 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1472124.157773659</v>
+        <v>755891.1012091996</v>
       </c>
       <c r="G40" t="n">
-        <v>63734316.47773019</v>
+        <v>9272264.174832849</v>
       </c>
       <c r="H40" t="n">
-        <v>692764309.5405456</v>
+        <v>100785480.1612266</v>
       </c>
       <c r="I40" t="n">
-        <v>2363809.943917513</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J40" t="n">
-        <v>164732.9</v>
+        <v>22814.2</v>
       </c>
       <c r="K40" t="n">
-        <v>225930.30768</v>
+        <v>677171.4747199999</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
         </is>
       </c>
     </row>
@@ -2289,11 +2289,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1007603</v>
+        <v>1001892</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FIBREK</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2303,30 +2303,30 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>147903.7891549265</v>
+        <v>3779455.506045998</v>
       </c>
       <c r="G41" t="n">
-        <v>6403364.048119172</v>
+        <v>6771937.774612603</v>
       </c>
       <c r="H41" t="n">
-        <v>69601783.13173012</v>
+        <v>73608019.28926742</v>
       </c>
       <c r="I41" t="n">
-        <v>237491.1421032793</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J41" t="n">
-        <v>15751.6</v>
+        <v>22814.2</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>677171.4747199999</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
         </is>
       </c>
     </row>
@@ -2335,11 +2335,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1007871</v>
+        <v>1001892</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2349,30 +2349,30 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>472402.726954723</v>
+        <v>12598185.02015333</v>
       </c>
       <c r="G42" t="n">
-        <v>20452259.23756918</v>
+        <v>6983560.830069247</v>
       </c>
       <c r="H42" t="n">
-        <v>222307165.625752</v>
+        <v>75908269.89205703</v>
       </c>
       <c r="I42" t="n">
-        <v>758543.5356200528</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J42" t="n">
-        <v>50310.4</v>
+        <v>22814.2</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>677171.4747199999</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
         </is>
       </c>
     </row>
@@ -2381,11 +2381,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1007933</v>
+        <v>1001892</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2395,30 +2395,30 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1942351.328025435</v>
+        <v>192752.2308083459</v>
       </c>
       <c r="G43" t="n">
-        <v>84092386.90745415</v>
+        <v>8345037.757349565</v>
       </c>
       <c r="H43" t="n">
-        <v>914047683.7766755</v>
+        <v>90706932.14510396</v>
       </c>
       <c r="I43" t="n">
-        <v>3118860.158311346</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J43" t="n">
-        <v>206858.4</v>
+        <v>22814.2</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>677171.4747199999</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
         </is>
       </c>
     </row>
@@ -2427,11 +2427,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1009702</v>
+        <v>1001892</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2441,30 +2441,30 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>377002.735981485</v>
+        <v>680301.9910882796</v>
       </c>
       <c r="G44" t="n">
-        <v>16322000.80484547</v>
+        <v>8345037.757349565</v>
       </c>
       <c r="H44" t="n">
-        <v>177413052.2265812</v>
+        <v>90706932.14510396</v>
       </c>
       <c r="I44" t="n">
-        <v>605358.4621183565</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J44" t="n">
-        <v>40150.4</v>
+        <v>22814.2</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>677171.4747199999</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
         </is>
       </c>
     </row>
@@ -2473,11 +2473,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1013961</v>
+        <v>1001892</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ZFS Ithaca LLC</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2487,30 +2487,30 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Scenario1Best</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>441604.3046720242</v>
+        <v>3401509.955441399</v>
       </c>
       <c r="G45" t="n">
-        <v>19118868.71991822</v>
+        <v>6094743.997151342</v>
       </c>
       <c r="H45" t="n">
-        <v>207813790.4338937</v>
+        <v>66247217.36034068</v>
       </c>
       <c r="I45" t="n">
-        <v>709090.0866943083</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J45" t="n">
-        <v>47030.4</v>
+        <v>22814.2</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>677171.4747199999</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
         </is>
       </c>
     </row>
@@ -2519,11 +2519,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1000248</v>
+        <v>1001892</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Otsego Paper, Inc.</t>
+          <t>Billerud Quinnesec LLC</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2533,30 +2533,30 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3690219.89863072</v>
+        <v>11338366.518138</v>
       </c>
       <c r="G46" t="n">
-        <v>45266697.4232035</v>
+        <v>6285204.747062322</v>
       </c>
       <c r="H46" t="n">
-        <v>492029319.8174294</v>
+        <v>68317442.90285133</v>
       </c>
       <c r="I46" t="n">
-        <v>1678873.727855258</v>
+        <v>343894.3330749999</v>
       </c>
       <c r="J46" t="n">
-        <v>111351.3</v>
+        <v>22814.2</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>677171.4747199999</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
         </is>
       </c>
     </row>
@@ -2565,11 +2565,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1000409</v>
+        <v>1003135</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2579,30 +2579,30 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>8130959.126432455</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>99739765.28423811</v>
+        <v>9059750.525168074</v>
       </c>
       <c r="H47" t="n">
-        <v>1084127883.524327</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>3699197.889182058</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J47" t="n">
-        <v>245349.3</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>198.3999999999942</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -2611,11 +2611,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1001663</v>
+        <v>1003135</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2625,30 +2625,30 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1807013.349694667</v>
+        <v>756674.9815529005</v>
       </c>
       <c r="G48" t="n">
-        <v>22166030.42292126</v>
+        <v>32759575.67193734</v>
       </c>
       <c r="H48" t="n">
-        <v>240935113.2926223</v>
+        <v>356082344.2601885</v>
       </c>
       <c r="I48" t="n">
-        <v>822104.7314312611</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J48" t="n">
-        <v>94768</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>198.3999999999942</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -2657,11 +2657,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1001809</v>
+        <v>1003135</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2675,26 +2675,26 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2781733.826648322</v>
+        <v>2670617.581951413</v>
       </c>
       <c r="G49" t="n">
-        <v>34122601.60688609</v>
+        <v>32759575.67193734</v>
       </c>
       <c r="H49" t="n">
-        <v>370897843.5531097</v>
+        <v>356082344.2601885</v>
       </c>
       <c r="I49" t="n">
-        <v>1265555.974368639</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J49" t="n">
-        <v>83938</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>198.3999999999942</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -2703,11 +2703,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1001892</v>
+        <v>1003135</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2717,30 +2717,30 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>755891.1012091996</v>
+        <v>13353087.90975707</v>
       </c>
       <c r="G50" t="n">
-        <v>9272264.174832849</v>
+        <v>17579780.1843357</v>
       </c>
       <c r="H50" t="n">
-        <v>100785480.1612266</v>
+        <v>191084567.2210402</v>
       </c>
       <c r="I50" t="n">
-        <v>343894.3330749999</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J50" t="n">
-        <v>22814.2</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>677171.4747199999</v>
+        <v>198.3999999999942</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -2763,17 +2763,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2670617.581951413</v>
+        <v>44510293.03252356</v>
       </c>
       <c r="G51" t="n">
-        <v>32759575.67193734</v>
+        <v>18441534.11494039</v>
       </c>
       <c r="H51" t="n">
-        <v>356082344.2601885</v>
+        <v>200451457.7710913</v>
       </c>
       <c r="I51" t="n">
         <v>1215003.392385978</v>
@@ -2795,11 +2795,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1003320</v>
+        <v>1003135</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2809,30 +2809,30 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>10258537.16073227</v>
+        <v>681007.4833976105</v>
       </c>
       <c r="G52" t="n">
-        <v>125838055.8383158</v>
+        <v>29483618.1047436</v>
       </c>
       <c r="H52" t="n">
-        <v>1367804954.764302</v>
+        <v>320474109.8341696</v>
       </c>
       <c r="I52" t="n">
-        <v>4667144.234892589</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J52" t="n">
-        <v>309921</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>1626966.19008</v>
+        <v>198.3999999999942</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -2841,11 +2841,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1004477</v>
+        <v>1003135</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2855,30 +2855,30 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1983250.483951753</v>
+        <v>2403555.823756272</v>
       </c>
       <c r="G53" t="n">
-        <v>24327872.60314151</v>
+        <v>29483618.1047436</v>
       </c>
       <c r="H53" t="n">
-        <v>264433397.8602338</v>
+        <v>320474109.8341696</v>
       </c>
       <c r="I53" t="n">
-        <v>902284.206558613</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J53" t="n">
-        <v>59844</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>198.3999999999942</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -2887,11 +2887,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1004553</v>
+        <v>1003135</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2901,30 +2901,30 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>516515.3911457596</v>
+        <v>12017779.11878136</v>
       </c>
       <c r="G54" t="n">
-        <v>6335922.131387984</v>
+        <v>15821802.16590213</v>
       </c>
       <c r="H54" t="n">
-        <v>68868718.81943461</v>
+        <v>171976110.4989362</v>
       </c>
       <c r="I54" t="n">
-        <v>234989.8228420656</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J54" t="n">
-        <v>15585.7</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>198.3999999999942</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -2933,11 +2933,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1004584</v>
+        <v>1003135</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>CARBON GREEN BIOENERGY</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2947,30 +2947,30 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3506380.492681494</v>
+        <v>40059263.7292712</v>
       </c>
       <c r="G55" t="n">
-        <v>43011600.71022632</v>
+        <v>16597380.70344636</v>
       </c>
       <c r="H55" t="n">
-        <v>467517399.0241991</v>
+        <v>180406311.9939821</v>
       </c>
       <c r="I55" t="n">
-        <v>1595235.582359593</v>
+        <v>1215003.392385978</v>
       </c>
       <c r="J55" t="n">
-        <v>105804</v>
+        <v>80585.10000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>198.3999999999942</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
         </is>
       </c>
     </row>
@@ -2979,11 +2979,11 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1005073</v>
+        <v>1003320</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2993,30 +2993,30 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1727774.919889597</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>21194039.01731239</v>
+        <v>34765667.4450961</v>
       </c>
       <c r="H56" t="n">
-        <v>230369989.3186129</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>786055.0320392009</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J56" t="n">
-        <v>52135.10000000001</v>
+        <v>309921</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1626966.19008</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
         </is>
       </c>
     </row>
@@ -3025,11 +3025,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1005758</v>
+        <v>1003320</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3039,30 +3039,30 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3847805.527536525</v>
+        <v>2906585.528874143</v>
       </c>
       <c r="G57" t="n">
-        <v>47199747.80444805</v>
+        <v>125838055.8383158</v>
       </c>
       <c r="H57" t="n">
-        <v>513040737.0048701</v>
+        <v>1367804954.764302</v>
       </c>
       <c r="I57" t="n">
-        <v>1750567.659253675</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J57" t="n">
-        <v>116106.4</v>
+        <v>309921</v>
       </c>
       <c r="K57" t="n">
-        <v>14454.20000000001</v>
+        <v>1626966.19008</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
         </is>
       </c>
     </row>
@@ -3071,11 +3071,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1005838</v>
+        <v>1003320</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3089,26 +3089,26 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1619369.094532842</v>
+        <v>10258537.16073227</v>
       </c>
       <c r="G58" t="n">
-        <v>19864260.8929362</v>
+        <v>125838055.8383158</v>
       </c>
       <c r="H58" t="n">
-        <v>215915879.2710456</v>
+        <v>1367804954.764302</v>
       </c>
       <c r="I58" t="n">
-        <v>736735.5613471012</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J58" t="n">
-        <v>68233.39999999999</v>
+        <v>309921</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1626966.19008</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
         </is>
       </c>
     </row>
@@ -3117,11 +3117,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1006063</v>
+        <v>1003320</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3131,30 +3131,30 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3248154.280431248</v>
+        <v>51292685.80366135</v>
       </c>
       <c r="G59" t="n">
-        <v>39844025.83995664</v>
+        <v>91905004.8345568</v>
       </c>
       <c r="H59" t="n">
-        <v>433087237.3908331</v>
+        <v>998967443.8538784</v>
       </c>
       <c r="I59" t="n">
-        <v>1477754.994346024</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J59" t="n">
-        <v>98012.10000000001</v>
+        <v>309921</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1626966.19008</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
         </is>
       </c>
     </row>
@@ -3163,11 +3163,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1006312</v>
+        <v>1003320</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3177,30 +3177,30 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1710385.072218312</v>
+        <v>170975619.3455378</v>
       </c>
       <c r="G60" t="n">
-        <v>20980723.55254463</v>
+        <v>94777036.23563671</v>
       </c>
       <c r="H60" t="n">
-        <v>228051342.9624416</v>
+        <v>1030185176.474312</v>
       </c>
       <c r="I60" t="n">
-        <v>778143.4822701593</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J60" t="n">
-        <v>54325.60000000001</v>
+        <v>309921</v>
       </c>
       <c r="K60" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>1626966.19008</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
         </is>
       </c>
     </row>
@@ -3209,11 +3209,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1006343</v>
+        <v>1003320</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3223,30 +3223,30 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2376044.897064201</v>
+        <v>2615926.975986728</v>
       </c>
       <c r="G61" t="n">
-        <v>29146150.73732087</v>
+        <v>113254250.2544843</v>
       </c>
       <c r="H61" t="n">
-        <v>316805986.2752268</v>
+        <v>1231024459.287872</v>
       </c>
       <c r="I61" t="n">
-        <v>1080986.896029099</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J61" t="n">
-        <v>104582.4</v>
+        <v>309921</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1626966.19008</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
         </is>
       </c>
     </row>
@@ -3255,11 +3255,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1006367</v>
+        <v>1003320</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3269,30 +3269,30 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5195732.321554092</v>
+        <v>9232683.444659043</v>
       </c>
       <c r="G62" t="n">
-        <v>63734316.47773019</v>
+        <v>113254250.2544843</v>
       </c>
       <c r="H62" t="n">
-        <v>692764309.5405456</v>
+        <v>1231024459.287872</v>
       </c>
       <c r="I62" t="n">
-        <v>2363809.943917513</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J62" t="n">
-        <v>164732.9</v>
+        <v>309921</v>
       </c>
       <c r="K62" t="n">
-        <v>225930.30768</v>
+        <v>1626966.19008</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
         </is>
       </c>
     </row>
@@ -3301,11 +3301,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1007603</v>
+        <v>1003320</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>FIBREK</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3315,30 +3315,30 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>522013.373487976</v>
+        <v>46163417.22329521</v>
       </c>
       <c r="G63" t="n">
-        <v>6403364.048119172</v>
+        <v>82714504.35110113</v>
       </c>
       <c r="H63" t="n">
-        <v>69601783.13173012</v>
+        <v>899070699.4684906</v>
       </c>
       <c r="I63" t="n">
-        <v>237491.1421032793</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J63" t="n">
-        <v>15751.6</v>
+        <v>309921</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1626966.19008</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
         </is>
       </c>
     </row>
@@ -3347,11 +3347,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1007871</v>
+        <v>1003320</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>Billerud Escanaba LLC</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3361,30 +3361,30 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1667303.74219314</v>
+        <v>153878057.410984</v>
       </c>
       <c r="G64" t="n">
-        <v>20452259.23756918</v>
+        <v>85299332.61207305</v>
       </c>
       <c r="H64" t="n">
-        <v>222307165.625752</v>
+        <v>927166658.8268809</v>
       </c>
       <c r="I64" t="n">
-        <v>758543.5356200528</v>
+        <v>4667144.234892589</v>
       </c>
       <c r="J64" t="n">
-        <v>50310.4</v>
+        <v>309921</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1626966.19008</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
         </is>
       </c>
     </row>
@@ -3393,11 +3393,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1007933</v>
+        <v>1004477</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3407,23 +3407,23 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>6855357.628325067</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>84092386.90745415</v>
+        <v>6727939.909836411</v>
       </c>
       <c r="H65" t="n">
-        <v>914047683.7766755</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>3118860.158311346</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J65" t="n">
-        <v>206858.4</v>
+        <v>59844</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -3439,11 +3439,11 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1009702</v>
+        <v>1004477</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3453,23 +3453,23 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Scenario1Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1330597.891699359</v>
+        <v>561920.9704529967</v>
       </c>
       <c r="G66" t="n">
-        <v>16322000.80484547</v>
+        <v>24327872.60314151</v>
       </c>
       <c r="H66" t="n">
-        <v>177413052.2265812</v>
+        <v>264433397.8602338</v>
       </c>
       <c r="I66" t="n">
-        <v>605358.4621183565</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J66" t="n">
-        <v>40150.4</v>
+        <v>59844</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3485,11 +3485,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1013961</v>
+        <v>1004477</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ZFS Ithaca LLC</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3503,19 +3503,19 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1558603.428254203</v>
+        <v>1983250.483951753</v>
       </c>
       <c r="G67" t="n">
-        <v>19118868.71991822</v>
+        <v>24327872.60314151</v>
       </c>
       <c r="H67" t="n">
-        <v>207813790.4338937</v>
+        <v>264433397.8602338</v>
       </c>
       <c r="I67" t="n">
-        <v>709090.0866943083</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J67" t="n">
-        <v>47030.4</v>
+        <v>59844</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -3531,11 +3531,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1000248</v>
+        <v>1004477</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Otsego Paper, Inc.</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3549,19 +3549,19 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>18451099.4931536</v>
+        <v>9916252.419758765</v>
       </c>
       <c r="G68" t="n">
-        <v>19226970.44734681</v>
+        <v>15723282.54871489</v>
       </c>
       <c r="H68" t="n">
-        <v>208988809.2102914</v>
+        <v>170905245.0947271</v>
       </c>
       <c r="I68" t="n">
-        <v>1678873.727855258</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J68" t="n">
-        <v>111351.3</v>
+        <v>59844</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -3577,11 +3577,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1000409</v>
+        <v>1004477</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3591,23 +3591,23 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>40654795.63216227</v>
+        <v>33054174.73252922</v>
       </c>
       <c r="G69" t="n">
-        <v>42364334.68111487</v>
+        <v>16315273.60853096</v>
       </c>
       <c r="H69" t="n">
-        <v>460481898.7077703</v>
+        <v>177339930.5275105</v>
       </c>
       <c r="I69" t="n">
-        <v>3699197.889182058</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J69" t="n">
-        <v>245349.3</v>
+        <v>59844</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3623,11 +3623,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1001663</v>
+        <v>1004477</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3637,30 +3637,30 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>9035066.748473337</v>
+        <v>505728.873407697</v>
       </c>
       <c r="G70" t="n">
-        <v>13361414.79718976</v>
+        <v>21895085.34282735</v>
       </c>
       <c r="H70" t="n">
-        <v>145232769.5346712</v>
+        <v>237990058.0742104</v>
       </c>
       <c r="I70" t="n">
-        <v>822104.7314312611</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J70" t="n">
-        <v>94768</v>
+        <v>59844</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -3669,11 +3669,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1001809</v>
+        <v>1004477</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3683,23 +3683,23 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>13908669.13324161</v>
+        <v>1784925.435556578</v>
       </c>
       <c r="G71" t="n">
-        <v>18311221.17007698</v>
+        <v>21895085.34282735</v>
       </c>
       <c r="H71" t="n">
-        <v>199035012.718228</v>
+        <v>237990058.0742104</v>
       </c>
       <c r="I71" t="n">
-        <v>1265555.974368639</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J71" t="n">
-        <v>83938</v>
+        <v>59844</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -3715,11 +3715,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1001892</v>
+        <v>1004477</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3729,30 +3729,30 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3779455.506045998</v>
+        <v>8924627.177782889</v>
       </c>
       <c r="G72" t="n">
-        <v>6771937.774612603</v>
+        <v>14150954.2938434</v>
       </c>
       <c r="H72" t="n">
-        <v>73608019.28926742</v>
+        <v>153814720.5852544</v>
       </c>
       <c r="I72" t="n">
-        <v>343894.3330749999</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J72" t="n">
-        <v>22814.2</v>
+        <v>59844</v>
       </c>
       <c r="K72" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -3761,11 +3761,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1003135</v>
+        <v>1004477</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3775,30 +3775,30 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>13353087.90975707</v>
+        <v>29748757.2592763</v>
       </c>
       <c r="G73" t="n">
-        <v>17579780.1843357</v>
+        <v>14683746.24767787</v>
       </c>
       <c r="H73" t="n">
-        <v>191084567.2210402</v>
+        <v>159605937.4747594</v>
       </c>
       <c r="I73" t="n">
-        <v>1215003.392385978</v>
+        <v>902284.206558613</v>
       </c>
       <c r="J73" t="n">
-        <v>80585.10000000001</v>
+        <v>59844</v>
       </c>
       <c r="K73" t="n">
-        <v>198.3999999999942</v>
+        <v>0</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -3807,11 +3807,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1003320</v>
+        <v>1004553</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3821,30 +3821,30 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>51292685.80366135</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>91905004.8345568</v>
+        <v>1752216.647495778</v>
       </c>
       <c r="H74" t="n">
-        <v>998967443.8538784</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>4667144.234892589</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J74" t="n">
-        <v>309921</v>
+        <v>15585.7</v>
       </c>
       <c r="K74" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -3853,11 +3853,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1004477</v>
+        <v>1004553</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3867,23 +3867,23 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>9916252.419758765</v>
+        <v>146346.0274912985</v>
       </c>
       <c r="G75" t="n">
-        <v>15723282.54871489</v>
+        <v>6335922.131387984</v>
       </c>
       <c r="H75" t="n">
-        <v>170905245.0947271</v>
+        <v>68868718.81943461</v>
       </c>
       <c r="I75" t="n">
-        <v>902284.206558613</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J75" t="n">
-        <v>59844</v>
+        <v>15585.7</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -3913,17 +3913,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2582576.955728798</v>
+        <v>516515.3911457596</v>
       </c>
       <c r="G76" t="n">
-        <v>2691174.627518611</v>
+        <v>6335922.131387984</v>
       </c>
       <c r="H76" t="n">
-        <v>29251898.1252023</v>
+        <v>68868718.81943461</v>
       </c>
       <c r="I76" t="n">
         <v>234989.8228420656</v>
@@ -3945,11 +3945,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1004584</v>
+        <v>1004553</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3963,19 +3963,19 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>17531902.46340747</v>
+        <v>2582576.955728798</v>
       </c>
       <c r="G77" t="n">
-        <v>23081327.22579553</v>
+        <v>2691174.627518611</v>
       </c>
       <c r="H77" t="n">
-        <v>250883991.584734</v>
+        <v>29251898.1252023</v>
       </c>
       <c r="I77" t="n">
-        <v>1595235.582359593</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J77" t="n">
-        <v>105804</v>
+        <v>15585.7</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -3991,11 +3991,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1005073</v>
+        <v>1004553</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4005,30 +4005,30 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>8638874.599447984</v>
+        <v>8608589.852429327</v>
       </c>
       <c r="G78" t="n">
-        <v>9002140.316004129</v>
+        <v>2870586.269353186</v>
       </c>
       <c r="H78" t="n">
-        <v>97849351.26091444</v>
+        <v>31202024.66688246</v>
       </c>
       <c r="I78" t="n">
-        <v>786055.0320392009</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J78" t="n">
-        <v>52135.10000000001</v>
+        <v>15585.7</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -4037,11 +4037,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1005758</v>
+        <v>1004553</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4051,30 +4051,30 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>19239027.63768263</v>
+        <v>131711.4247421687</v>
       </c>
       <c r="G79" t="n">
-        <v>30505543.29446746</v>
+        <v>5702329.918249186</v>
       </c>
       <c r="H79" t="n">
-        <v>331581992.3311681</v>
+        <v>61981846.93749116</v>
       </c>
       <c r="I79" t="n">
-        <v>1750567.659253675</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J79" t="n">
-        <v>116106.4</v>
+        <v>15585.7</v>
       </c>
       <c r="K79" t="n">
-        <v>14454.20000000001</v>
+        <v>0</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -4083,11 +4083,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1005838</v>
+        <v>1004553</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4097,30 +4097,30 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>8096845.472664211</v>
+        <v>464863.8520311837</v>
       </c>
       <c r="G80" t="n">
-        <v>8437318.799208352</v>
+        <v>5702329.918249186</v>
       </c>
       <c r="H80" t="n">
-        <v>91709986.94791687</v>
+        <v>61981846.93749116</v>
       </c>
       <c r="I80" t="n">
-        <v>736735.5613471012</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J80" t="n">
-        <v>68233.39999999999</v>
+        <v>15585.7</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -4129,11 +4129,11 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1006063</v>
+        <v>1004553</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4143,23 +4143,23 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>16240771.40215624</v>
+        <v>2324319.260155918</v>
       </c>
       <c r="G81" t="n">
-        <v>24017496.42493933</v>
+        <v>2422057.16476675</v>
       </c>
       <c r="H81" t="n">
-        <v>261059743.7493406</v>
+        <v>26326708.31268207</v>
       </c>
       <c r="I81" t="n">
-        <v>1477754.994346024</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J81" t="n">
-        <v>98012.10000000001</v>
+        <v>15585.7</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -4175,11 +4175,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1006312</v>
+        <v>1004553</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>Ox Paperboard WP Mill, LLC</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -4189,30 +4189,30 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>8551925.36109156</v>
+        <v>7747730.867186394</v>
       </c>
       <c r="G82" t="n">
-        <v>13559995.56042305</v>
+        <v>2583527.642417867</v>
       </c>
       <c r="H82" t="n">
-        <v>147391256.0915549</v>
+        <v>28081822.20019421</v>
       </c>
       <c r="I82" t="n">
-        <v>778143.4822701593</v>
+        <v>234989.8228420656</v>
       </c>
       <c r="J82" t="n">
-        <v>54325.60000000001</v>
+        <v>15585.7</v>
       </c>
       <c r="K82" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -4221,11 +4221,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1006343</v>
+        <v>1004584</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4235,30 +4235,30 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>11880224.48532101</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>18837371.05689846</v>
+        <v>11894976.17506069</v>
       </c>
       <c r="H83" t="n">
-        <v>204754033.2271572</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1080986.896029099</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J83" t="n">
-        <v>104582.4</v>
+        <v>105804</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -4267,11 +4267,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1006367</v>
+        <v>1004584</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4281,30 +4281,30 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>25978661.60777046</v>
+        <v>993474.4729264231</v>
       </c>
       <c r="G84" t="n">
-        <v>46547943.10823613</v>
+        <v>43011600.71022632</v>
       </c>
       <c r="H84" t="n">
-        <v>505955903.3503928</v>
+        <v>467517399.0241991</v>
       </c>
       <c r="I84" t="n">
-        <v>2363809.943917513</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J84" t="n">
-        <v>164732.9</v>
+        <v>105804</v>
       </c>
       <c r="K84" t="n">
-        <v>225930.30768</v>
+        <v>0</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -4313,11 +4313,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1007603</v>
+        <v>1004584</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>FIBREK</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4327,23 +4327,23 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2610066.86743988</v>
+        <v>3506380.492681494</v>
       </c>
       <c r="G85" t="n">
-        <v>2719820.49332543</v>
+        <v>43011600.71022632</v>
       </c>
       <c r="H85" t="n">
-        <v>29563266.23179815</v>
+        <v>467517399.0241991</v>
       </c>
       <c r="I85" t="n">
-        <v>237491.1421032793</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J85" t="n">
-        <v>15751.6</v>
+        <v>105804</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -4359,11 +4359,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1007871</v>
+        <v>1004584</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4377,19 +4377,19 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>8336518.7109657</v>
+        <v>17531902.46340747</v>
       </c>
       <c r="G86" t="n">
-        <v>8687070.326024005</v>
+        <v>23081327.22579553</v>
       </c>
       <c r="H86" t="n">
-        <v>94424677.45678267</v>
+        <v>250883991.584734</v>
       </c>
       <c r="I86" t="n">
-        <v>758543.5356200528</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J86" t="n">
-        <v>50310.4</v>
+        <v>105804</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4405,11 +4405,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1007933</v>
+        <v>1004584</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4419,23 +4419,23 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>34276788.14162533</v>
+        <v>58439674.87802489</v>
       </c>
       <c r="G87" t="n">
-        <v>45126520.92363711</v>
+        <v>24212764.83490315</v>
       </c>
       <c r="H87" t="n">
-        <v>490505662.2134469</v>
+        <v>263182226.4663386</v>
       </c>
       <c r="I87" t="n">
-        <v>3118860.158311346</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J87" t="n">
-        <v>206858.4</v>
+        <v>105804</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -4451,11 +4451,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1009702</v>
+        <v>1004584</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4465,23 +4465,23 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>6652989.458496795</v>
+        <v>894127.0256337808</v>
       </c>
       <c r="G88" t="n">
-        <v>9838704.491178986</v>
+        <v>38710440.63920368</v>
       </c>
       <c r="H88" t="n">
-        <v>106942440.1215107</v>
+        <v>420765659.1217792</v>
       </c>
       <c r="I88" t="n">
-        <v>605358.4621183565</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J88" t="n">
-        <v>40150.4</v>
+        <v>105804</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
@@ -4497,11 +4497,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1013961</v>
+        <v>1004584</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ZFS Ithaca LLC</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4511,23 +4511,23 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Scenario2Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>7793017.141271014</v>
+        <v>3155742.443413344</v>
       </c>
       <c r="G89" t="n">
-        <v>9734919.085580764</v>
+        <v>38710440.63920368</v>
       </c>
       <c r="H89" t="n">
-        <v>105814337.8867474</v>
+        <v>420765659.1217792</v>
       </c>
       <c r="I89" t="n">
-        <v>709090.0866943083</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J89" t="n">
-        <v>47030.4</v>
+        <v>105804</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -4543,11 +4543,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1000248</v>
+        <v>1004584</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Otsego Paper, Inc.</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4557,23 +4557,23 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>61503664.97717867</v>
+        <v>15778712.21706672</v>
       </c>
       <c r="G90" t="n">
-        <v>20508768.47716993</v>
+        <v>20773194.50321597</v>
       </c>
       <c r="H90" t="n">
-        <v>222921396.4909775</v>
+        <v>225795592.4262606</v>
       </c>
       <c r="I90" t="n">
-        <v>1678873.727855258</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J90" t="n">
-        <v>111351.3</v>
+        <v>105804</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -4589,11 +4589,11 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1000409</v>
+        <v>1004584</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>POET Biorefining - Caro, LLC</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4603,23 +4603,23 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>135515985.4405409</v>
+        <v>52595707.3902224</v>
       </c>
       <c r="G91" t="n">
-        <v>45188623.65985586</v>
+        <v>21791488.35141284</v>
       </c>
       <c r="H91" t="n">
-        <v>491180691.954955</v>
+        <v>236864003.8197047</v>
       </c>
       <c r="I91" t="n">
-        <v>3699197.889182058</v>
+        <v>1595235.582359593</v>
       </c>
       <c r="J91" t="n">
-        <v>245349.3</v>
+        <v>105804</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
@@ -4635,11 +4635,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1001663</v>
+        <v>1005073</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4649,30 +4649,30 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>30116889.16157779</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>13918140.41373933</v>
+        <v>5861269.634270976</v>
       </c>
       <c r="H92" t="n">
-        <v>151284134.9319492</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>822104.7314312611</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J92" t="n">
-        <v>94768</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
         </is>
       </c>
     </row>
@@ -4681,11 +4681,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1001809</v>
+        <v>1005073</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4695,30 +4695,30 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>46362230.44413871</v>
+        <v>489536.2273020524</v>
       </c>
       <c r="G93" t="n">
-        <v>19208830.05096311</v>
+        <v>21194039.01731239</v>
       </c>
       <c r="H93" t="n">
-        <v>208791630.9887294</v>
+        <v>230369989.3186129</v>
       </c>
       <c r="I93" t="n">
-        <v>1265555.974368639</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J93" t="n">
-        <v>83938</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
         </is>
       </c>
     </row>
@@ -4727,11 +4727,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1001892</v>
+        <v>1005073</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4741,30 +4741,30 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>12598185.02015333</v>
+        <v>1727774.919889597</v>
       </c>
       <c r="G94" t="n">
-        <v>6983560.830069247</v>
+        <v>21194039.01731239</v>
       </c>
       <c r="H94" t="n">
-        <v>75908269.89205703</v>
+        <v>230369989.3186129</v>
       </c>
       <c r="I94" t="n">
-        <v>343894.3330749999</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J94" t="n">
-        <v>22814.2</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
         </is>
       </c>
     </row>
@@ -4773,11 +4773,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1003135</v>
+        <v>1005073</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4787,30 +4787,30 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>44510293.03252356</v>
+        <v>8638874.599447984</v>
       </c>
       <c r="G95" t="n">
-        <v>18441534.11494039</v>
+        <v>9002140.316004129</v>
       </c>
       <c r="H95" t="n">
-        <v>200451457.7710913</v>
+        <v>97849351.26091444</v>
       </c>
       <c r="I95" t="n">
-        <v>1215003.392385978</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J95" t="n">
-        <v>80585.10000000001</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>198.3999999999942</v>
+        <v>0</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
         </is>
       </c>
     </row>
@@ -4819,11 +4819,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1003320</v>
+        <v>1005073</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4837,26 +4837,26 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>170975619.3455378</v>
+        <v>28796248.66482661</v>
       </c>
       <c r="G96" t="n">
-        <v>94777036.23563671</v>
+        <v>9602283.003737738</v>
       </c>
       <c r="H96" t="n">
-        <v>1030185176.474312</v>
+        <v>104372641.3449754</v>
       </c>
       <c r="I96" t="n">
-        <v>4667144.234892589</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J96" t="n">
-        <v>309921</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
         </is>
       </c>
     </row>
@@ -4865,11 +4865,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1004477</v>
+        <v>1005073</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4879,30 +4879,30 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>33054174.73252922</v>
+        <v>440582.6045718472</v>
       </c>
       <c r="G97" t="n">
-        <v>16315273.60853096</v>
+        <v>19074635.11558115</v>
       </c>
       <c r="H97" t="n">
-        <v>177339930.5275105</v>
+        <v>207332990.3867516</v>
       </c>
       <c r="I97" t="n">
-        <v>902284.206558613</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J97" t="n">
-        <v>59844</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
         </is>
       </c>
     </row>
@@ -4911,11 +4911,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1004553</v>
+        <v>1005073</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4925,30 +4925,30 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>8608589.852429327</v>
+        <v>1554997.427900637</v>
       </c>
       <c r="G98" t="n">
-        <v>2870586.269353186</v>
+        <v>19074635.11558115</v>
       </c>
       <c r="H98" t="n">
-        <v>31202024.66688246</v>
+        <v>207332990.3867516</v>
       </c>
       <c r="I98" t="n">
-        <v>234989.8228420656</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J98" t="n">
-        <v>15585.7</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
         </is>
       </c>
     </row>
@@ -4957,11 +4957,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1004584</v>
+        <v>1005073</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>UP Paper LLC</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4971,30 +4971,30 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>58439674.87802489</v>
+        <v>7774987.139503186</v>
       </c>
       <c r="G99" t="n">
-        <v>24212764.83490315</v>
+        <v>8101926.284403715</v>
       </c>
       <c r="H99" t="n">
-        <v>263182226.4663386</v>
+        <v>88064416.13482299</v>
       </c>
       <c r="I99" t="n">
-        <v>1595235.582359593</v>
+        <v>786055.0320392009</v>
       </c>
       <c r="J99" t="n">
-        <v>105804</v>
+        <v>52135.10000000001</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
         </is>
       </c>
     </row>
@@ -5017,17 +5017,17 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>28796248.66482661</v>
+        <v>25916623.79834395</v>
       </c>
       <c r="G100" t="n">
-        <v>9602283.003737738</v>
+        <v>8642054.703363964</v>
       </c>
       <c r="H100" t="n">
-        <v>104372641.3449754</v>
+        <v>93935377.21047787</v>
       </c>
       <c r="I100" t="n">
         <v>786055.0320392009</v>
@@ -5063,17 +5063,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>64130092.12560876</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>31654095.37633746</v>
+        <v>13322590.65783248</v>
       </c>
       <c r="H101" t="n">
-        <v>344066254.0906246</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>1750567.659253675</v>
@@ -5095,11 +5095,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1005838</v>
+        <v>1005758</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5109,30 +5109,30 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>26989484.9088807</v>
+        <v>1090211.566135349</v>
       </c>
       <c r="G102" t="n">
-        <v>8999806.719155576</v>
+        <v>47199747.80444805</v>
       </c>
       <c r="H102" t="n">
-        <v>97823986.07777801</v>
+        <v>513040737.0048701</v>
       </c>
       <c r="I102" t="n">
-        <v>736735.5613471012</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J102" t="n">
-        <v>68233.39999999999</v>
+        <v>116106.4</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>14454.20000000001</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -5141,11 +5141,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1006063</v>
+        <v>1005758</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5155,30 +5155,30 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>54135904.67385413</v>
+        <v>3847805.527536525</v>
       </c>
       <c r="G103" t="n">
-        <v>25018225.44264514</v>
+        <v>47199747.80444805</v>
       </c>
       <c r="H103" t="n">
-        <v>271937233.0722297</v>
+        <v>513040737.0048701</v>
       </c>
       <c r="I103" t="n">
-        <v>1477754.994346024</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J103" t="n">
-        <v>98012.10000000001</v>
+        <v>116106.4</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>14454.20000000001</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -5187,11 +5187,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1006312</v>
+        <v>1005758</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -5201,26 +5201,26 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>28506417.8703052</v>
+        <v>19239027.63768263</v>
       </c>
       <c r="G104" t="n">
-        <v>14070537.56194501</v>
+        <v>30505543.29446746</v>
       </c>
       <c r="H104" t="n">
-        <v>152940625.6733153</v>
+        <v>331581992.3311681</v>
       </c>
       <c r="I104" t="n">
-        <v>778143.4822701593</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J104" t="n">
-        <v>54325.60000000001</v>
+        <v>116106.4</v>
       </c>
       <c r="K104" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>14454.20000000001</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -5233,11 +5233,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1006343</v>
+        <v>1005758</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5251,26 +5251,26 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>39600748.28440335</v>
+        <v>64130092.12560876</v>
       </c>
       <c r="G105" t="n">
-        <v>19546609.42500458</v>
+        <v>31654095.37633746</v>
       </c>
       <c r="H105" t="n">
-        <v>212463145.9239628</v>
+        <v>344066254.0906246</v>
       </c>
       <c r="I105" t="n">
-        <v>1080986.896029099</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J105" t="n">
-        <v>104582.4</v>
+        <v>116106.4</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>14454.20000000001</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -5279,11 +5279,11 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1006367</v>
+        <v>1005758</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5293,30 +5293,30 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>86595538.6925682</v>
+        <v>981190.4095218141</v>
       </c>
       <c r="G106" t="n">
-        <v>48002566.33036851</v>
+        <v>42479773.02400324</v>
       </c>
       <c r="H106" t="n">
-        <v>521767025.3300925</v>
+        <v>461736663.304383</v>
       </c>
       <c r="I106" t="n">
-        <v>2363809.943917513</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J106" t="n">
-        <v>164732.9</v>
+        <v>116106.4</v>
       </c>
       <c r="K106" t="n">
-        <v>225930.30768</v>
+        <v>14454.20000000001</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -5325,11 +5325,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1007603</v>
+        <v>1005758</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>FIBREK</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5339,30 +5339,30 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>8700222.891466266</v>
+        <v>3463024.974782873</v>
       </c>
       <c r="G107" t="n">
-        <v>2901141.859547126</v>
+        <v>42479773.02400324</v>
       </c>
       <c r="H107" t="n">
-        <v>31534150.64725137</v>
+        <v>461736663.304383</v>
       </c>
       <c r="I107" t="n">
-        <v>237491.1421032793</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J107" t="n">
-        <v>15751.6</v>
+        <v>116106.4</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>14454.20000000001</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -5371,11 +5371,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1007871</v>
+        <v>1005758</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5385,30 +5385,30 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>27788395.703219</v>
+        <v>17315124.87391437</v>
       </c>
       <c r="G108" t="n">
-        <v>9266208.347758941</v>
+        <v>27454988.96502072</v>
       </c>
       <c r="H108" t="n">
-        <v>100719655.9539015</v>
+        <v>298423793.0980512</v>
       </c>
       <c r="I108" t="n">
-        <v>758543.5356200528</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J108" t="n">
-        <v>50310.4</v>
+        <v>116106.4</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>14454.20000000001</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -5417,11 +5417,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1007933</v>
+        <v>1005758</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5431,30 +5431,30 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>114255960.4720844</v>
+        <v>57717082.91304789</v>
       </c>
       <c r="G109" t="n">
-        <v>47338605.28263892</v>
+        <v>28488685.83870372</v>
       </c>
       <c r="H109" t="n">
-        <v>514550057.4199883</v>
+        <v>309659628.6815622</v>
       </c>
       <c r="I109" t="n">
-        <v>3118860.158311346</v>
+        <v>1750567.659253675</v>
       </c>
       <c r="J109" t="n">
-        <v>206858.4</v>
+        <v>116106.4</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>14454.20000000001</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -5463,11 +5463,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1009702</v>
+        <v>1005838</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5477,30 +5477,30 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>22176631.52832265</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>10248650.51164478</v>
+        <v>3603873.516309487</v>
       </c>
       <c r="H110" t="n">
-        <v>111398375.1265737</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>605358.4621183565</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J110" t="n">
-        <v>40150.4</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
         </is>
       </c>
     </row>
@@ -5509,11 +5509,11 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1013961</v>
+        <v>1005838</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ZFS Ithaca LLC</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5523,30 +5523,30 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Scenario2Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>25976723.80423671</v>
+        <v>458821.243450972</v>
       </c>
       <c r="G111" t="n">
-        <v>10247283.24797975</v>
+        <v>19864260.8929362</v>
       </c>
       <c r="H111" t="n">
-        <v>111383513.5649973</v>
+        <v>215915879.2710456</v>
       </c>
       <c r="I111" t="n">
-        <v>709090.0866943083</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J111" t="n">
-        <v>47030.4</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
         </is>
       </c>
     </row>
@@ -5555,11 +5555,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1000248</v>
+        <v>1005838</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Otsego Paper, Inc.</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5569,30 +5569,30 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>941006.0741508337</v>
+        <v>1619369.094532842</v>
       </c>
       <c r="G112" t="n">
-        <v>40740027.68088315</v>
+        <v>19864260.8929362</v>
       </c>
       <c r="H112" t="n">
-        <v>442826387.8356864</v>
+        <v>215915879.2710456</v>
       </c>
       <c r="I112" t="n">
-        <v>1678873.727855258</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J112" t="n">
-        <v>111351.3</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
         </is>
       </c>
     </row>
@@ -5601,11 +5601,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1000409</v>
+        <v>1005838</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5615,30 +5615,30 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2073394.577240276</v>
+        <v>8096845.472664211</v>
       </c>
       <c r="G113" t="n">
-        <v>89765788.7558143</v>
+        <v>8437318.799208352</v>
       </c>
       <c r="H113" t="n">
-        <v>975715095.1718946</v>
+        <v>91709986.94791687</v>
       </c>
       <c r="I113" t="n">
-        <v>3699197.889182058</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J113" t="n">
-        <v>245349.3</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
         </is>
       </c>
     </row>
@@ -5647,11 +5647,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1001663</v>
+        <v>1005838</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5661,30 +5661,30 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>460788.4041721402</v>
+        <v>26989484.9088807</v>
       </c>
       <c r="G114" t="n">
-        <v>19949427.38062913</v>
+        <v>8999806.719155576</v>
       </c>
       <c r="H114" t="n">
-        <v>216841601.9633601</v>
+        <v>97823986.07777801</v>
       </c>
       <c r="I114" t="n">
-        <v>822104.7314312611</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J114" t="n">
-        <v>94768</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
         </is>
       </c>
     </row>
@@ -5693,11 +5693,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1001809</v>
+        <v>1005838</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -5711,26 +5711,26 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>709342.1257953222</v>
+        <v>412939.1191058747</v>
       </c>
       <c r="G115" t="n">
-        <v>30710341.44619748</v>
+        <v>17877834.80364258</v>
       </c>
       <c r="H115" t="n">
-        <v>333808059.1977987</v>
+        <v>194324291.3439411</v>
       </c>
       <c r="I115" t="n">
-        <v>1265555.974368639</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J115" t="n">
-        <v>83938</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
         </is>
       </c>
     </row>
@@ -5739,11 +5739,11 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1001892</v>
+        <v>1005838</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5753,30 +5753,30 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>192752.2308083459</v>
+        <v>1457432.185079558</v>
       </c>
       <c r="G116" t="n">
-        <v>8345037.757349565</v>
+        <v>17877834.80364258</v>
       </c>
       <c r="H116" t="n">
-        <v>90706932.14510396</v>
+        <v>194324291.3439411</v>
       </c>
       <c r="I116" t="n">
-        <v>343894.3330749999</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J116" t="n">
-        <v>22814.2</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K116" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
         </is>
       </c>
     </row>
@@ -5785,11 +5785,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1003135</v>
+        <v>1005838</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5799,30 +5799,30 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>681007.4833976105</v>
+        <v>7287160.92539779</v>
       </c>
       <c r="G117" t="n">
-        <v>29483618.1047436</v>
+        <v>7593586.919287518</v>
       </c>
       <c r="H117" t="n">
-        <v>320474109.8341696</v>
+        <v>82538988.25312519</v>
       </c>
       <c r="I117" t="n">
-        <v>1215003.392385978</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J117" t="n">
-        <v>80585.10000000001</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K117" t="n">
-        <v>198.3999999999942</v>
+        <v>0</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
         </is>
       </c>
     </row>
@@ -5831,11 +5831,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1003320</v>
+        <v>1005838</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>NEENAH PAPER MICHIGAN INC</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5845,30 +5845,30 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2615926.975986728</v>
+        <v>24290536.41799263</v>
       </c>
       <c r="G118" t="n">
-        <v>113254250.2544843</v>
+        <v>8099826.047240019</v>
       </c>
       <c r="H118" t="n">
-        <v>1231024459.287872</v>
+        <v>88041587.47000021</v>
       </c>
       <c r="I118" t="n">
-        <v>4667144.234892589</v>
+        <v>736735.5613471012</v>
       </c>
       <c r="J118" t="n">
-        <v>309921</v>
+        <v>68233.39999999999</v>
       </c>
       <c r="K118" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
         </is>
       </c>
     </row>
@@ -5877,11 +5877,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1004477</v>
+        <v>1006063</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5891,23 +5891,23 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>505728.873407697</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>21895085.34282735</v>
+        <v>11018974.65471689</v>
       </c>
       <c r="H119" t="n">
-        <v>237990058.0742104</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>902284.206558613</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J119" t="n">
-        <v>59844</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -5923,11 +5923,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1004553</v>
+        <v>1006063</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -5937,23 +5937,23 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>131711.4247421687</v>
+        <v>920310.3794555203</v>
       </c>
       <c r="G120" t="n">
-        <v>5702329.918249186</v>
+        <v>39844025.83995664</v>
       </c>
       <c r="H120" t="n">
-        <v>61981846.93749116</v>
+        <v>433087237.3908331</v>
       </c>
       <c r="I120" t="n">
-        <v>234989.8228420656</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J120" t="n">
-        <v>15585.7</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -5969,11 +5969,11 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1004584</v>
+        <v>1006063</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5983,23 +5983,23 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>894127.0256337808</v>
+        <v>3248154.280431248</v>
       </c>
       <c r="G121" t="n">
-        <v>38710440.63920368</v>
+        <v>39844025.83995664</v>
       </c>
       <c r="H121" t="n">
-        <v>420765659.1217792</v>
+        <v>433087237.3908331</v>
       </c>
       <c r="I121" t="n">
-        <v>1595235.582359593</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J121" t="n">
-        <v>105804</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -6015,11 +6015,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1005073</v>
+        <v>1006063</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -6029,30 +6029,30 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>440582.6045718472</v>
+        <v>16240771.40215624</v>
       </c>
       <c r="G122" t="n">
-        <v>19074635.11558115</v>
+        <v>24017496.42493933</v>
       </c>
       <c r="H122" t="n">
-        <v>207332990.3867516</v>
+        <v>261059743.7493406</v>
       </c>
       <c r="I122" t="n">
-        <v>786055.0320392009</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J122" t="n">
-        <v>52135.10000000001</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -6061,11 +6061,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1005758</v>
+        <v>1006063</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -6075,30 +6075,30 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>981190.4095218141</v>
+        <v>54135904.67385413</v>
       </c>
       <c r="G123" t="n">
-        <v>42479773.02400324</v>
+        <v>25018225.44264514</v>
       </c>
       <c r="H123" t="n">
-        <v>461736663.304383</v>
+        <v>271937233.0722297</v>
       </c>
       <c r="I123" t="n">
-        <v>1750567.659253675</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J123" t="n">
-        <v>116106.4</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K123" t="n">
-        <v>14454.20000000001</v>
+        <v>0</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -6107,11 +6107,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1005838</v>
+        <v>1006063</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -6125,26 +6125,26 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>412939.1191058747</v>
+        <v>828279.3415099684</v>
       </c>
       <c r="G124" t="n">
-        <v>17877834.80364258</v>
+        <v>35859623.25596098</v>
       </c>
       <c r="H124" t="n">
-        <v>194324291.3439411</v>
+        <v>389778513.6517498</v>
       </c>
       <c r="I124" t="n">
-        <v>736735.5613471012</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J124" t="n">
-        <v>68233.39999999999</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -6167,11 +6167,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>828279.3415099684</v>
+        <v>2923338.852388124</v>
       </c>
       <c r="G125" t="n">
         <v>35859623.25596098</v>
@@ -6199,11 +6199,11 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1006312</v>
+        <v>1006063</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6213,30 +6213,30 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>436148.1934156696</v>
+        <v>14616694.26194062</v>
       </c>
       <c r="G126" t="n">
-        <v>18882651.19729017</v>
+        <v>21615746.7824454</v>
       </c>
       <c r="H126" t="n">
-        <v>205246208.6661975</v>
+        <v>234953769.3744065</v>
       </c>
       <c r="I126" t="n">
-        <v>778143.4822701593</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J126" t="n">
-        <v>54325.60000000001</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -6245,11 +6245,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1006343</v>
+        <v>1006063</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>CARGILL SALT SAINT CLAIR</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6259,30 +6259,30 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>605891.4487513714</v>
+        <v>48722314.20646872</v>
       </c>
       <c r="G127" t="n">
-        <v>26231535.66358878</v>
+        <v>22516402.89838062</v>
       </c>
       <c r="H127" t="n">
-        <v>285125387.6477042</v>
+        <v>244743509.7650068</v>
       </c>
       <c r="I127" t="n">
-        <v>1080986.896029099</v>
+        <v>1477754.994346024</v>
       </c>
       <c r="J127" t="n">
-        <v>104582.4</v>
+        <v>98012.10000000001</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -6291,11 +6291,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1006367</v>
+        <v>1006312</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6305,30 +6305,30 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1324911.741996293</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>57360884.82995717</v>
+        <v>5607295.274908995</v>
       </c>
       <c r="H128" t="n">
-        <v>623487878.586491</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>2363809.943917513</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J128" t="n">
-        <v>164732.9</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>225930.30768</v>
+        <v>-7.275957614183426e-12</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -6337,11 +6337,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1007603</v>
+        <v>1006312</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>FIBREK</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -6351,30 +6351,30 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>133113.4102394339</v>
+        <v>484609.1037951884</v>
       </c>
       <c r="G129" t="n">
-        <v>5763027.643307255</v>
+        <v>20980723.55254463</v>
       </c>
       <c r="H129" t="n">
-        <v>62641604.81855711</v>
+        <v>228051342.9624416</v>
       </c>
       <c r="I129" t="n">
-        <v>237491.1421032793</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J129" t="n">
-        <v>15751.6</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -6383,11 +6383,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1007871</v>
+        <v>1006312</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6397,30 +6397,30 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>425162.4542592507</v>
+        <v>1710385.072218312</v>
       </c>
       <c r="G130" t="n">
-        <v>18407033.31381227</v>
+        <v>20980723.55254463</v>
       </c>
       <c r="H130" t="n">
-        <v>200076449.0631768</v>
+        <v>228051342.9624416</v>
       </c>
       <c r="I130" t="n">
-        <v>758543.5356200528</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J130" t="n">
-        <v>50310.4</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -6429,11 +6429,11 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1007933</v>
+        <v>1006312</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -6443,30 +6443,30 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1748116.195222892</v>
+        <v>8551925.36109156</v>
       </c>
       <c r="G131" t="n">
-        <v>75683148.21670872</v>
+        <v>13559995.56042305</v>
       </c>
       <c r="H131" t="n">
-        <v>822642915.3990079</v>
+        <v>147391256.0915549</v>
       </c>
       <c r="I131" t="n">
-        <v>3118860.158311346</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J131" t="n">
-        <v>206858.4</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -6475,11 +6475,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1009702</v>
+        <v>1006312</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6489,30 +6489,30 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Scenario3Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>339302.4623833366</v>
+        <v>28506417.8703052</v>
       </c>
       <c r="G132" t="n">
-        <v>14689800.72436092</v>
+        <v>14070537.56194501</v>
       </c>
       <c r="H132" t="n">
-        <v>159671747.0039231</v>
+        <v>152940625.6733153</v>
       </c>
       <c r="I132" t="n">
-        <v>605358.4621183565</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J132" t="n">
-        <v>40150.4</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -6521,11 +6521,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1013961</v>
+        <v>1006312</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ZFS Ithaca LLC</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6539,26 +6539,26 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>397443.8742048217</v>
+        <v>436148.1934156696</v>
       </c>
       <c r="G133" t="n">
-        <v>17206981.8479264</v>
+        <v>18882651.19729017</v>
       </c>
       <c r="H133" t="n">
-        <v>187032411.3905043</v>
+        <v>205246208.6661975</v>
       </c>
       <c r="I133" t="n">
-        <v>709090.0866943083</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J133" t="n">
-        <v>47030.4</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -6567,11 +6567,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1000248</v>
+        <v>1006312</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Otsego Paper, Inc.</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6585,26 +6585,26 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3321197.908767649</v>
+        <v>1539346.564996481</v>
       </c>
       <c r="G134" t="n">
-        <v>40740027.68088315</v>
+        <v>18882651.19729017</v>
       </c>
       <c r="H134" t="n">
-        <v>442826387.8356864</v>
+        <v>205246208.6661975</v>
       </c>
       <c r="I134" t="n">
-        <v>1678873.727855258</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J134" t="n">
-        <v>111351.3</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -6613,11 +6613,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1000409</v>
+        <v>1006312</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -6627,30 +6627,30 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>7317863.21378921</v>
+        <v>7696732.824982405</v>
       </c>
       <c r="G135" t="n">
-        <v>89765788.7558143</v>
+        <v>12203996.00438075</v>
       </c>
       <c r="H135" t="n">
-        <v>975715095.1718946</v>
+        <v>132652130.4823995</v>
       </c>
       <c r="I135" t="n">
-        <v>3699197.889182058</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J135" t="n">
-        <v>245349.3</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -6659,11 +6659,11 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1001663</v>
+        <v>1006312</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -6673,30 +6673,30 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1626312.014725201</v>
+        <v>25655776.08327468</v>
       </c>
       <c r="G136" t="n">
-        <v>19949427.38062913</v>
+        <v>12663483.80575051</v>
       </c>
       <c r="H136" t="n">
-        <v>216841601.9633601</v>
+        <v>137646563.1059838</v>
       </c>
       <c r="I136" t="n">
-        <v>822104.7314312611</v>
+        <v>778143.4822701593</v>
       </c>
       <c r="J136" t="n">
-        <v>94768</v>
+        <v>54325.60000000001</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>-7.275957614183426e-12</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
         </is>
       </c>
     </row>
@@ -6705,11 +6705,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1001809</v>
+        <v>1006343</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -6719,30 +6719,30 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2503560.443983491</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>30710341.44619748</v>
+        <v>4911395.643983915</v>
       </c>
       <c r="H137" t="n">
-        <v>333808059.1977987</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1265555.974368639</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J137" t="n">
-        <v>83938</v>
+        <v>104582.4</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
         </is>
       </c>
     </row>
@@ -6751,11 +6751,11 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1001892</v>
+        <v>1006343</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -6765,30 +6765,30 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>680301.9910882796</v>
+        <v>673212.720834857</v>
       </c>
       <c r="G138" t="n">
-        <v>8345037.757349565</v>
+        <v>29146150.73732087</v>
       </c>
       <c r="H138" t="n">
-        <v>90706932.14510396</v>
+        <v>316805986.2752268</v>
       </c>
       <c r="I138" t="n">
-        <v>343894.3330749999</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J138" t="n">
-        <v>22814.2</v>
+        <v>104582.4</v>
       </c>
       <c r="K138" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
         </is>
       </c>
     </row>
@@ -6797,11 +6797,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1003135</v>
+        <v>1006343</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -6811,30 +6811,30 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2403555.823756272</v>
+        <v>2376044.897064201</v>
       </c>
       <c r="G139" t="n">
-        <v>29483618.1047436</v>
+        <v>29146150.73732087</v>
       </c>
       <c r="H139" t="n">
-        <v>320474109.8341696</v>
+        <v>316805986.2752268</v>
       </c>
       <c r="I139" t="n">
-        <v>1215003.392385978</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J139" t="n">
-        <v>80585.10000000001</v>
+        <v>104582.4</v>
       </c>
       <c r="K139" t="n">
-        <v>198.3999999999942</v>
+        <v>0</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
         </is>
       </c>
     </row>
@@ -6843,11 +6843,11 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1003320</v>
+        <v>1006343</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6857,30 +6857,30 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>9232683.444659043</v>
+        <v>11880224.48532101</v>
       </c>
       <c r="G140" t="n">
-        <v>113254250.2544843</v>
+        <v>18837371.05689846</v>
       </c>
       <c r="H140" t="n">
-        <v>1231024459.287872</v>
+        <v>204754033.2271572</v>
       </c>
       <c r="I140" t="n">
-        <v>4667144.234892589</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J140" t="n">
-        <v>309921</v>
+        <v>104582.4</v>
       </c>
       <c r="K140" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
         </is>
       </c>
     </row>
@@ -6889,11 +6889,11 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1004477</v>
+        <v>1006343</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -6903,30 +6903,30 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1784925.435556578</v>
+        <v>39600748.28440335</v>
       </c>
       <c r="G141" t="n">
-        <v>21895085.34282735</v>
+        <v>19546609.42500458</v>
       </c>
       <c r="H141" t="n">
-        <v>237990058.0742104</v>
+        <v>212463145.9239628</v>
       </c>
       <c r="I141" t="n">
-        <v>902284.206558613</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J141" t="n">
-        <v>59844</v>
+        <v>104582.4</v>
       </c>
       <c r="K141" t="n">
         <v>0</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
         </is>
       </c>
     </row>
@@ -6935,11 +6935,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1004553</v>
+        <v>1006343</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6949,30 +6949,30 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>464863.8520311837</v>
+        <v>605891.4487513714</v>
       </c>
       <c r="G142" t="n">
-        <v>5702329.918249186</v>
+        <v>26231535.66358878</v>
       </c>
       <c r="H142" t="n">
-        <v>61981846.93749116</v>
+        <v>285125387.6477042</v>
       </c>
       <c r="I142" t="n">
-        <v>234989.8228420656</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J142" t="n">
-        <v>15585.7</v>
+        <v>104582.4</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
         </is>
       </c>
     </row>
@@ -6981,11 +6981,11 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1004584</v>
+        <v>1006343</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -6999,26 +6999,26 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>3155742.443413344</v>
+        <v>2138440.407357781</v>
       </c>
       <c r="G143" t="n">
-        <v>38710440.63920368</v>
+        <v>26231535.66358878</v>
       </c>
       <c r="H143" t="n">
-        <v>420765659.1217792</v>
+        <v>285125387.6477042</v>
       </c>
       <c r="I143" t="n">
-        <v>1595235.582359593</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J143" t="n">
-        <v>105804</v>
+        <v>104582.4</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
         </is>
       </c>
     </row>
@@ -7027,11 +7027,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1005073</v>
+        <v>1006343</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -7041,30 +7041,30 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1554997.427900637</v>
+        <v>10692202.03678891</v>
       </c>
       <c r="G144" t="n">
-        <v>19074635.11558115</v>
+        <v>16953633.95120862</v>
       </c>
       <c r="H144" t="n">
-        <v>207332990.3867516</v>
+        <v>184278629.9044415</v>
       </c>
       <c r="I144" t="n">
-        <v>786055.0320392009</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J144" t="n">
-        <v>52135.10000000001</v>
+        <v>104582.4</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
         </is>
       </c>
     </row>
@@ -7073,11 +7073,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1005758</v>
+        <v>1006343</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -7087,30 +7087,30 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3463024.974782873</v>
+        <v>35640673.45596302</v>
       </c>
       <c r="G145" t="n">
-        <v>42479773.02400324</v>
+        <v>17591948.48250413</v>
       </c>
       <c r="H145" t="n">
-        <v>461736663.304383</v>
+        <v>191216831.3315666</v>
       </c>
       <c r="I145" t="n">
-        <v>1750567.659253675</v>
+        <v>1080986.896029099</v>
       </c>
       <c r="J145" t="n">
-        <v>116106.4</v>
+        <v>104582.4</v>
       </c>
       <c r="K145" t="n">
-        <v>14454.20000000001</v>
+        <v>0</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
         </is>
       </c>
     </row>
@@ -7119,11 +7119,11 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1005838</v>
+        <v>1006367</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -7133,30 +7133,30 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1457432.185079558</v>
+        <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>17877834.80364258</v>
+        <v>16195709.69798012</v>
       </c>
       <c r="H146" t="n">
-        <v>194324291.3439411</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>736735.5613471012</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J146" t="n">
-        <v>68233.39999999999</v>
+        <v>164732.9</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>225930.30768</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -7165,11 +7165,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1006063</v>
+        <v>1006367</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -7179,30 +7179,30 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2923338.852388124</v>
+        <v>1472124.157773659</v>
       </c>
       <c r="G147" t="n">
-        <v>35859623.25596098</v>
+        <v>63734316.47773019</v>
       </c>
       <c r="H147" t="n">
-        <v>389778513.6517498</v>
+        <v>692764309.5405456</v>
       </c>
       <c r="I147" t="n">
-        <v>1477754.994346024</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J147" t="n">
-        <v>98012.10000000001</v>
+        <v>164732.9</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>225930.30768</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -7211,11 +7211,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1006312</v>
+        <v>1006367</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7225,30 +7225,30 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1539346.564996481</v>
+        <v>5195732.321554092</v>
       </c>
       <c r="G148" t="n">
-        <v>18882651.19729017</v>
+        <v>63734316.47773019</v>
       </c>
       <c r="H148" t="n">
-        <v>205246208.6661975</v>
+        <v>692764309.5405456</v>
       </c>
       <c r="I148" t="n">
-        <v>778143.4822701593</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J148" t="n">
-        <v>54325.60000000001</v>
+        <v>164732.9</v>
       </c>
       <c r="K148" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>225930.30768</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -7257,11 +7257,11 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1006343</v>
+        <v>1006367</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -7271,30 +7271,30 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>2138440.407357781</v>
+        <v>25978661.60777046</v>
       </c>
       <c r="G149" t="n">
-        <v>26231535.66358878</v>
+        <v>46547943.10823613</v>
       </c>
       <c r="H149" t="n">
-        <v>285125387.6477042</v>
+        <v>505955903.3503928</v>
       </c>
       <c r="I149" t="n">
-        <v>1080986.896029099</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J149" t="n">
-        <v>104582.4</v>
+        <v>164732.9</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>225930.30768</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -7317,17 +7317,17 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>4676159.089398682</v>
+        <v>86595538.6925682</v>
       </c>
       <c r="G150" t="n">
-        <v>57360884.82995717</v>
+        <v>48002566.33036851</v>
       </c>
       <c r="H150" t="n">
-        <v>623487878.586491</v>
+        <v>521767025.3300925</v>
       </c>
       <c r="I150" t="n">
         <v>2363809.943917513</v>
@@ -7349,11 +7349,11 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1007603</v>
+        <v>1006367</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>FIBREK</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -7363,30 +7363,30 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>469812.0361391784</v>
+        <v>1324911.741996293</v>
       </c>
       <c r="G151" t="n">
-        <v>5763027.643307255</v>
+        <v>57360884.82995717</v>
       </c>
       <c r="H151" t="n">
-        <v>62641604.81855711</v>
+        <v>623487878.586491</v>
       </c>
       <c r="I151" t="n">
-        <v>237491.1421032793</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J151" t="n">
-        <v>15751.6</v>
+        <v>164732.9</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>225930.30768</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -7395,11 +7395,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1007871</v>
+        <v>1006367</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -7413,26 +7413,26 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1500573.367973826</v>
+        <v>4676159.089398682</v>
       </c>
       <c r="G152" t="n">
-        <v>18407033.31381227</v>
+        <v>57360884.82995717</v>
       </c>
       <c r="H152" t="n">
-        <v>200076449.0631768</v>
+        <v>623487878.586491</v>
       </c>
       <c r="I152" t="n">
-        <v>758543.5356200528</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J152" t="n">
-        <v>50310.4</v>
+        <v>164732.9</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>225930.30768</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -7441,11 +7441,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1007933</v>
+        <v>1006367</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -7455,30 +7455,30 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>6169821.86549256</v>
+        <v>23380795.44699341</v>
       </c>
       <c r="G153" t="n">
-        <v>75683148.21670872</v>
+        <v>41893148.79741252</v>
       </c>
       <c r="H153" t="n">
-        <v>822642915.3990079</v>
+        <v>455360313.0153535</v>
       </c>
       <c r="I153" t="n">
-        <v>3118860.158311346</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J153" t="n">
-        <v>206858.4</v>
+        <v>164732.9</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>225930.30768</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -7487,11 +7487,11 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1009702</v>
+        <v>1006367</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>PACKAGING CORPORATION OF AMERICA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -7501,30 +7501,30 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1197538.102529423</v>
+        <v>77935984.82331137</v>
       </c>
       <c r="G154" t="n">
-        <v>14689800.72436092</v>
+        <v>43202309.69733166</v>
       </c>
       <c r="H154" t="n">
-        <v>159671747.0039231</v>
+        <v>469590322.7970833</v>
       </c>
       <c r="I154" t="n">
-        <v>605358.4621183565</v>
+        <v>2363809.943917513</v>
       </c>
       <c r="J154" t="n">
-        <v>40150.4</v>
+        <v>164732.9</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>225930.30768</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
         </is>
       </c>
     </row>
@@ -7533,11 +7533,11 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1013961</v>
+        <v>1007603</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ZFS Ithaca LLC</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -7547,23 +7547,23 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Scenario3Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1402743.085428783</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>17206981.8479264</v>
+        <v>1770867.894588918</v>
       </c>
       <c r="H155" t="n">
-        <v>187032411.3905043</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>709090.0866943083</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J155" t="n">
-        <v>47030.4</v>
+        <v>15751.6</v>
       </c>
       <c r="K155" t="n">
         <v>0</v>
@@ -7579,11 +7579,11 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1000248</v>
+        <v>1007603</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Otsego Paper, Inc.</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -7593,23 +7593,23 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>16605989.54383824</v>
+        <v>147903.7891549265</v>
       </c>
       <c r="G156" t="n">
-        <v>17304273.40261213</v>
+        <v>6403364.048119172</v>
       </c>
       <c r="H156" t="n">
-        <v>188089928.2892623</v>
+        <v>69601783.13173012</v>
       </c>
       <c r="I156" t="n">
-        <v>1678873.727855258</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J156" t="n">
-        <v>111351.3</v>
+        <v>15751.6</v>
       </c>
       <c r="K156" t="n">
         <v>0</v>
@@ -7625,11 +7625,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1000409</v>
+        <v>1007603</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -7639,23 +7639,23 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>36589316.06894605</v>
+        <v>522013.373487976</v>
       </c>
       <c r="G157" t="n">
-        <v>38127901.21300338</v>
+        <v>6403364.048119172</v>
       </c>
       <c r="H157" t="n">
-        <v>414433708.8369933</v>
+        <v>69601783.13173012</v>
       </c>
       <c r="I157" t="n">
-        <v>3699197.889182058</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J157" t="n">
-        <v>245349.3</v>
+        <v>15751.6</v>
       </c>
       <c r="K157" t="n">
         <v>0</v>
@@ -7671,11 +7671,11 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1001663</v>
+        <v>1007603</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -7685,30 +7685,30 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>8131560.073626003</v>
+        <v>2610066.86743988</v>
       </c>
       <c r="G158" t="n">
-        <v>12025273.31747078</v>
+        <v>2719820.49332543</v>
       </c>
       <c r="H158" t="n">
-        <v>130709492.5812041</v>
+        <v>29563266.23179815</v>
       </c>
       <c r="I158" t="n">
-        <v>822104.7314312611</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J158" t="n">
-        <v>94768</v>
+        <v>15751.6</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -7717,11 +7717,11 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1001809</v>
+        <v>1007603</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -7731,23 +7731,23 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>12517802.21991745</v>
+        <v>8700222.891466266</v>
       </c>
       <c r="G159" t="n">
-        <v>16480099.05306928</v>
+        <v>2901141.859547126</v>
       </c>
       <c r="H159" t="n">
-        <v>179131511.4464052</v>
+        <v>31534150.64725137</v>
       </c>
       <c r="I159" t="n">
-        <v>1265555.974368639</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J159" t="n">
-        <v>83938</v>
+        <v>15751.6</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -7763,11 +7763,11 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1001892</v>
+        <v>1007603</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -7777,30 +7777,30 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>3401509.955441399</v>
+        <v>133113.4102394339</v>
       </c>
       <c r="G160" t="n">
-        <v>6094743.997151342</v>
+        <v>5763027.643307255</v>
       </c>
       <c r="H160" t="n">
-        <v>66247217.36034068</v>
+        <v>62641604.81855711</v>
       </c>
       <c r="I160" t="n">
-        <v>343894.3330749999</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J160" t="n">
-        <v>22814.2</v>
+        <v>15751.6</v>
       </c>
       <c r="K160" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -7809,11 +7809,11 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1003135</v>
+        <v>1007603</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -7823,30 +7823,30 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>12017779.11878136</v>
+        <v>469812.0361391784</v>
       </c>
       <c r="G161" t="n">
-        <v>15821802.16590213</v>
+        <v>5763027.643307255</v>
       </c>
       <c r="H161" t="n">
-        <v>171976110.4989362</v>
+        <v>62641604.81855711</v>
       </c>
       <c r="I161" t="n">
-        <v>1215003.392385978</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J161" t="n">
-        <v>80585.10000000001</v>
+        <v>15751.6</v>
       </c>
       <c r="K161" t="n">
-        <v>198.3999999999942</v>
+        <v>0</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -7855,11 +7855,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1003320</v>
+        <v>1007603</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -7873,26 +7873,26 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>46163417.22329521</v>
+        <v>2349060.180695892</v>
       </c>
       <c r="G162" t="n">
-        <v>82714504.35110113</v>
+        <v>2447838.443992887</v>
       </c>
       <c r="H162" t="n">
-        <v>899070699.4684906</v>
+        <v>26606939.60861834</v>
       </c>
       <c r="I162" t="n">
-        <v>4667144.234892589</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J162" t="n">
-        <v>309921</v>
+        <v>15751.6</v>
       </c>
       <c r="K162" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -7901,11 +7901,11 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1004477</v>
+        <v>1007603</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>FIBREK</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -7915,23 +7915,23 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>8924627.177782889</v>
+        <v>7830200.60231964</v>
       </c>
       <c r="G163" t="n">
-        <v>14150954.2938434</v>
+        <v>2611027.673592413</v>
       </c>
       <c r="H163" t="n">
-        <v>153814720.5852544</v>
+        <v>28380735.58252623</v>
       </c>
       <c r="I163" t="n">
-        <v>902284.206558613</v>
+        <v>237491.1421032793</v>
       </c>
       <c r="J163" t="n">
-        <v>59844</v>
+        <v>15751.6</v>
       </c>
       <c r="K163" t="n">
         <v>0</v>
@@ -7947,11 +7947,11 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1004553</v>
+        <v>1007871</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -7961,23 +7961,23 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2324319.260155918</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>2422057.16476675</v>
+        <v>5656128.401173614</v>
       </c>
       <c r="H164" t="n">
-        <v>26326708.31268207</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>234989.8228420656</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J164" t="n">
-        <v>15585.7</v>
+        <v>50310.4</v>
       </c>
       <c r="K164" t="n">
         <v>0</v>
@@ -7993,11 +7993,11 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1004584</v>
+        <v>1007871</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -8007,23 +8007,23 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>15778712.21706672</v>
+        <v>472402.726954723</v>
       </c>
       <c r="G165" t="n">
-        <v>20773194.50321597</v>
+        <v>20452259.23756918</v>
       </c>
       <c r="H165" t="n">
-        <v>225795592.4262606</v>
+        <v>222307165.625752</v>
       </c>
       <c r="I165" t="n">
-        <v>1595235.582359593</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J165" t="n">
-        <v>105804</v>
+        <v>50310.4</v>
       </c>
       <c r="K165" t="n">
         <v>0</v>
@@ -8039,11 +8039,11 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1005073</v>
+        <v>1007871</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -8053,30 +8053,30 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>7774987.139503186</v>
+        <v>1667303.74219314</v>
       </c>
       <c r="G166" t="n">
-        <v>8101926.284403715</v>
+        <v>20452259.23756918</v>
       </c>
       <c r="H166" t="n">
-        <v>88064416.13482299</v>
+        <v>222307165.625752</v>
       </c>
       <c r="I166" t="n">
-        <v>786055.0320392009</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J166" t="n">
-        <v>52135.10000000001</v>
+        <v>50310.4</v>
       </c>
       <c r="K166" t="n">
         <v>0</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -8085,11 +8085,11 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1005758</v>
+        <v>1007871</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -8099,30 +8099,30 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>17315124.87391437</v>
+        <v>8336518.7109657</v>
       </c>
       <c r="G167" t="n">
-        <v>27454988.96502072</v>
+        <v>8687070.326024005</v>
       </c>
       <c r="H167" t="n">
-        <v>298423793.0980512</v>
+        <v>94424677.45678267</v>
       </c>
       <c r="I167" t="n">
-        <v>1750567.659253675</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J167" t="n">
-        <v>116106.4</v>
+        <v>50310.4</v>
       </c>
       <c r="K167" t="n">
-        <v>14454.20000000001</v>
+        <v>0</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -8131,11 +8131,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1005838</v>
+        <v>1007871</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -8145,30 +8145,30 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>7287160.92539779</v>
+        <v>27788395.703219</v>
       </c>
       <c r="G168" t="n">
-        <v>7593586.919287518</v>
+        <v>9266208.347758941</v>
       </c>
       <c r="H168" t="n">
-        <v>82538988.25312519</v>
+        <v>100719655.9539015</v>
       </c>
       <c r="I168" t="n">
-        <v>736735.5613471012</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J168" t="n">
-        <v>68233.39999999999</v>
+        <v>50310.4</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -8177,11 +8177,11 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1006063</v>
+        <v>1007871</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -8191,23 +8191,23 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>14616694.26194062</v>
+        <v>425162.4542592507</v>
       </c>
       <c r="G169" t="n">
-        <v>21615746.7824454</v>
+        <v>18407033.31381227</v>
       </c>
       <c r="H169" t="n">
-        <v>234953769.3744065</v>
+        <v>200076449.0631768</v>
       </c>
       <c r="I169" t="n">
-        <v>1477754.994346024</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J169" t="n">
-        <v>98012.10000000001</v>
+        <v>50310.4</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
@@ -8223,11 +8223,11 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1006312</v>
+        <v>1007871</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -8237,30 +8237,30 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>7696732.824982405</v>
+        <v>1500573.367973826</v>
       </c>
       <c r="G170" t="n">
-        <v>12203996.00438075</v>
+        <v>18407033.31381227</v>
       </c>
       <c r="H170" t="n">
-        <v>132652130.4823995</v>
+        <v>200076449.0631768</v>
       </c>
       <c r="I170" t="n">
-        <v>778143.4822701593</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J170" t="n">
-        <v>54325.60000000001</v>
+        <v>50310.4</v>
       </c>
       <c r="K170" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -8269,11 +8269,11 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1006343</v>
+        <v>1007871</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -8287,26 +8287,26 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>10692202.03678891</v>
+        <v>7502866.83986913</v>
       </c>
       <c r="G171" t="n">
-        <v>16953633.95120862</v>
+        <v>7818363.293421606</v>
       </c>
       <c r="H171" t="n">
-        <v>184278629.9044415</v>
+        <v>84982209.71110441</v>
       </c>
       <c r="I171" t="n">
-        <v>1080986.896029099</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J171" t="n">
-        <v>104582.4</v>
+        <v>50310.4</v>
       </c>
       <c r="K171" t="n">
         <v>0</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -8315,11 +8315,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1006367</v>
+        <v>1007871</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>WESTROCK CALIFORNIA, LLC</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -8329,30 +8329,30 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario4Worst</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>23380795.44699341</v>
+        <v>25009556.1328971</v>
       </c>
       <c r="G172" t="n">
-        <v>41893148.79741252</v>
+        <v>8339587.512983046</v>
       </c>
       <c r="H172" t="n">
-        <v>455360313.0153535</v>
+        <v>90647690.35851137</v>
       </c>
       <c r="I172" t="n">
-        <v>2363809.943917513</v>
+        <v>758543.5356200528</v>
       </c>
       <c r="J172" t="n">
-        <v>164732.9</v>
+        <v>50310.4</v>
       </c>
       <c r="K172" t="n">
-        <v>225930.30768</v>
+        <v>0</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -8361,11 +8361,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1007603</v>
+        <v>1007933</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>FIBREK</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -8375,23 +8375,23 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2349060.180695892</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>2447838.443992887</v>
+        <v>23255980.29952718</v>
       </c>
       <c r="H173" t="n">
-        <v>26606939.60861834</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>237491.1421032793</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J173" t="n">
-        <v>15751.6</v>
+        <v>206858.4</v>
       </c>
       <c r="K173" t="n">
         <v>0</v>
@@ -8407,11 +8407,11 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1007871</v>
+        <v>1007933</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -8421,23 +8421,23 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>7502866.83986913</v>
+        <v>1942351.328025435</v>
       </c>
       <c r="G174" t="n">
-        <v>7818363.293421606</v>
+        <v>84092386.90745415</v>
       </c>
       <c r="H174" t="n">
-        <v>84982209.71110441</v>
+        <v>914047683.7766755</v>
       </c>
       <c r="I174" t="n">
-        <v>758543.5356200528</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J174" t="n">
-        <v>50310.4</v>
+        <v>206858.4</v>
       </c>
       <c r="K174" t="n">
         <v>0</v>
@@ -8467,17 +8467,17 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>30849109.3274628</v>
+        <v>6855357.628325067</v>
       </c>
       <c r="G175" t="n">
-        <v>40613868.8312734</v>
+        <v>84092386.90745415</v>
       </c>
       <c r="H175" t="n">
-        <v>441455095.9921021</v>
+        <v>914047683.7766755</v>
       </c>
       <c r="I175" t="n">
         <v>3118860.158311346</v>
@@ -8499,11 +8499,11 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1009702</v>
+        <v>1007933</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -8513,23 +8513,23 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5987690.512647116</v>
+        <v>34276788.14162533</v>
       </c>
       <c r="G176" t="n">
-        <v>8854834.042061087</v>
+        <v>45126520.92363711</v>
       </c>
       <c r="H176" t="n">
-        <v>96248196.10935964</v>
+        <v>490505662.2134469</v>
       </c>
       <c r="I176" t="n">
-        <v>605358.4621183565</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J176" t="n">
-        <v>40150.4</v>
+        <v>206858.4</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
@@ -8545,11 +8545,11 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1013961</v>
+        <v>1007933</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>ZFS Ithaca LLC</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -8559,23 +8559,23 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Scenario4Best</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>7013715.427143913</v>
+        <v>114255960.4720844</v>
       </c>
       <c r="G177" t="n">
-        <v>8761427.177022688</v>
+        <v>47338605.28263892</v>
       </c>
       <c r="H177" t="n">
-        <v>95232904.09807269</v>
+        <v>514550057.4199883</v>
       </c>
       <c r="I177" t="n">
-        <v>709090.0866943083</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J177" t="n">
-        <v>47030.4</v>
+        <v>206858.4</v>
       </c>
       <c r="K177" t="n">
         <v>0</v>
@@ -8591,11 +8591,11 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1000248</v>
+        <v>1007933</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Otsego Paper, Inc.</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -8605,23 +8605,23 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>55353298.47946081</v>
+        <v>1748116.195222892</v>
       </c>
       <c r="G178" t="n">
-        <v>18457891.62945294</v>
+        <v>75683148.21670872</v>
       </c>
       <c r="H178" t="n">
-        <v>200629256.8418798</v>
+        <v>822642915.3990079</v>
       </c>
       <c r="I178" t="n">
-        <v>1678873.727855258</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J178" t="n">
-        <v>111351.3</v>
+        <v>206858.4</v>
       </c>
       <c r="K178" t="n">
         <v>0</v>
@@ -8637,11 +8637,11 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1000409</v>
+        <v>1007933</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Graphic Packaging International, Inc.</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -8651,23 +8651,23 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>121964386.8964868</v>
+        <v>6169821.86549256</v>
       </c>
       <c r="G179" t="n">
-        <v>40669761.29387028</v>
+        <v>75683148.21670872</v>
       </c>
       <c r="H179" t="n">
-        <v>442062622.7594596</v>
+        <v>822642915.3990079</v>
       </c>
       <c r="I179" t="n">
-        <v>3699197.889182058</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J179" t="n">
-        <v>245349.3</v>
+        <v>206858.4</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -8683,11 +8683,11 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1001663</v>
+        <v>1007933</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>MORTON SALT</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -8697,30 +8697,30 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>27105200.24542001</v>
+        <v>30849109.3274628</v>
       </c>
       <c r="G180" t="n">
-        <v>12526326.37236539</v>
+        <v>40613868.8312734</v>
       </c>
       <c r="H180" t="n">
-        <v>136155721.4387543</v>
+        <v>441455095.9921021</v>
       </c>
       <c r="I180" t="n">
-        <v>822104.7314312611</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J180" t="n">
-        <v>94768</v>
+        <v>206858.4</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -8729,11 +8729,11 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1001809</v>
+        <v>1007933</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>MARYSVILLE ETHANOL LLC</t>
+          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -8747,19 +8747,19 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>41726007.39972484</v>
+        <v>102830364.424876</v>
       </c>
       <c r="G181" t="n">
-        <v>17287947.04586679</v>
+        <v>42604744.75437503</v>
       </c>
       <c r="H181" t="n">
-        <v>187912467.8898565</v>
+        <v>463095051.6779895</v>
       </c>
       <c r="I181" t="n">
-        <v>1265555.974368639</v>
+        <v>3118860.158311346</v>
       </c>
       <c r="J181" t="n">
-        <v>83938</v>
+        <v>206858.4</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
@@ -8775,11 +8775,11 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1001892</v>
+        <v>1009702</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Billerud Quinnesec LLC</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -8789,30 +8789,30 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>11338366.518138</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>6285204.747062322</v>
+        <v>4513894.100593139</v>
       </c>
       <c r="H182" t="n">
-        <v>68317442.90285133</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>343894.3330749999</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J182" t="n">
-        <v>22814.2</v>
+        <v>40150.4</v>
       </c>
       <c r="K182" t="n">
-        <v>677171.4747199999</v>
+        <v>0</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Propane', nan, 'Bituminous', 'Wood and Wood Residuals (dry basis)']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -8821,11 +8821,11 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1003135</v>
+        <v>1009702</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CARBON GREEN BIOENERGY</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -8835,30 +8835,30 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>40059263.7292712</v>
+        <v>377002.735981485</v>
       </c>
       <c r="G183" t="n">
-        <v>16597380.70344636</v>
+        <v>16322000.80484547</v>
       </c>
       <c r="H183" t="n">
-        <v>180406311.9939821</v>
+        <v>177413052.2265812</v>
       </c>
       <c r="I183" t="n">
-        <v>1215003.392385978</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J183" t="n">
-        <v>80585.10000000001</v>
+        <v>40150.4</v>
       </c>
       <c r="K183" t="n">
-        <v>198.3999999999942</v>
+        <v>0</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Other Biomass Gases']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -8867,11 +8867,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1003320</v>
+        <v>1009702</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Billerud Escanaba LLC</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -8881,30 +8881,30 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>153878057.410984</v>
+        <v>1330597.891699359</v>
       </c>
       <c r="G184" t="n">
-        <v>85299332.61207305</v>
+        <v>16322000.80484547</v>
       </c>
       <c r="H184" t="n">
-        <v>927166658.8268809</v>
+        <v>177413052.2265812</v>
       </c>
       <c r="I184" t="n">
-        <v>4667144.234892589</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J184" t="n">
-        <v>309921</v>
+        <v>40150.4</v>
       </c>
       <c r="K184" t="n">
-        <v>1626966.19008</v>
+        <v>0</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -8913,11 +8913,11 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1004477</v>
+        <v>1009702</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CROSWELL FACTORY</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -8927,23 +8927,23 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>29748757.2592763</v>
+        <v>6652989.458496795</v>
       </c>
       <c r="G185" t="n">
-        <v>14683746.24767787</v>
+        <v>9838704.491178986</v>
       </c>
       <c r="H185" t="n">
-        <v>159605937.4747594</v>
+        <v>106942440.1215107</v>
       </c>
       <c r="I185" t="n">
-        <v>902284.206558613</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J185" t="n">
-        <v>59844</v>
+        <v>40150.4</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
@@ -8959,11 +8959,11 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1004553</v>
+        <v>1009702</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Ox Paperboard WP Mill, LLC</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -8973,23 +8973,23 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>7747730.867186394</v>
+        <v>22176631.52832265</v>
       </c>
       <c r="G186" t="n">
-        <v>2583527.642417867</v>
+        <v>10248650.51164478</v>
       </c>
       <c r="H186" t="n">
-        <v>28081822.20019421</v>
+        <v>111398375.1265737</v>
       </c>
       <c r="I186" t="n">
-        <v>234989.8228420656</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J186" t="n">
-        <v>15585.7</v>
+        <v>40150.4</v>
       </c>
       <c r="K186" t="n">
         <v>0</v>
@@ -9005,11 +9005,11 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1004584</v>
+        <v>1009702</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>POET Biorefining - Caro, LLC</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -9019,23 +9019,23 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>52595707.3902224</v>
+        <v>339302.4623833366</v>
       </c>
       <c r="G187" t="n">
-        <v>21791488.35141284</v>
+        <v>14689800.72436092</v>
       </c>
       <c r="H187" t="n">
-        <v>236864003.8197047</v>
+        <v>159671747.0039231</v>
       </c>
       <c r="I187" t="n">
-        <v>1595235.582359593</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J187" t="n">
-        <v>105804</v>
+        <v>40150.4</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
@@ -9051,11 +9051,11 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1005073</v>
+        <v>1009702</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>UP Paper LLC</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -9065,30 +9065,30 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>25916623.79834395</v>
+        <v>1197538.102529423</v>
       </c>
       <c r="G188" t="n">
-        <v>8642054.703363964</v>
+        <v>14689800.72436092</v>
       </c>
       <c r="H188" t="n">
-        <v>93935377.21047787</v>
+        <v>159671747.0039231</v>
       </c>
       <c r="I188" t="n">
-        <v>786055.0320392009</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J188" t="n">
-        <v>52135.10000000001</v>
+        <v>40150.4</v>
       </c>
       <c r="K188" t="n">
         <v>0</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Natural Gasoline']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -9097,11 +9097,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1005758</v>
+        <v>1009702</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - Bay City</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -9111,30 +9111,30 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>57717082.91304789</v>
+        <v>5987690.512647116</v>
       </c>
       <c r="G189" t="n">
-        <v>28488685.83870372</v>
+        <v>8854834.042061087</v>
       </c>
       <c r="H189" t="n">
-        <v>309659628.6815622</v>
+        <v>96248196.10935964</v>
       </c>
       <c r="I189" t="n">
-        <v>1750567.659253675</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J189" t="n">
-        <v>116106.4</v>
+        <v>40150.4</v>
       </c>
       <c r="K189" t="n">
-        <v>14454.20000000001</v>
+        <v>0</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -9143,11 +9143,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1005838</v>
+        <v>1009702</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>NEENAH PAPER MICHIGAN INC</t>
+          <t>Cargill Salt</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -9161,26 +9161,26 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>24290536.41799263</v>
+        <v>19958968.37549039</v>
       </c>
       <c r="G190" t="n">
-        <v>8099826.047240019</v>
+        <v>9223785.460480299</v>
       </c>
       <c r="H190" t="n">
-        <v>88041587.47000021</v>
+        <v>100258537.6139163</v>
       </c>
       <c r="I190" t="n">
-        <v>736735.5613471012</v>
+        <v>605358.4621183565</v>
       </c>
       <c r="J190" t="n">
-        <v>68233.39999999999</v>
+        <v>40150.4</v>
       </c>
       <c r="K190" t="n">
         <v>0</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>['Bituminous', 'Natural Gas (Weighted U.S. Average)', 'Distillate Fuel Oil No. 2']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -9189,11 +9189,11 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1006063</v>
+        <v>1013961</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>CARGILL SALT SAINT CLAIR</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -9203,23 +9203,23 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>48722314.20646872</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>22516402.89838062</v>
+        <v>5287375.595474405</v>
       </c>
       <c r="H191" t="n">
-        <v>244743509.7650068</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>1477754.994346024</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J191" t="n">
-        <v>98012.10000000001</v>
+        <v>47030.4</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -9235,11 +9235,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1006312</v>
+        <v>1013961</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR CO - CARO FACTORY</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -9249,30 +9249,30 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario1Best</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>25655776.08327468</v>
+        <v>441604.3046720242</v>
       </c>
       <c r="G192" t="n">
-        <v>12663483.80575051</v>
+        <v>19118868.71991822</v>
       </c>
       <c r="H192" t="n">
-        <v>137646563.1059838</v>
+        <v>207813790.4338937</v>
       </c>
       <c r="I192" t="n">
-        <v>778143.4822701593</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J192" t="n">
-        <v>54325.60000000001</v>
+        <v>47030.4</v>
       </c>
       <c r="K192" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Anthracite', 'Coal Coke']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -9281,11 +9281,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1006343</v>
+        <v>1013961</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MICHIGAN SUGAR COMPANY - SEBEWAING FACTORY</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -9295,30 +9295,30 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario1Worst</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>35640673.45596302</v>
+        <v>1558603.428254203</v>
       </c>
       <c r="G193" t="n">
-        <v>17591948.48250413</v>
+        <v>19118868.71991822</v>
       </c>
       <c r="H193" t="n">
-        <v>191216831.3315666</v>
+        <v>207813790.4338937</v>
       </c>
       <c r="I193" t="n">
-        <v>1080986.896029099</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J193" t="n">
-        <v>104582.4</v>
+        <v>47030.4</v>
       </c>
       <c r="K193" t="n">
         <v>0</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Bituminous', 'Anthracite']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -9327,11 +9327,11 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1006367</v>
+        <v>1013961</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>PACKAGING CORPORATION OF AMERICA</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -9341,30 +9341,30 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario2Best</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>77935984.82331137</v>
+        <v>7793017.141271014</v>
       </c>
       <c r="G194" t="n">
-        <v>43202309.69733166</v>
+        <v>9734919.085580764</v>
       </c>
       <c r="H194" t="n">
-        <v>469590322.7970833</v>
+        <v>105814337.8867474</v>
       </c>
       <c r="I194" t="n">
-        <v>2363809.943917513</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J194" t="n">
-        <v>164732.9</v>
+        <v>47030.4</v>
       </c>
       <c r="K194" t="n">
-        <v>225930.30768</v>
+        <v>0</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>['Natural Gas (Weighted U.S. Average)', 'Tires', 'Wood and Wood Residuals (dry basis)', nan, 'Other Biomass Gases', 'Propane']</t>
+          <t>['Natural Gas (Weighted U.S. Average)']</t>
         </is>
       </c>
     </row>
@@ -9373,11 +9373,11 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1007603</v>
+        <v>1013961</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>FIBREK</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -9387,23 +9387,23 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario2Worst</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>7830200.60231964</v>
+        <v>25976723.80423671</v>
       </c>
       <c r="G195" t="n">
-        <v>2611027.673592413</v>
+        <v>10247283.24797975</v>
       </c>
       <c r="H195" t="n">
-        <v>28380735.58252623</v>
+        <v>111383513.5649973</v>
       </c>
       <c r="I195" t="n">
-        <v>237491.1421032793</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J195" t="n">
-        <v>15751.6</v>
+        <v>47030.4</v>
       </c>
       <c r="K195" t="n">
         <v>0</v>
@@ -9419,11 +9419,11 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1007871</v>
+        <v>1013961</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>WESTROCK CALIFORNIA, LLC</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -9433,23 +9433,23 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario3Best</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>25009556.1328971</v>
+        <v>397443.8742048217</v>
       </c>
       <c r="G196" t="n">
-        <v>8339587.512983046</v>
+        <v>17206981.8479264</v>
       </c>
       <c r="H196" t="n">
-        <v>90647690.35851137</v>
+        <v>187032411.3905043</v>
       </c>
       <c r="I196" t="n">
-        <v>758543.5356200528</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J196" t="n">
-        <v>50310.4</v>
+        <v>47030.4</v>
       </c>
       <c r="K196" t="n">
         <v>0</v>
@@ -9465,11 +9465,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1007933</v>
+        <v>1013961</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>THE ANDERSONS MARATHON HOLDINGS LLC</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -9479,23 +9479,23 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario3Worst</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>102830364.424876</v>
+        <v>1402743.085428783</v>
       </c>
       <c r="G197" t="n">
-        <v>42604744.75437503</v>
+        <v>17206981.8479264</v>
       </c>
       <c r="H197" t="n">
-        <v>463095051.6779895</v>
+        <v>187032411.3905043</v>
       </c>
       <c r="I197" t="n">
-        <v>3118860.158311346</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J197" t="n">
-        <v>206858.4</v>
+        <v>47030.4</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
@@ -9511,11 +9511,11 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1009702</v>
+        <v>1013961</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Cargill Salt</t>
+          <t>ZFS Ithaca LLC</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -9525,23 +9525,23 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Scenario4Worst</t>
+          <t>Scenario4Best</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>19958968.37549039</v>
+        <v>7013715.427143913</v>
       </c>
       <c r="G198" t="n">
-        <v>9223785.460480299</v>
+        <v>8761427.177022688</v>
       </c>
       <c r="H198" t="n">
-        <v>100258537.6139163</v>
+        <v>95232904.09807269</v>
       </c>
       <c r="I198" t="n">
-        <v>605358.4621183565</v>
+        <v>709090.0866943083</v>
       </c>
       <c r="J198" t="n">
-        <v>40150.4</v>
+        <v>47030.4</v>
       </c>
       <c r="K198" t="n">
         <v>0</v>
